--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE44965-4D0B-4927-8E1F-0C8D1B4B86E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BD5A3-ABC7-4212-810B-F93DD2585B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -149,18 +149,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -244,7 +301,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3223260" cy="512769"/>
@@ -304,7 +361,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3223260" cy="512769"/>
@@ -660,39 +717,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="22" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -761,7 +828,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <f>SUM(C6:C10)</f>
         <v>13</v>
       </c>
@@ -769,7 +836,7 @@
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -797,21 +864,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <f>C6+C10</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44543</v>
@@ -843,7 +940,7 @@
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>1.5</v>
       </c>
       <c r="D25" t="s">
@@ -925,12 +1022,12 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="11">
         <f>SUM(C23:C31)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -938,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1044,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -956,32 +1053,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <f>C31+C28+C24</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BD5A3-ABC7-4212-810B-F93DD2585B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C45774-FF1C-4C58-BEA7-DF0BE0FEA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">Descrition </t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -99,7 +96,10 @@
     <t>Tried to edit content on landing page</t>
   </si>
   <si>
-    <t>Total hours</t>
+    <t>Workhours</t>
+  </si>
+  <si>
+    <t>Total workhours</t>
   </si>
 </sst>
 </file>
@@ -130,18 +130,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,26 +198,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -300,17 +306,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3223260" cy="512769"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2">
+        <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE42005-DA43-44C5-A8D9-E1A5397014C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB8D7BA-D8FD-4887-BC15-EA1F41834836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,7 +324,187 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5814060"/>
+          <a:off x="30480" y="182880"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534520E3-D11F-48B9-98A8-A5C975DFAB23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="182880"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Textfeld 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AFEB2C-8D7D-473A-8916-117F5F16326F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="182880"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Textfeld 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED99AA7D-AA04-4767-A522-45F309332CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3337560"/>
           <a:ext cx="3223260" cy="512769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -361,16 +547,16 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3223260" cy="512769"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3">
+        <xdr:cNvPr id="16" name="Textfeld 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E591C60-3EC4-417C-8F79-E0A1B3CA84AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80E2051-187B-4A2C-9850-BEF4965F90DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,7 +564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3352800"/>
+          <a:off x="0" y="7429500"/>
           <a:ext cx="3223260" cy="512769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -717,36 +903,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" hidden="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -754,347 +947,407 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11">
-        <f>SUM(C6:C10)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f>C7</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <f>C8+C9</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11">
         <f>C6+C10</f>
         <v>5</v>
       </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10">
+        <f>B13+B14+B15</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>44543</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>44545</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>44549</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <f>C26+C28+C30</f>
+        <v>4.5</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <f>C31+C24+C27</f>
         <v>5</v>
       </c>
-      <c r="E31" s="11">
-        <f>SUM(C23:C31)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <f>C25+C27+C29</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <f>C30+C23+C26</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11">
         <f>C31+C28+C24</f>
         <v>5</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <f>B35+B36+B37</f>
+        <v>14.5</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C45774-FF1C-4C58-BEA7-DF0BE0FEA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A07A0C-C65A-47EA-8C6D-948013341BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1025,7 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1240,7 +1240,7 @@
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A07A0C-C65A-47EA-8C6D-948013341BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E786FE43-042E-45AA-9B26-679BAB9616DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -906,7 +906,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E786FE43-042E-45AA-9B26-679BAB9616DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5BC128-C6B7-476F-BD10-C5D808B6DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Tried to improve picking up items</t>
   </si>
   <si>
-    <t>Wrote README file</t>
-  </si>
-  <si>
     <t>Created and edited first Hugo landing page</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>Total workhours</t>
+  </si>
+  <si>
+    <t>Created a better time record</t>
+  </si>
+  <si>
+    <t>Wrote ReadMe file</t>
+  </si>
+  <si>
+    <t>Creating ERD</t>
   </si>
 </sst>
 </file>
@@ -903,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
@@ -1029,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1116,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>2</v>
@@ -1127,7 +1133,7 @@
         <v>44543</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1139,7 +1145,7 @@
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1151,7 +1157,7 @@
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>1.5</v>
@@ -1165,7 +1171,7 @@
         <v>44545</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1177,7 +1183,7 @@
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1189,7 +1195,7 @@
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1203,7 +1209,7 @@
         <v>44549</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1215,7 +1221,7 @@
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1227,7 +1233,7 @@
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1244,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -1331,14 +1337,37 @@
         <v>1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>0.7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>1.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -1348,6 +1377,27 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5BC128-C6B7-476F-BD10-C5D808B6DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E88E5C-BA76-44FB-B33E-C4D409A1910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Creating ERD</t>
+  </si>
+  <si>
+    <t>Editing ERD</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,31 +1375,42 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>1.33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
   </sheetData>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E88E5C-BA76-44FB-B33E-C4D409A1910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF046140-D882-44CD-BDC0-2805DD1A9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Editing ERD</t>
+  </si>
+  <si>
+    <t>Adding new Tables to ERD</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +236,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -912,15 +917,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1356,7 +1363,7 @@
       <c r="C46">
         <v>0.7</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1368,15 +1375,17 @@
       <c r="C47">
         <v>1.5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -1388,30 +1397,106 @@
       <c r="C50">
         <v>1.33</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="12">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="12">
+        <f>38/60</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <f>C56+C49+C52</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="13">
+        <f>C50+C51+C54+C46+C47</f>
+        <v>4.83</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4">
+        <f>B60+B61+B62</f>
+        <v>4.83</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF046140-D882-44CD-BDC0-2805DD1A9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26DD08-5EAA-4C83-9C1C-717EC39936E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -920,7 +921,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,8 +1433,8 @@
         <v>25</v>
       </c>
       <c r="C54" s="12">
-        <f>38/60</f>
-        <v>0.6333333333333333</v>
+        <f>57/60</f>
+        <v>0.95</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
@@ -1485,15 +1486,15 @@
       </c>
       <c r="B62" s="13">
         <f>C50+C51+C54+C46+C47</f>
-        <v>4.83</v>
+        <v>5.1466666666666665</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4">
+      <c r="B63" s="14">
         <f>B60+B61+B62</f>
-        <v>4.83</v>
+        <v>5.1466666666666665</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26DD08-5EAA-4C83-9C1C-717EC39936E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD151F-0623-4FEE-82B4-3DF5CB6DDDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -105,13 +105,13 @@
     <t>Wrote ReadMe file</t>
   </si>
   <si>
-    <t>Creating ERD</t>
-  </si>
-  <si>
     <t>Editing ERD</t>
   </si>
   <si>
     <t>Adding new Tables to ERD</t>
+  </si>
+  <si>
+    <t>Creating first version of ERD</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1371,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>1.5</v>
@@ -1393,7 +1393,7 @@
         <v>44571</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>1.33</v>
@@ -1407,7 +1407,7 @@
         <v>44574</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="12">
         <f>40/60</f>
@@ -1430,11 +1430,11 @@
         <v>44577</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="12">
-        <f>57/60</f>
-        <v>0.95</v>
+        <f>86/60</f>
+        <v>1.4333333333333333</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B62" s="13">
         <f>C50+C51+C54+C46+C47</f>
-        <v>5.1466666666666665</v>
+        <v>5.63</v>
       </c>
       <c r="D62" s="5"/>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
-        <v>5.1466666666666665</v>
+        <v>5.63</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD151F-0623-4FEE-82B4-3DF5CB6DDDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389833B-B564-4F07-B298-37844E7E9D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Creating first version of ERD</t>
+  </si>
+  <si>
+    <t>Searched for ways to save data</t>
+  </si>
+  <si>
+    <t>Tried to implement save system</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +245,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -920,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,26 +1411,46 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>44574</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C52" s="12">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="D52" s="5"/>
-    </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1441,8 +1468,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -1468,15 +1505,19 @@
       <c r="A60" t="s">
         <v>6</v>
       </c>
+      <c r="B60">
+        <f>C55+C51+C53</f>
+        <v>9.5</v>
+      </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="B61">
-        <f>C56+C49+C52</f>
-        <v>0</v>
+      <c r="B61" t="e">
+        <f>C56+C49+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D61" s="5"/>
     </row>
@@ -1485,16 +1526,16 @@
         <v>4</v>
       </c>
       <c r="B62" s="13">
-        <f>C50+C51+C54+C46+C47</f>
+        <f>C50+C52+C54+C46+C47</f>
         <v>5.63</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="14">
+      <c r="B63" s="14" t="e">
         <f>B60+B61+B62</f>
-        <v>5.63</v>
+        <v>#REF!</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389833B-B564-4F07-B298-37844E7E9D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04C56F7-FFB8-4BF1-9D7F-E5A4E5348002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Descrition </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -114,10 +111,19 @@
     <t>Creating first version of ERD</t>
   </si>
   <si>
-    <t>Searched for ways to save data</t>
-  </si>
-  <si>
-    <t>Tried to implement save system</t>
+    <t>Implementing first simple puzzle</t>
+  </si>
+  <si>
+    <t>Coming up with / designing first simple puzzle</t>
+  </si>
+  <si>
+    <t>Searching for ways to save data</t>
+  </si>
+  <si>
+    <t>Trying to implement save system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
   </si>
 </sst>
 </file>
@@ -927,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -982,13 +988,13 @@
         <v>44534</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -996,25 +1002,25 @@
         <v>44535</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1022,25 +1028,25 @@
         <v>44536</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1050,16 +1056,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <f>C7</f>
@@ -1069,7 +1075,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <f>C8+C9</f>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="11">
         <f>C6+C10</f>
@@ -1137,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1151,37 +1157,37 @@
         <v>44543</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1.5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1189,37 +1195,37 @@
         <v>44545</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1227,37 +1233,37 @@
         <v>44549</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,16 +1271,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <f>C26+C28+C30</f>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <f>C31+C24+C27</f>
@@ -1294,7 +1300,7 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="11">
         <f>C31+C28+C24</f>
@@ -1352,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,90 +1372,102 @@
         <v>44550</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>0.7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>1.5</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="D48" s="5"/>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>44571</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>1.33</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>44571</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="12">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>44574</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>0.5</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,33 +1475,39 @@
         <v>44577</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="12">
         <f>86/60</f>
         <v>1.4333333333333333</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>44577</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="D56" s="5"/>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1494,16 +1518,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <f>C55+C51+C53</f>
@@ -1513,17 +1537,17 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="e">
-        <f>C56+C49+#REF!</f>
-        <v>#REF!</v>
+        <v>7</v>
+      </c>
+      <c r="B61" s="12">
+        <f>C56+C49+C48</f>
+        <v>5.5</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="13">
         <f>C50+C52+C54+C46+C47</f>
@@ -1533,9 +1557,9 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="14" t="e">
+      <c r="B63" s="14">
         <f>B60+B61+B62</f>
-        <v>#REF!</v>
+        <v>20.63</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04C56F7-FFB8-4BF1-9D7F-E5A4E5348002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DBA7E-ED97-4892-AC56-66F526208BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,7 +1374,7 @@
       <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="12">
         <v>0.7</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -1386,7 +1386,7 @@
       <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="12">
         <v>1.5</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -1398,7 +1398,7 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="12">
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -1412,7 +1412,7 @@
       <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="12">
         <v>2.5</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -1424,7 +1424,7 @@
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="12">
         <v>1.33</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -1436,7 +1436,7 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="12">
         <v>2</v>
       </c>
       <c r="D51" s="15" t="s">
@@ -1463,7 +1463,7 @@
       <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="12">
         <v>0.5</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -1490,7 +1490,7 @@
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="12">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -1529,7 +1529,7 @@
       <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="12">
         <f>C55+C51+C53</f>
         <v>9.5</v>
       </c>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DBA7E-ED97-4892-AC56-66F526208BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B21F3-1A00-4AF6-987B-F8D67C81B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Trying to create better ERD</t>
   </si>
 </sst>
 </file>
@@ -625,6 +628,66 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Sprint 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F116BBF9-CC07-4641-9E9F-D05E19A5C3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7444740"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -931,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1555,7 +1618,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -1563,6 +1626,163 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="12">
+        <f>C84+C80+C82</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="12">
+        <f>C85+C78+C77</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="13">
+        <f>C79+C81+C83+C75+C76</f>
+        <v>2.5</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="14">
+        <f>B89+B90+B91</f>
+        <v>2.5</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B21F3-1A00-4AF6-987B-F8D67C81B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA82245-BF87-4756-B2F7-31AD2E55079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Trying to create better ERD</t>
+  </si>
+  <si>
+    <t>Trying to implement highscoresystem in unity</t>
+  </si>
+  <si>
+    <t>Find out how to let database run on vm</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1003,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,14 +1686,18 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="5"/>
+      <c r="A76" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>0.67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -1695,14 +1705,30 @@
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="12">
+        <v>1.17</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="15"/>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
@@ -1749,20 +1775,14 @@
       <c r="A89" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="12">
-        <f>C84+C80+C82</f>
-        <v>0</v>
-      </c>
+      <c r="B89" s="12"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="12">
-        <f>C85+C78+C77</f>
-        <v>0</v>
-      </c>
+      <c r="B90" s="12"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1770,8 +1790,8 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C79+C81+C83+C75+C76</f>
-        <v>2.5</v>
+        <f>C75+C76+C79+C80</f>
+        <v>4.67</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -1779,7 +1799,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="14">
         <f>B89+B90+B91</f>
-        <v>2.5</v>
+        <v>4.67</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA82245-BF87-4756-B2F7-31AD2E55079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286200D-8408-4045-B16F-2C0A6C43EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Find out how to let database run on vm</t>
+  </si>
+  <si>
+    <t>Setting up test database and inserting test values</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1735,15 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="5"/>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
@@ -1790,8 +1800,8 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C75+C76+C79+C80</f>
-        <v>4.67</v>
+        <f>C75+C76+C79+C80+C81</f>
+        <v>5.72</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -1799,7 +1809,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="14">
         <f>B89+B90+B91</f>
-        <v>4.67</v>
+        <v>5.72</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286200D-8408-4045-B16F-2C0A6C43EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2E01E-2318-4701-9CD6-223BE4A81C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Setting up test database and inserting test values</t>
+  </si>
+  <si>
+    <t>Creating final ERD</t>
+  </si>
+  <si>
+    <t>Thinking of entities</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,70 +1682,60 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B77" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="C77" s="12">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>44587</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>0.67</v>
       </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>44590</v>
-      </c>
-      <c r="B79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="12">
-        <v>1.17</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="D78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>44590</v>
+      </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" s="12">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -1747,13 +1743,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="5"/>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="5"/>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="12">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
@@ -1761,12 +1771,22 @@
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="5"/>
+      <c r="A85" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,8 +1820,8 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C75+C76+C79+C80+C81</f>
-        <v>5.72</v>
+        <f>C77+C78+C81+C82+C83+C85+C75</f>
+        <v>11</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -1809,7 +1829,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="14">
         <f>B89+B90+B91</f>
-        <v>5.72</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2E01E-2318-4701-9CD6-223BE4A81C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62030BDD-4D0F-4BB0-822C-582C69938C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Creating final ERD</t>
-  </si>
-  <si>
-    <t>Thinking of entities</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,60 +1679,73 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44580</v>
+        <v>44585</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75">
-        <v>0.5</v>
-      </c>
-      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>0.67</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>44585</v>
-      </c>
-      <c r="B77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="12">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>44587</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78">
-        <v>0.67</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="A78" s="1"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="12">
+        <v>3</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="5"/>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>44590</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C81" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -1743,23 +1753,18 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>44591</v>
+      </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C83" s="12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -1771,22 +1776,9 @@
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>44591</v>
-      </c>
-      <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="C86" s="12"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C77+C78+C81+C82+C83+C85+C75</f>
+        <f>C75+C76+C79+C80+C81+C83</f>
         <v>11</v>
       </c>
       <c r="D91" s="5"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62030BDD-4D0F-4BB0-822C-582C69938C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BBF81D-AF5D-4A24-8E53-3164FA3CAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Creating final ERD</t>
+  </si>
+  <si>
+    <t>Help to edit website</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="C83" s="12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -1772,8 +1775,15 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="5"/>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D85" s="5"/>
@@ -1812,8 +1822,8 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C75+C76+C79+C80+C81+C83</f>
-        <v>11</v>
+        <f>C75+C76+C79+C80+C81+C83+C84</f>
+        <v>11.67</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -1821,7 +1831,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="14">
         <f>B89+B90+B91</f>
-        <v>11</v>
+        <v>11.67</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BBF81D-AF5D-4A24-8E53-3164FA3CAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A2BC-1C08-4E9A-AD09-7B403D3F6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B91" s="13">
         <f>C75+C76+C79+C80+C81+C83+C84</f>
-        <v>11.67</v>
+        <v>13.67</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -1831,7 +1831,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="14">
         <f>B89+B90+B91</f>
-        <v>11.67</v>
+        <v>13.67</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A2BC-1C08-4E9A-AD09-7B403D3F6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BB5A49-FAEB-444D-8A22-2615756F7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -141,7 +141,13 @@
     <t>Creating final ERD</t>
   </si>
   <si>
-    <t>Help to edit website</t>
+    <t>Making a new page for highscores</t>
+  </si>
+  <si>
+    <t>Connecting to vm via VS Code</t>
+  </si>
+  <si>
+    <t>Trying to connect website and database</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,39 +1688,56 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C75" s="12">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>44587</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C76">
+      <c r="C78" s="12">
         <v>0.67</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -1724,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
@@ -1756,37 +1779,52 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="5"/>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>44591</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="12">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
       <c r="C84" s="12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D85" s="5"/>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D86" s="5"/>
@@ -1814,7 +1852,9 @@
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="12">
+        <v>12.5</v>
+      </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1822,16 +1862,14 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <f>C75+C76+C79+C80+C81+C83+C84</f>
-        <v>13.67</v>
+        <v>11</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="14">
-        <f>B89+B90+B91</f>
-        <v>13.67</v>
+        <v>23.5</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BB5A49-FAEB-444D-8A22-2615756F7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590703A-B759-4315-9448-D95738B3DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,7 +1827,15 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D86" s="5"/>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="12">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D87" s="5"/>
@@ -1862,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D91" s="5"/>
     </row>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590703A-B759-4315-9448-D95738B3DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BD8F9-F770-433D-A785-6B311697E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,19 +1702,22 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="12">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>44585</v>
       </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>30</v>
       </c>
@@ -1722,56 +1725,54 @@
         <v>3.5</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>44587</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C80" s="12">
         <v>0.67</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>44590</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="12">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
       <c r="C81" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -1780,107 +1781,171 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C82" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C83" s="12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>44591</v>
-      </c>
-      <c r="B84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>37</v>
       </c>
       <c r="C85" s="12">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
       <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="12">
-        <v>3</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
+      <c r="C87" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="12">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B94" s="12">
+        <f>C76+C79+C89+C86+C87</f>
+        <v>11.5</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B95" s="12">
         <v>12.5</v>
       </c>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="13">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="13">
         <v>14</v>
       </c>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="6"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="14">
+        <f>B96+B95+B94</f>
+        <v>38</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BD8F9-F770-433D-A785-6B311697E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174105F9-2409-478B-88D2-1A08CD35A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="C90" s="12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>7</v>
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="C91" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="12">
-        <f>C76+C79+C89+C86+C87</f>
+        <f>C76+C79+C86+C87+C89</f>
         <v>11.5</v>
       </c>
       <c r="D94" s="5"/>
@@ -1925,7 +1925,8 @@
         <v>7</v>
       </c>
       <c r="B95" s="12">
-        <v>12.5</v>
+        <f>C90+C85+C84+C75+C78</f>
+        <v>13</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -1934,7 +1935,8 @@
         <v>3</v>
       </c>
       <c r="B96" s="13">
-        <v>14</v>
+        <f>C91+C88+C83+C82+C81+C80+C77</f>
+        <v>13</v>
       </c>
       <c r="D96" s="5"/>
     </row>
@@ -1942,7 +1944,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="14">
         <f>B96+B95+B94</f>
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174105F9-2409-478B-88D2-1A08CD35A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607A60A-F767-4CEA-AF07-A21FB56DB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,39 +1829,39 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C86" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>44591</v>
+      </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C87" s="12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>44591</v>
-      </c>
-      <c r="B88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="12">
-        <f>C76+C79+C86+C87+C89</f>
+        <f>C76+C79+C86+C88+C89</f>
         <v>11.5</v>
       </c>
       <c r="D94" s="5"/>
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="13">
-        <f>C91+C88+C83+C82+C81+C80+C77</f>
+        <f>C91+C87+C83+C82+C81+C80+C77</f>
         <v>13</v>
       </c>
       <c r="D96" s="5"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607A60A-F767-4CEA-AF07-A21FB56DB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5A82F-805A-4E72-B3EC-C52F123F1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="C76" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -1870,7 +1870,7 @@
         <v>37</v>
       </c>
       <c r="C89" s="12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>5</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B94" s="12">
         <f>C76+C79+C86+C88+C89</f>
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="D94" s="5"/>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="14">
         <f>B96+B95+B94</f>
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5A82F-805A-4E72-B3EC-C52F123F1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE28BFA-5F66-4CF3-9667-BD941326095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,7 +1846,7 @@
         <v>34</v>
       </c>
       <c r="C87" s="12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B96" s="13">
         <f>C91+C87+C83+C82+C81+C80+C77</f>
-        <v>13</v>
+        <v>12.67</v>
       </c>
       <c r="D96" s="5"/>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="14">
         <f>B96+B95+B94</f>
-        <v>35</v>
+        <v>34.67</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE28BFA-5F66-4CF3-9667-BD941326095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF38EA29-B241-496C-812C-049A7356AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,55 +1899,83 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="5"/>
+      <c r="A92" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="12">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="12">
+        <v>8</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B96" s="12">
         <f>C76+C79+C86+C88+C89</f>
         <v>9</v>
       </c>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="12">
-        <f>C90+C85+C84+C75+C78</f>
-        <v>13</v>
-      </c>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="13">
+      <c r="B97" s="12">
+        <f>C90+C85+C84+C75+C78+C92+C93</f>
+        <v>23</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="13">
         <f>C91+C87+C83+C82+C81+C80+C77</f>
         <v>12.67</v>
       </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="14">
-        <f>B96+B95+B94</f>
-        <v>34.67</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="6"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="14">
+        <f>B98+B97+B96</f>
+        <v>44.67</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF38EA29-B241-496C-812C-049A7356AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC309F0-21BD-4175-8538-C524A4E198CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Trying to connect website and database</t>
+  </si>
+  <si>
+    <t>Trying to implement custom controls</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,10 +1708,10 @@
         <v>44584</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C76" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -1766,25 +1769,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="12">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>44590</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="12">
-        <v>3</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
       <c r="C82" s="12">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -1793,10 +1798,10 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C83" s="12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -1805,22 +1810,22 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C84" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="12">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>7</v>
@@ -1832,59 +1837,60 @@
         <v>37</v>
       </c>
       <c r="C86" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="12">
         <v>1.5</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>44591</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>34</v>
-      </c>
-      <c r="C87" s="12">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" t="s">
-        <v>22</v>
       </c>
       <c r="C88" s="12">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C89" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,16 +1898,13 @@
         <v>37</v>
       </c>
       <c r="C91" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>44592</v>
-      </c>
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -1909,73 +1912,87 @@
         <v>2</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="5"/>
+      <c r="A94" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="12">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="12">
-        <f>C76+C79+C86+C88+C89</f>
-        <v>9</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="12">
+        <f>C79+C87+C89+C90+C81+C76</f>
+        <v>12</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="12">
-        <f>C90+C85+C84+C75+C78+C92+C93</f>
-        <v>23</v>
-      </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="13">
-        <f>C91+C87+C83+C82+C81+C80+C77</f>
+      <c r="B98" s="12">
+        <f>C91+C86+C85+C75+C78+C93+C94</f>
+        <v>22</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="13">
+        <f>C92+C88+C84+C83+C82+C80+C77</f>
         <v>12.67</v>
       </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="14">
-        <f>B98+B97+B96</f>
-        <v>44.67</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="14">
+        <f>B99+B98+B97</f>
+        <v>46.67</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC309F0-21BD-4175-8538-C524A4E198CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76179A2-3B2D-4ACF-B069-C72CE02CC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -712,6 +712,66 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Sprint 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Textfeld 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF729FA1-1C24-4BBB-8C66-A60C5E5A8297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12778740"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1018,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,6 +2054,142 @@
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="15"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76179A2-3B2D-4ACF-B069-C72CE02CC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFF3C9-2981-4908-B87B-CC577F33F748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Trying to implement custom controls</t>
+  </si>
+  <si>
+    <t>ERD for website</t>
+  </si>
+  <si>
+    <t>Looking into multyplayer networking</t>
+  </si>
+  <si>
+    <t>Teamtalk about next targets</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,29 +2102,66 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="5"/>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="12">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="5"/>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="5"/>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="5"/>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
@@ -2181,7 +2227,9 @@
       <c r="A125" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="13"/>
+      <c r="B125" s="13">
+        <v>4.58</v>
+      </c>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFF3C9-2981-4908-B87B-CC577F33F748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF78B893-1AE0-4663-989A-B0650C3F01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Teamtalk about next targets</t>
+  </si>
+  <si>
+    <t>Adding a new puzlle and editing enviroment</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,9 +2167,18 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="15"/>
+      <c r="A114" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
@@ -2228,7 +2240,8 @@
         <v>3</v>
       </c>
       <c r="B125" s="13">
-        <v>4.58</v>
+        <f>C110+C109+C112+C114</f>
+        <v>7.0830000000000002</v>
       </c>
       <c r="D125" s="5"/>
     </row>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF78B893-1AE0-4663-989A-B0650C3F01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A081950-31B6-4C91-9F2B-A3E442AA8AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,7 +2174,7 @@
         <v>42</v>
       </c>
       <c r="C114" s="12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>3</v>
@@ -2240,15 +2240,14 @@
         <v>3</v>
       </c>
       <c r="B125" s="13">
-        <f>C110+C109+C112+C114</f>
-        <v>7.0830000000000002</v>
+        <v>7.58</v>
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="13"/>
       <c r="D126" s="6"/>
     </row>
   </sheetData>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A081950-31B6-4C91-9F2B-A3E442AA8AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B99579-ECE9-4080-B428-FCF27A8208F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -156,13 +156,19 @@
     <t>ERD for website</t>
   </si>
   <si>
-    <t>Looking into multyplayer networking</t>
-  </si>
-  <si>
     <t>Teamtalk about next targets</t>
   </si>
   <si>
-    <t>Adding a new puzlle and editing enviroment</t>
+    <t>Adding a new puzzle and editing enviroment</t>
+  </si>
+  <si>
+    <t>Looking into multiplayer networking</t>
+  </si>
+  <si>
+    <t>Creating pause menu</t>
+  </si>
+  <si>
+    <t>Trying to fetch data from database via fetch API</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,7 +2127,7 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C110" s="12">
         <v>2</v>
@@ -2133,7 +2139,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" s="12">
         <v>2.5</v>
@@ -2145,7 +2151,7 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="12">
         <v>2.5</v>
@@ -2157,7 +2163,7 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="12">
         <v>2.5</v>
@@ -2167,38 +2173,67 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="12">
+        <v>1</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>44605</v>
       </c>
-      <c r="B114" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" s="12">
-        <v>3</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="5"/>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="12">
+        <v>3</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="5"/>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="5"/>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
@@ -2207,48 +2242,56 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="12"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B124" s="12"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="13">
+        <v>7</v>
+      </c>
+      <c r="B125" s="12">
+        <f>C118+C117+C115+C114+C111</f>
+        <v>8</v>
+      </c>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="13">
         <v>7.58</v>
       </c>
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrisi\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B99579-ECE9-4080-B428-FCF27A8208F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDAD48-DD1D-4FDD-8832-7D1E6D518B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Trying to fetch data from database via fetch API</t>
+  </si>
+  <si>
+    <t>Tried to fix bug with save system</t>
+  </si>
+  <si>
+    <t>Tried to implement custom controls</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,100 +2204,146 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="1"/>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="12">
+        <v>1</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="12">
+        <v>2</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B118" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="12">
+        <v>2</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>44605</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="12">
-        <v>3</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-      <c r="B117" t="s">
-        <v>43</v>
-      </c>
-      <c r="C117" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-      <c r="B118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="5"/>
+      <c r="C119" s="12">
+        <v>3</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="5"/>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="D121" s="5"/>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="1"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B126" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="12"/>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="12">
-        <f>C118+C117+C115+C114+C111</f>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="12">
+        <f>C113+C116+C117+C118</f>
+        <v>7.5</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="12">
+        <f>C121+C120+C115+C114+C111</f>
         <v>8</v>
       </c>
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="13">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="13">
         <v>7.58</v>
       </c>
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="4"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="6"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="4"/>
+      <c r="B130" s="14">
+        <f>B129+B128+B127</f>
+        <v>23.08</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDAD48-DD1D-4FDD-8832-7D1E6D518B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711417DC-8792-493D-B3A6-2A4242B237FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Tried to implement custom controls</t>
+  </si>
+  <si>
+    <t>Adding new puzzle</t>
+  </si>
+  <si>
+    <t>Fixing buggs of new puzzle</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2282,14 +2288,32 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="5"/>
+      <c r="A122" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="12">
+        <v>4</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="5"/>
+      <c r="A123" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="12">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
@@ -2332,17 +2356,18 @@
         <v>3</v>
       </c>
       <c r="B129" s="13">
-        <v>7.58</v>
-      </c>
+        <v>13.58</v>
+      </c>
+      <c r="C129" s="12"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="14">
         <f>B129+B128+B127</f>
-        <v>23.08</v>
-      </c>
-      <c r="C130" s="13"/>
+        <v>29.08</v>
+      </c>
+      <c r="C130" s="14"/>
       <c r="D130" s="6"/>
     </row>
   </sheetData>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711417DC-8792-493D-B3A6-2A4242B237FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE8A529-8D39-4011-8EC4-EB8445C02CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Fixing buggs of new puzzle</t>
+  </si>
+  <si>
+    <t>Editing puzzles, enviroment and erd</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,8 +2319,18 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="D124" s="5"/>
+      <c r="A124" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="12">
+        <v>1.42</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D125" s="5"/>
@@ -2356,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="13">
-        <v>13.58</v>
+        <v>15</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="5"/>
@@ -2365,7 +2378,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="14">
         <f>B129+B128+B127</f>
-        <v>29.08</v>
+        <v>30.5</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE8A529-8D39-4011-8EC4-EB8445C02CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1C169A-F201-4E2E-A3E2-AAE6453CE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Editing puzzles, enviroment and erd</t>
+  </si>
+  <si>
+    <t>Watching tutorials on new Unity Input System</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="C118" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>5</v>
@@ -2292,27 +2295,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44617</v>
+        <v>44613</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C122" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>3</v>
@@ -2320,68 +2323,82 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="12">
+        <v>2</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>44619</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C125" s="12">
         <v>1.42</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B127" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="12">
-        <f>C113+C116+C117+C118</f>
-        <v>7.5</v>
       </c>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B128" s="12">
+        <f>C113+C116+C117+C118+C122</f>
+        <v>8.5</v>
+      </c>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="12">
         <f>C121+C120+C115+C114+C111</f>
         <v>8</v>
       </c>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="13">
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="13">
         <v>15</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="14">
-        <f>B129+B128+B127</f>
-        <v>30.5</v>
-      </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="6"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="14">
+        <f>B130+B129+B128</f>
+        <v>31.5</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phili\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1C169A-F201-4E2E-A3E2-AAE6453CE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7E848-7E33-41DD-832B-2E148003AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>Watching tutorials on new Unity Input System</t>
+  </si>
+  <si>
+    <t>Quarkus</t>
+  </si>
+  <si>
+    <t>Anschaen von Quarkus videos</t>
+  </si>
+  <si>
+    <t>Quarkus-Tutorial</t>
+  </si>
+  <si>
+    <t>Übersicht zu Blender verschafft</t>
   </si>
 </sst>
 </file>
@@ -298,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +327,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -814,6 +828,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Textfeld 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9BEE55-A646-4685-966B-877B7DE2CD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12986657"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1114,42 +1188,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,7 +1233,7 @@
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1173,7 +1247,7 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1187,7 +1261,7 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1199,7 +1273,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1213,7 +1287,7 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1225,7 +1299,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1282,43 +1356,43 @@
         <f>B13+B14+B15</f>
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,7 +1402,7 @@
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1342,7 +1416,7 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1354,7 +1428,7 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="12">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1366,7 +1440,7 @@
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="12">
         <v>1.5</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1380,7 +1454,7 @@
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1392,7 +1466,7 @@
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="12">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1404,7 +1478,7 @@
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1418,7 +1492,7 @@
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1430,7 +1504,7 @@
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1442,7 +1516,7 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="12">
         <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -1497,43 +1571,43 @@
         <f>B35+B36+B37</f>
         <v>14.5</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1617,7 @@
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -1744,31 +1818,31 @@
         <f>B60+B61+B62</f>
         <v>20.63</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,7 +1852,7 @@
       <c r="B74" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -2087,31 +2161,31 @@
         <f>B99+B98+B97</f>
         <v>46.67</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,7 +2195,7 @@
       <c r="B108" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -2388,7 +2462,6 @@
       <c r="B130" s="13">
         <v>15</v>
       </c>
-      <c r="C130" s="12"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,6 +2472,202 @@
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B143" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="12">
+        <v>2</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="12">
+        <v>3</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="12">
+        <v>1</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="13">
+        <v>7</v>
+      </c>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="4"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7E848-7E33-41DD-832B-2E148003AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E0DCC-9D2F-42AC-9657-CA9F9464F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -192,13 +192,22 @@
     <t>Quarkus</t>
   </si>
   <si>
-    <t>Anschaen von Quarkus videos</t>
-  </si>
-  <si>
     <t>Quarkus-Tutorial</t>
   </si>
   <si>
     <t>Übersicht zu Blender verschafft</t>
+  </si>
+  <si>
+    <t>Quarkus und Powerpoint</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>Diskussion</t>
+  </si>
+  <si>
+    <t>Anschauen von Quarkus videos</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2525,7 @@
         <v>44620</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C143" s="12">
         <v>2</v>
@@ -2526,148 +2535,305 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="D144" s="5"/>
+      <c r="A144" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="12">
+        <v>2</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="12">
+        <v>2</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
         <v>44622</v>
       </c>
-      <c r="B145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" s="12">
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" s="12">
         <v>1</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D146" s="5"/>
+      <c r="D146" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C147" s="12">
-        <v>3</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="D148" s="5"/>
+      <c r="A148" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="12">
+        <v>1</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="12">
+        <v>3</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>44629</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C153" s="12">
         <v>1</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="D151" s="5"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="D154" s="5"/>
+      <c r="A154" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="12">
+        <v>1</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="D155" s="5"/>
+      <c r="A155" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="12">
+        <v>1</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="D156" s="5"/>
+      <c r="A156" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B156" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" s="12">
+        <v>2</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="D157" s="5"/>
+      <c r="A157" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B157" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="12">
+        <v>2</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="D158" s="5"/>
+      <c r="A158" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B158" t="s">
+        <v>55</v>
+      </c>
+      <c r="C158" s="12">
+        <v>2</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D159" s="5"/>
+      <c r="A159" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B159" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="12">
+        <v>5</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D160" s="5"/>
+      <c r="A160" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B160" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="12">
+        <v>5</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-      <c r="D161" s="5"/>
+      <c r="A161" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B161" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="12">
+        <v>5</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>19</v>
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="12">
+        <v>12.5</v>
       </c>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B165" s="12">
+        <v>12.5</v>
+      </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B166" s="13">
+        <v>15.5</v>
+      </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>3</v>
-      </c>
-      <c r="B167" s="13">
-        <v>7</v>
-      </c>
-      <c r="D167" s="5"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="6"/>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="4"/>
+      <c r="B167" s="14">
+        <f>SUM(B164:B166)</f>
+        <v>40.5</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E0DCC-9D2F-42AC-9657-CA9F9464F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0EDDF-FCF7-4A26-93AB-97A1A4513E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -189,25 +189,25 @@
     <t>Watching tutorials on new Unity Input System</t>
   </si>
   <si>
-    <t>Quarkus</t>
-  </si>
-  <si>
-    <t>Quarkus-Tutorial</t>
-  </si>
-  <si>
-    <t>Übersicht zu Blender verschafft</t>
-  </si>
-  <si>
-    <t>Quarkus und Powerpoint</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Diskussion</t>
-  </si>
-  <si>
-    <t>Anschauen von Quarkus videos</t>
+    <t>Researching Quarkus</t>
+  </si>
+  <si>
+    <t>Quarkus-tutorial</t>
+  </si>
+  <si>
+    <t>Discussion about game</t>
+  </si>
+  <si>
+    <t>Researching Blender</t>
+  </si>
+  <si>
+    <t>Creating presentation</t>
+  </si>
+  <si>
+    <t>Working on Quarkus application and presentation</t>
+  </si>
+  <si>
+    <t>Working on Quarkus application</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,7 +2525,7 @@
         <v>44620</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C143" s="12">
         <v>2</v>
@@ -2535,11 +2535,9 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>44620</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C144" s="12">
         <v>2</v>
@@ -2549,11 +2547,9 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>44620</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C145" s="12">
         <v>2</v>
@@ -2577,9 +2573,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>44622</v>
-      </c>
+      <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
       </c>
@@ -2591,9 +2585,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>44622</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
       </c>
@@ -2606,16 +2598,16 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C149" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2623,55 +2615,49 @@
         <v>44627</v>
       </c>
       <c r="B150" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C150" s="12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>44627</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C151" s="12">
         <v>1.5</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>7</v>
+      <c r="D151" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>44627</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C152" s="12">
         <v>1.5</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>44629</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C153" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2679,41 +2665,37 @@
         <v>44629</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C154" s="12">
         <v>1</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>44629</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C155" s="12">
         <v>1</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>44604</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C156" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,13 +2709,11 @@
         <v>2</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>44604</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
       </c>
@@ -2741,99 +2721,108 @@
         <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>44633</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C159" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44605</v>
+        <v>44633</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C160" s="12">
         <v>5</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>44605</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C161" s="12">
         <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-      <c r="D162" s="5"/>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="12">
+        <v>5</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="1"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B164" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="12">
-        <v>12.5</v>
       </c>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B165" s="12">
         <v>12.5</v>
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="13">
+        <v>7</v>
+      </c>
+      <c r="B166" s="12">
+        <f>C162+C158+C155+C152+C149+C147+C145</f>
+        <v>14.5</v>
+      </c>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="13">
         <v>15.5</v>
       </c>
-      <c r="D166" s="5"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="14">
-        <f>SUM(B164:B166)</f>
-        <v>40.5</v>
-      </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="6"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="4"/>
+      <c r="B168" s="14">
+        <f>SUM(B165:B167)</f>
+        <v>42.5</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0EDDF-FCF7-4A26-93AB-97A1A4513E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4082E-C617-43DF-BBED-A84F3F5B06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Working on Quarkus application</t>
+  </si>
+  <si>
+    <t>Watching blender tutorials and creating first model</t>
+  </si>
+  <si>
+    <t>Finishing first model and implementing it into unity</t>
   </si>
 </sst>
 </file>
@@ -897,6 +903,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Textfeld 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC8619C-1FFF-4BFB-9CA6-8E3ED873F215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26117550"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1197,16 +1263,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
@@ -2824,6 +2890,189 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B183" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" s="12">
+        <v>5</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="D186" s="15"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="D187" s="15"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="D188" s="15"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="12">
+        <v>3</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="12"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="12"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="13">
+        <v>8</v>
+      </c>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+      <c r="B205" s="14">
+        <f>SUM(B202:B204)</f>
+        <v>8</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4082E-C617-43DF-BBED-A84F3F5B06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796B36D9-0F9A-441C-9688-33C0F21196A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Finishing first model and implementing it into unity</t>
+  </si>
+  <si>
+    <t>Creating more models for the enviroment</t>
+  </si>
+  <si>
+    <t>Editing Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1272,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,19 +2996,51 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-      <c r="D190" s="5"/>
+      <c r="B190" t="s">
+        <v>60</v>
+      </c>
+      <c r="C190" s="12">
+        <v>2</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="D191" s="5"/>
+      <c r="B191" t="s">
+        <v>61</v>
+      </c>
+      <c r="C191" s="12">
+        <v>3</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-      <c r="D192" s="5"/>
+      <c r="B192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" s="12">
+        <v>3</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-      <c r="D193" s="5"/>
+      <c r="B193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" s="12">
+        <v>3</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
@@ -3045,14 +3083,18 @@
       <c r="A202" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="12"/>
+      <c r="B202" s="12">
+        <v>3</v>
+      </c>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
-      <c r="B203" s="12"/>
+      <c r="B203" s="12">
+        <v>3</v>
+      </c>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3060,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D204" s="5"/>
     </row>
@@ -3068,7 +3110,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796B36D9-0F9A-441C-9688-33C0F21196A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A131D51-BF4D-4C25-8BA5-9570EA4FD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -219,7 +219,10 @@
     <t>Creating more models for the enviroment</t>
   </si>
   <si>
-    <t>Editing Powerpoint</t>
+    <t>Discussing game concept</t>
+  </si>
+  <si>
+    <t>Editing Powerpoint / creating uml diagrams</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2939,12 +2942,32 @@
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="D181" s="5"/>
+      <c r="A181" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B181" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="12">
+        <v>1</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="1"/>
-      <c r="D182" s="5"/>
+      <c r="A182" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="12">
+        <v>1</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
@@ -2962,7 +2985,15 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-      <c r="D184" s="5"/>
+      <c r="B184" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="12">
+        <v>2</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
@@ -3009,7 +3040,7 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C191" s="12">
         <v>3</v>
@@ -3021,7 +3052,7 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C192" s="12">
         <v>3</v>
@@ -3033,7 +3064,7 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C193" s="12">
         <v>3</v>
@@ -3093,7 +3124,8 @@
         <v>7</v>
       </c>
       <c r="B203" s="12">
-        <v>3</v>
+        <f>C193+C184+C182+C181</f>
+        <v>7</v>
       </c>
       <c r="D203" s="5"/>
     </row>
@@ -3110,7 +3142,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A131D51-BF4D-4C25-8BA5-9570EA4FD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D1875-56C6-4E19-BB7F-8DD37D7F9284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,8 +2938,18 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="D180" s="5"/>
+      <c r="A180" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="12">
+        <v>1</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
@@ -2997,7 +3007,15 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="D185" s="5"/>
+      <c r="B185" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="12">
+        <v>2</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
@@ -3134,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D204" s="5"/>
     </row>
@@ -3142,7 +3160,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D1875-56C6-4E19-BB7F-8DD37D7F9284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE364C-28BF-4228-99DB-9CCCC3D1386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Working on Quarkus application</t>
   </si>
   <si>
-    <t>Watching blender tutorials and creating first model</t>
-  </si>
-  <si>
     <t>Finishing first model and implementing it into unity</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Editing Powerpoint / creating uml diagrams</t>
+  </si>
+  <si>
+    <t>Blender and Discussing game concept</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2942,7 +2942,7 @@
         <v>44634</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C180" s="12">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>44634</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C181" s="12">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>44641</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C183" s="12">
         <v>5</v>
@@ -2996,7 +2996,7 @@
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C184" s="12">
         <v>2</v>
@@ -3007,15 +3007,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" s="12">
-        <v>2</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
@@ -3034,7 +3026,7 @@
         <v>44647</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C189" s="12">
         <v>3</v>
@@ -3046,7 +3038,7 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C190" s="12">
         <v>2</v>
@@ -3058,7 +3050,7 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C191" s="12">
         <v>3</v>
@@ -3070,7 +3062,7 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C192" s="12">
         <v>3</v>
@@ -3082,7 +3074,7 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C193" s="12">
         <v>3</v>
@@ -3152,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D204" s="5"/>
     </row>
@@ -3160,7 +3152,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE364C-28BF-4228-99DB-9CCCC3D1386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4E1D2B5-DAF4-440D-A6A9-5B95092B556F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -223,12 +222,15 @@
   </si>
   <si>
     <t>Blender and Discussing game concept</t>
+  </si>
+  <si>
+    <t>editing Powerpoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,9 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,7 +979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1271,14 +1274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3547AEA-3C2E-4B53-BBD6-378E3F7BB292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.109375" customWidth="1"/>
@@ -2952,9 +2955,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>44634</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
       </c>
@@ -2966,70 +2967,100 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>44636</v>
-      </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C182" s="12">
         <v>1</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>7</v>
+      <c r="D182" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="12">
+        <v>1</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" s="12">
+        <v>1</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>44641</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B185" t="s">
         <v>62</v>
       </c>
-      <c r="C183" s="12">
-        <v>5</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" t="s">
-        <v>60</v>
-      </c>
-      <c r="C184" s="12">
-        <v>2</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="D185" s="5"/>
+      <c r="C185" s="12">
+        <v>5</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="D186" s="15"/>
+      <c r="B186" t="s">
+        <v>60</v>
+      </c>
+      <c r="C186" s="12">
+        <v>2</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="D187" s="15"/>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="12">
+        <v>2</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-      <c r="D188" s="15"/>
+      <c r="A188" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B188" t="s">
+        <v>58</v>
+      </c>
+      <c r="C188" s="12">
+        <v>3</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>44647</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C189" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>3</v>
@@ -3038,10 +3069,10 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C190" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>3</v>
@@ -3056,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3068,18 +3099,6 @@
         <v>3</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
-      <c r="B193" t="s">
-        <v>61</v>
-      </c>
-      <c r="C193" s="12">
-        <v>3</v>
-      </c>
-      <c r="D193" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3125,7 +3144,8 @@
         <v>5</v>
       </c>
       <c r="B202" s="12">
-        <v>3</v>
+        <f>C182+C187+C191+C184</f>
+        <v>7</v>
       </c>
       <c r="D202" s="5"/>
     </row>
@@ -3134,7 +3154,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="12">
-        <f>C193+C184+C182+C181</f>
+        <f>C192+C186+C183+C181</f>
         <v>7</v>
       </c>
       <c r="D203" s="5"/>
@@ -3152,7 +3172,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,7 +2948,7 @@
         <v>60</v>
       </c>
       <c r="C180" s="12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>3</v>
@@ -2960,7 +2960,7 @@
         <v>60</v>
       </c>
       <c r="C181" s="12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>7</v>
@@ -2971,7 +2971,7 @@
         <v>60</v>
       </c>
       <c r="C182" s="12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -2996,7 +2996,7 @@
         <v>63</v>
       </c>
       <c r="C184" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>5</v>
@@ -3022,7 +3022,7 @@
         <v>60</v>
       </c>
       <c r="C186" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>60</v>
       </c>
       <c r="C187" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>5</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B202" s="12">
         <f>C182+C187+C191+C184</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D202" s="5"/>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B203" s="12">
         <f>C192+C186+C183+C181</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D203" s="5"/>
     </row>
@@ -3164,7 +3164,8 @@
         <v>3</v>
       </c>
       <c r="B204" s="13">
-        <v>14</v>
+        <f>C180+C185+C188+C189+C190</f>
+        <v>15.5</v>
       </c>
       <c r="D204" s="5"/>
     </row>
@@ -3172,7 +3173,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10FABA-C127-4972-A7E7-790A89D82CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -225,12 +227,15 @@
   </si>
   <si>
     <t>editing Powerpoint</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,10 +360,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -979,7 +983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1274,14 +1278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.109375" customWidth="1"/>
@@ -2973,7 +2977,7 @@
       <c r="C182" s="12">
         <v>2.5</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2998,7 +3002,7 @@
       <c r="C184" s="12">
         <v>1.5</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3102,6 +3106,9 @@
         <v>7</v>
       </c>
     </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D193" s="5"/>
+    </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
@@ -3124,6 +3131,9 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
+      <c r="B199" t="s">
+        <v>64</v>
+      </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10FABA-C127-4972-A7E7-790A89D82CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -227,15 +225,12 @@
   </si>
   <si>
     <t>editing Powerpoint</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,9 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1278,14 +1274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.109375" customWidth="1"/>
@@ -2977,7 +2973,7 @@
       <c r="C182" s="12">
         <v>2.5</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3002,7 +2998,7 @@
       <c r="C184" s="12">
         <v>1.5</v>
       </c>
-      <c r="D184" s="15" t="s">
+      <c r="D184" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3106,9 +3102,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D193" s="5"/>
-    </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
@@ -3131,9 +3124,6 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" t="s">
-        <v>64</v>
-      </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2457332F-0C5A-4482-8D44-057EDC30429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -225,12 +227,24 @@
   </si>
   <si>
     <t>editing Powerpoint</t>
+  </si>
+  <si>
+    <t>Researching about multiplayer</t>
+  </si>
+  <si>
+    <t>Watching tutorials</t>
+  </si>
+  <si>
+    <t>Implemented multiplayer in test project</t>
+  </si>
+  <si>
+    <t>Working on multiplayer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,11 +989,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Textfeld 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96280C57-3032-4B41-9C2A-F8F712FF01FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33225441"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1274,46 +1348,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1341,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1355,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1367,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1381,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1393,12 +1467,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1481,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1491,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1501,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1511,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1446,43 +1520,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1510,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1522,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1534,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1548,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1560,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1572,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1586,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1598,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1610,10 +1684,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1696,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1706,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1716,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1726,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1661,43 +1735,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1725,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1737,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1749,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1763,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1775,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1787,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -1802,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -1814,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -1829,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -1841,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1853,14 +1927,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -1869,7 +1943,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1953,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +1963,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1973,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -1908,31 +1982,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -1960,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -1974,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -1988,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2024,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2038,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2052,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2064,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2076,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2088,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2100,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2112,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2126,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2138,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2150,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2186,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2200,10 +2274,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2286,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2296,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2306,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2316,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2251,31 +2325,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2303,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2315,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2327,7 +2401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2339,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2351,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2362,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2376,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2388,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2402,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2416,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2430,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2442,7 +2516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2454,7 +2528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2468,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2482,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2496,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2510,10 +2584,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2522,7 +2596,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2532,7 +2606,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2616,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2551,7 +2625,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2560,31 +2634,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2612,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2624,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2636,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2650,7 +2724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2662,7 +2736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2674,7 +2748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2688,7 +2762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2702,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2714,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2726,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2738,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2752,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2764,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2776,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2790,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -2802,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -2814,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -2828,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -2840,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -2852,11 +2926,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2939,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2948,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2958,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2967,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -2902,31 +2976,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -2954,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -2966,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -2977,7 +3051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -2991,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3002,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3016,7 +3090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3028,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3040,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3054,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3066,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3078,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3090,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3102,35 +3176,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3139,7 +3213,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3223,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3233,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3169,7 +3243,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3177,6 +3251,217 @@
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="12">
+        <v>2</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B219" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B222" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="12">
+        <v>1</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B223" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" s="12">
+        <v>6</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B224" t="s">
+        <v>67</v>
+      </c>
+      <c r="C224" s="12">
+        <v>1</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="12">
+        <f>C216+C219+C222+C223+C224</f>
+        <v>12.5</v>
+      </c>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" s="13"/>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="14">
+        <f>SUM(B238:B240)</f>
+        <v>12.5</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2457332F-0C5A-4482-8D44-057EDC30429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4B4C6-656D-4820-911C-AA6941AD3C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -3383,8 +3383,18 @@
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="D227" s="5"/>
+      <c r="A227" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B227" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="12">
+        <v>2</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
@@ -3435,8 +3445,8 @@
         <v>5</v>
       </c>
       <c r="B238" s="12">
-        <f>C216+C219+C222+C223+C224</f>
-        <v>12.5</v>
+        <f>C216+C219+C222+C223+C224+C227</f>
+        <v>14.5</v>
       </c>
       <c r="D238" s="5"/>
     </row>
@@ -3458,7 +3468,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="14">
         <f>SUM(B238:B240)</f>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="C241" s="14"/>
       <c r="D241" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4B4C6-656D-4820-911C-AA6941AD3C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6FF85-937E-4038-8CD8-8A281A361E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t>Working on multiplayer</t>
+  </si>
+  <si>
+    <t>Watching Blender tutorials and creating models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating first puzzle model </t>
+  </si>
+  <si>
+    <t>Fixing model for first puzzle</t>
+  </si>
+  <si>
+    <t>Editing scaling of player and eviroment</t>
+  </si>
+  <si>
+    <t>Fixing labirinth model</t>
   </si>
 </sst>
 </file>
@@ -1349,45 +1364,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1441,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1467,12 +1482,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1496,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1506,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1516,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1526,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1520,43 +1535,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1596,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1608,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1634,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1646,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1660,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1672,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1684,10 +1699,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1711,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1721,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1716,7 +1731,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1741,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1735,43 +1750,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1811,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1823,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1837,7 +1852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1849,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1861,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -1888,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -1915,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1927,14 +1942,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1958,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1968,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1978,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1988,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -1982,31 +1997,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2034,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2048,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2098,7 +2113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2126,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2138,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2150,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2162,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2174,7 +2189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2186,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2200,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2212,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2224,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2274,10 +2289,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2301,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2311,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2321,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2331,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2325,31 +2340,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2389,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2401,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2413,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2425,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2462,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2504,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2516,7 +2531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2528,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2556,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2584,10 +2599,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2611,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2621,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2631,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2640,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2634,31 +2649,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2686,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2698,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2710,7 +2725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2736,7 +2751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2748,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2776,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2788,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2800,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2812,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2838,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2850,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -2876,7 +2891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -2888,7 +2903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -2902,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -2914,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -2926,11 +2941,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2954,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2963,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -2958,7 +2973,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -2967,7 +2982,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -2976,31 +2991,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3028,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3040,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3090,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3102,7 +3117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3114,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3128,7 +3143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3140,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3152,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3164,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3176,35 +3191,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3228,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3223,7 +3238,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3248,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3243,7 +3258,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3252,31 +3267,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3304,14 +3319,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="D217" s="5"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3325,14 +3348,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D220" s="5"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>69</v>
+      </c>
+      <c r="C220" s="12">
+        <v>3</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3346,132 +3377,164 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B223" t="s">
+        <v>70</v>
+      </c>
+      <c r="C223" s="12">
+        <v>2</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
         <v>44669</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>66</v>
       </c>
-      <c r="C223" s="12">
+      <c r="C224" s="12">
         <v>6</v>
       </c>
-      <c r="D223" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="D224" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
         <v>44671</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>67</v>
       </c>
-      <c r="C224" s="12">
+      <c r="C225" s="12">
         <v>1</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="D225" s="5"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
-      <c r="D226" s="5"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+      <c r="B226" t="s">
+        <v>71</v>
+      </c>
+      <c r="C226" s="12">
+        <v>1</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>44674</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>67</v>
       </c>
-      <c r="C227" s="12">
+      <c r="C228" s="12">
         <v>2</v>
       </c>
-      <c r="D227" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="D228" s="5"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="5"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+      <c r="D228" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" t="s">
+        <v>72</v>
+      </c>
+      <c r="C229" s="12">
+        <v>2</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B238" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="12">
-        <f>C216+C219+C222+C223+C224+C227</f>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="12">
+        <f>C216+C219+C222+C224+C225+C228</f>
         <v>14.5</v>
       </c>
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="12"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>3</v>
-      </c>
-      <c r="B240" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B240" s="12"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="14">
-        <f>SUM(B238:B240)</f>
-        <v>14.5</v>
-      </c>
-      <c r="C241" s="14"/>
-      <c r="D241" s="6"/>
+    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="D241" s="5"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="4"/>
+      <c r="B242" s="14">
+        <f>SUM(B239:B241)</f>
+        <v>25</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6FF85-937E-4038-8CD8-8A281A361E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A924E72-B11A-4DEC-AE23-66A243FB387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3455,7 +3455,7 @@
         <v>72</v>
       </c>
       <c r="C229" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>3</v>
@@ -3523,7 +3523,8 @@
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <v>10.5</v>
+        <f>C217+C220+C223+C226+C229</f>
+        <v>14.5</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -3531,7 +3532,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A924E72-B11A-4DEC-AE23-66A243FB387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B317B-5438-44D5-840C-6722A6839115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Fixing labirinth model</t>
+  </si>
+  <si>
+    <t>Adding second part of first puzlle</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1370,7 @@
   <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3462,7 +3465,18 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D230" s="5"/>
+      <c r="A230" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B230" t="s">
+        <v>73</v>
+      </c>
+      <c r="C230" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
@@ -3523,8 +3537,8 @@
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229</f>
-        <v>14.5</v>
+        <f>C217+C220+C223+C226+C229+C230</f>
+        <v>15</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -3532,7 +3546,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B317B-5438-44D5-840C-6722A6839115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38A2BC-628C-4D18-AFE1-9701878BC20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Adding second part of first puzlle</t>
+  </si>
+  <si>
+    <t>Trying to optimize game performence</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,7 +3483,15 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
-      <c r="D231" s="5"/>
+      <c r="B231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C231" s="12">
+        <v>2</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
@@ -3537,8 +3548,8 @@
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229+C230</f>
-        <v>15</v>
+        <f>C217+C220+C223+C226+C229+C230+C231</f>
+        <v>17</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -3546,7 +3557,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38A2BC-628C-4D18-AFE1-9701878BC20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E225AF8-A2CE-4F07-8523-819EB3F0690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Trying to optimize game performence</t>
+  </si>
+  <si>
+    <t>Creating development plan</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
   <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3391,7 +3394,7 @@
         <v>70</v>
       </c>
       <c r="C223" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>3</v>
@@ -3495,15 +3498,39 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
-      <c r="D232" s="5"/>
+      <c r="B232" t="s">
+        <v>75</v>
+      </c>
+      <c r="C232" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
-      <c r="D233" s="5"/>
+      <c r="B233" t="s">
+        <v>75</v>
+      </c>
+      <c r="C233" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
-      <c r="D234" s="5"/>
+      <c r="B234" t="s">
+        <v>75</v>
+      </c>
+      <c r="C234" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
@@ -3531,8 +3558,8 @@
         <v>5</v>
       </c>
       <c r="B239" s="12">
-        <f>C216+C219+C222+C224+C225+C228</f>
-        <v>14.5</v>
+        <f>C216+C219+C222+C224+C225+C228+C232</f>
+        <v>16</v>
       </c>
       <c r="D239" s="5"/>
     </row>
@@ -3548,8 +3575,8 @@
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229+C230+C231</f>
-        <v>17</v>
+        <f>C217+C220+C223+C226+C229+C230+C231+C233</f>
+        <v>20.5</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -3557,7 +3584,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>31.5</v>
+        <v>36.5</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E225AF8-A2CE-4F07-8523-819EB3F0690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED9CDB-84F9-4466-B052-21C98E12A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Editing scaling of player and eviroment</t>
   </si>
   <si>
-    <t>Fixing labirinth model</t>
-  </si>
-  <si>
     <t>Adding second part of first puzlle</t>
   </si>
   <si>
@@ -263,6 +260,15 @@
   </si>
   <si>
     <t>Creating development plan</t>
+  </si>
+  <si>
+    <t>Editing maze puzzle</t>
+  </si>
+  <si>
+    <t>Fixing maze model</t>
+  </si>
+  <si>
+    <t>Amel Sarvan</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3461,7 +3467,7 @@
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C229" s="12">
         <v>6</v>
@@ -3475,7 +3481,7 @@
         <v>44675</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C230" s="12">
         <v>0.5</v>
@@ -3487,7 +3493,7 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C231" s="12">
         <v>2</v>
@@ -3499,7 +3505,7 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C232" s="12">
         <v>1.5</v>
@@ -3511,7 +3517,7 @@
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C233" s="12">
         <v>1.5</v>
@@ -3523,7 +3529,7 @@
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C234" s="12">
         <v>1.5</v>
@@ -3534,7 +3540,15 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
-      <c r="D235" s="5"/>
+      <c r="B235" t="s">
+        <v>75</v>
+      </c>
+      <c r="C235" s="12">
+        <v>2</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
@@ -3575,8 +3589,8 @@
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229+C230+C231+C233</f>
-        <v>20.5</v>
+        <f>C217+C220+C223+C226+C229+C230+C231+C233+C235</f>
+        <v>22.5</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -3584,7 +3598,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED9CDB-84F9-4466-B052-21C98E12A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F1F36-F0B9-42D3-9AC1-8F397E1DFA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Amel Sarvan</t>
+  </si>
+  <si>
+    <t>Working on multiplayer / Trying to fix problems</t>
+  </si>
+  <si>
+    <t>Trying (and failing) to make interact feature work in multiplayer</t>
   </si>
 </sst>
 </file>
@@ -1381,43 +1387,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1471,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1497,12 +1503,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1517,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1527,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1547,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1550,43 +1556,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1626,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1638,7 +1644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1664,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1676,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1702,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1714,10 +1720,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +1732,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1742,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1752,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1762,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1765,43 +1771,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1841,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1853,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1879,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1891,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -1918,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -1945,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1957,14 +1963,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1979,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1989,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2009,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2012,31 +2018,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2168,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2180,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2192,7 +2198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2204,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2216,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2242,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2254,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2304,10 +2310,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2322,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2332,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2342,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2346,7 +2352,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2355,31 +2361,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2419,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2431,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2443,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2455,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2492,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2546,7 +2552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2558,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2614,10 +2620,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2632,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2642,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2652,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2664,31 +2670,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2728,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2740,7 +2746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2766,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2778,7 +2784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2818,7 +2824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2830,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2842,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2868,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2880,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -2906,7 +2912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -2918,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -2944,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -2956,11 +2962,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -2969,7 +2975,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2984,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -2988,7 +2994,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -2997,7 +3003,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3006,31 +3012,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3070,7 +3076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3132,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3144,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3170,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3182,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3194,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3206,35 +3212,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3249,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3253,7 +3259,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3269,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3282,31 +3288,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3346,10 +3352,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3374,11 +3380,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44671</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" t="s">
         <v>71</v>
@@ -3446,11 +3452,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44674</v>
       </c>
@@ -3458,13 +3464,13 @@
         <v>67</v>
       </c>
       <c r="C228" s="12">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" t="s">
         <v>76</v>
@@ -3476,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44675</v>
       </c>
@@ -3490,31 +3496,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C231" s="12">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C232" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>74</v>
@@ -3523,10 +3529,10 @@
         <v>1.5</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>74</v>
@@ -3535,30 +3541,46 @@
         <v>1.5</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
+        <v>74</v>
+      </c>
+      <c r="C235" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" t="s">
         <v>75</v>
       </c>
-      <c r="C235" s="12">
+      <c r="C236" s="12">
         <v>2</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D236" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="D236" s="5"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>79</v>
+      </c>
+      <c r="C237" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>1</v>
       </c>
@@ -3567,38 +3589,38 @@
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
       <c r="B239" s="12">
-        <f>C216+C219+C222+C224+C225+C228+C232</f>
-        <v>16</v>
+        <f>C216+C219+C222+C224+C225+C228+C233+C231+C237</f>
+        <v>26.5</v>
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
       <c r="B240" s="12"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229+C230+C231+C233+C235</f>
+        <f>C217+C220+C223+C226+C229+C230+C232+C234+C236</f>
         <v>22.5</v>
       </c>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="14">
         <f>SUM(B239:B241)</f>
-        <v>38.5</v>
+        <v>49</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F1F36-F0B9-42D3-9AC1-8F397E1DFA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDA949-4F80-4D60-AE1B-1329678A77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12612" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>Trying (and failing) to make interact feature work in multiplayer</t>
+  </si>
+  <si>
+    <t>Working on Start Menu</t>
+  </si>
+  <si>
+    <t>Finishing Start Menu</t>
+  </si>
+  <si>
+    <t>Creating map of maze</t>
+  </si>
+  <si>
+    <t>Implementing map of maze</t>
+  </si>
+  <si>
+    <t>Trying to fix git problems</t>
   </si>
 </sst>
 </file>
@@ -386,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,9 +421,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1089,7 +1107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1385,45 +1403,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="B231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1477,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1503,12 +1521,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1535,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1545,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1555,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1565,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1556,43 +1574,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1632,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1644,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1670,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1682,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1708,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1720,10 +1738,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1750,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1760,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1770,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1780,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1771,43 +1789,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1835,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1847,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1859,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1885,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1897,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -1924,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -1939,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -1951,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1963,14 +1981,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1997,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +2007,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +2017,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2009,7 +2027,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2018,31 +2036,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2070,7 +2088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2084,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2174,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2186,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2198,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2210,7 +2228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2222,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2248,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2260,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2310,10 +2328,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2340,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2350,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2342,7 +2360,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2370,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2361,31 +2379,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2425,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2437,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2449,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2461,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2498,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2526,7 +2544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2540,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2552,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2564,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2592,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2606,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2620,10 +2638,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2650,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2660,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +2670,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2679,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2670,31 +2688,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2734,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2746,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2772,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2784,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2824,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2836,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2848,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2874,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2886,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2900,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -2912,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -2924,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -2950,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -2962,11 +2980,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +2993,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +3002,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +3012,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3003,7 +3021,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3012,31 +3030,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3076,7 +3094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3138,7 +3156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3150,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3176,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3188,7 +3206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3200,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3212,35 +3230,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3249,7 +3267,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3277,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +3287,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3297,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3288,31 +3306,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3352,10 +3370,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="12">
+        <v>2</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3369,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3380,11 +3406,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
-      <c r="D221" s="5"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>80</v>
+      </c>
+      <c r="C221" s="12">
+        <v>3</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3398,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3412,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3426,125 +3460,130 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>66</v>
+      </c>
+      <c r="C225" s="12">
+        <v>6</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
         <v>44671</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>67</v>
       </c>
-      <c r="C225" s="12">
-        <v>1</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" t="s">
+      <c r="C226" s="12">
+        <v>1</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" t="s">
         <v>71</v>
       </c>
-      <c r="C226" s="12">
-        <v>1</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="C227" s="12">
+        <v>1</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" s="12">
+        <v>1</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
         <v>44674</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>67</v>
       </c>
-      <c r="C228" s="12">
+      <c r="C229" s="12">
         <v>3.5</v>
       </c>
-      <c r="D228" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" t="s">
+      <c r="D229" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" t="s">
         <v>76</v>
       </c>
-      <c r="C229" s="12">
+      <c r="C230" s="12">
         <v>6</v>
       </c>
-      <c r="D229" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+      <c r="D230" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>81</v>
+      </c>
+      <c r="C231" s="12">
+        <v>1</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
         <v>44675</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B232" t="s">
         <v>72</v>
       </c>
-      <c r="C230" s="12">
+      <c r="C232" s="12">
         <v>0.5</v>
       </c>
-      <c r="D230" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" t="s">
-        <v>78</v>
-      </c>
-      <c r="C231" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" t="s">
-        <v>73</v>
-      </c>
-      <c r="C232" s="12">
-        <v>2</v>
-      </c>
       <c r="D232" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C233" s="12">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C234" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3553,77 +3592,143 @@
         <v>1.5</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C236" s="12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
+        <v>74</v>
+      </c>
+      <c r="C237" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" t="s">
+        <v>75</v>
+      </c>
+      <c r="C238" s="12">
+        <v>2</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" t="s">
         <v>79</v>
       </c>
-      <c r="C237" s="12">
+      <c r="C239" s="12">
         <v>3.5</v>
       </c>
-      <c r="D237" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B238" s="9" t="s">
+      <c r="D239" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C240" s="21">
+        <v>2</v>
+      </c>
+      <c r="D240" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C241" s="21">
+        <v>2</v>
+      </c>
+      <c r="D241" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B242" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C242" s="21">
+        <v>1</v>
+      </c>
+      <c r="D242" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="12">
-        <f>C216+C219+C222+C224+C225+C228+C233+C231+C237</f>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="12">
+        <f>C216+C219+C222+C224+C226+C229+C235+C233+C239</f>
         <v>26.5</v>
       </c>
-      <c r="D239" s="5"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" s="12"/>
-      <c r="D240" s="5"/>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>3</v>
-      </c>
-      <c r="B241" s="13">
-        <f>C217+C220+C223+C226+C229+C230+C232+C234+C236</f>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="12">
+        <f>C218+C221+C225+C228+C231+C237+C240+C241+C242</f>
+        <v>19.5</v>
+      </c>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="13">
+        <f>C217+C220+C223+C227+C230+C232+C234+C236+C238</f>
         <v>22.5</v>
       </c>
-      <c r="D241" s="5"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="14">
-        <f>SUM(B239:B241)</f>
-        <v>49</v>
-      </c>
-      <c r="C242" s="14"/>
-      <c r="D242" s="6"/>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="4"/>
+      <c r="B249" s="14">
+        <f>SUM(B246:B248)</f>
+        <v>68.5</v>
+      </c>
+      <c r="C249" s="14"/>
+      <c r="D249" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDA949-4F80-4D60-AE1B-1329678A77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110A607-4252-41A6-A00F-4A6917682CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12612" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1405,11 +1405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110A607-4252-41A6-A00F-4A6917682CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82EF79-430B-4339-BF72-3E46B66EEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>Trying to fix git problems</t>
+  </si>
+  <si>
+    <t>Cleaning up reposetory</t>
+  </si>
+  <si>
+    <t>Creating a ReadMe for the different directories</t>
   </si>
 </sst>
 </file>
@@ -1103,6 +1109,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Textfeld 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07D28A2-199C-485D-993C-93A393E06BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32450314"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1403,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3730,6 +3796,223 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
+    <row r="254" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="21"/>
+    </row>
+    <row r="255" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C260" s="21">
+        <v>2</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="D261" s="20"/>
+    </row>
+    <row r="262" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C262" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="D262" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="20"/>
+    </row>
+    <row r="264" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C264" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="20"/>
+    </row>
+    <row r="266" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="20"/>
+    </row>
+    <row r="267" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="20"/>
+    </row>
+    <row r="268" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="20"/>
+    </row>
+    <row r="269" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="20"/>
+    </row>
+    <row r="270" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="20"/>
+    </row>
+    <row r="271" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="20"/>
+    </row>
+    <row r="272" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="20"/>
+    </row>
+    <row r="273" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="21"/>
+      <c r="D273" s="20"/>
+    </row>
+    <row r="274" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="20"/>
+    </row>
+    <row r="275" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="20"/>
+    </row>
+    <row r="276" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="20"/>
+    </row>
+    <row r="277" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="C277" s="21"/>
+      <c r="D277" s="20"/>
+    </row>
+    <row r="278" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="20"/>
+    </row>
+    <row r="279" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="20"/>
+    </row>
+    <row r="280" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="20"/>
+    </row>
+    <row r="281" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="21"/>
+      <c r="D281" s="20"/>
+    </row>
+    <row r="282" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="21"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="20"/>
+    </row>
+    <row r="283" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="20"/>
+    </row>
+    <row r="284" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="13">
+        <f>C260+C262+C264</f>
+        <v>3.51</v>
+      </c>
+      <c r="C284" s="21"/>
+      <c r="D284" s="20"/>
+    </row>
+    <row r="285" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="4"/>
+      <c r="B285" s="14">
+        <f>SUM(B282:B284)</f>
+        <v>3.51</v>
+      </c>
+      <c r="C285" s="14"/>
+      <c r="D285" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82EF79-430B-4339-BF72-3E46B66EEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EDC38B-1ED2-49EF-89A2-8D1C89394CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Cleaning up reposetory</t>
-  </si>
-  <si>
-    <t>Creating a ReadMe for the different directories</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3879,10 +3876,10 @@
         <v>44689</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C264" s="21">
-        <v>0.84</v>
+        <v>1.5</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>3</v>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="B284" s="13">
         <f>C260+C262+C264</f>
-        <v>3.51</v>
+        <v>4.17</v>
       </c>
       <c r="C284" s="21"/>
       <c r="D284" s="20"/>
@@ -4008,7 +4005,7 @@
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
-        <v>3.51</v>
+        <v>4.17</v>
       </c>
       <c r="C285" s="14"/>
       <c r="D285" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EDC38B-1ED2-49EF-89A2-8D1C89394CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3CF54-CF50-447C-B55E-09605C76940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,7 +3860,7 @@
         <v>85</v>
       </c>
       <c r="C262" s="21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="D262" s="20" t="s">
         <v>3</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B284" s="13">
         <f>C260+C262+C264</f>
-        <v>4.17</v>
+        <v>4.5</v>
       </c>
       <c r="C284" s="21"/>
       <c r="D284" s="20"/>
@@ -4005,7 +4005,7 @@
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
-        <v>4.17</v>
+        <v>4.5</v>
       </c>
       <c r="C285" s="14"/>
       <c r="D285" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3CF54-CF50-447C-B55E-09605C76940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4264C46-99A5-4BE6-9FBE-529D52AC5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Cleaning up reposetory</t>
+  </si>
+  <si>
+    <t>Fixing game errors</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3887,13 +3890,27 @@
     </row>
     <row r="265" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="20"/>
+      <c r="B265" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C265" s="21">
+        <v>2</v>
+      </c>
+      <c r="D265" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="266" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="20"/>
+      <c r="B266" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C266" s="21">
+        <v>2</v>
+      </c>
+      <c r="D266" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="267" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
@@ -3986,7 +4003,9 @@
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B283" s="21"/>
+      <c r="B283" s="21">
+        <v>2</v>
+      </c>
       <c r="C283" s="21"/>
       <c r="D283" s="20"/>
     </row>
@@ -3995,8 +4014,7 @@
         <v>3</v>
       </c>
       <c r="B284" s="13">
-        <f>C260+C262+C264</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C284" s="21"/>
       <c r="D284" s="20"/>
@@ -4005,7 +4023,7 @@
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C285" s="14"/>
       <c r="D285" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4264C46-99A5-4BE6-9FBE-529D52AC5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4A530E-DDB1-48B9-94FA-F2C027721162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Fixing game errors</t>
+  </si>
+  <si>
+    <t>Getting familiar with Plant UML</t>
+  </si>
+  <si>
+    <t>Remade development Plan with Plant UML</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,7 +1179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1475,7 +1481,7 @@
       <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
@@ -3853,50 +3859,64 @@
     </row>
     <row r="261" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
-      <c r="D261" s="20"/>
+      <c r="B261" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C261" s="21">
+        <v>2</v>
+      </c>
+      <c r="D261" s="20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="262" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
+      <c r="B262" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C262" s="21">
+        <v>1</v>
+      </c>
+      <c r="D262" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
         <v>44678</v>
       </c>
-      <c r="B262" s="19" t="s">
+      <c r="B263" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C262" s="21">
-        <v>1</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="20"/>
+      <c r="C263" s="21">
+        <v>1</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="264" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
+      <c r="A264" s="1"/>
+      <c r="B264" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C264" s="21">
+        <v>1</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
         <v>44689</v>
       </c>
-      <c r="B264" s="19" t="s">
+      <c r="B265" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C264" s="21">
+      <c r="C265" s="21">
         <v>1.5</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
-      <c r="B265" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C265" s="21">
-        <v>2</v>
-      </c>
-      <c r="D265" s="20" t="s">
+      <c r="D265" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3909,13 +3929,20 @@
         <v>2</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="20"/>
+      <c r="B267" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C267" s="21">
+        <v>2</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="268" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
@@ -3995,7 +4022,10 @@
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B282" s="21"/>
+      <c r="B282" s="21">
+        <f>C261+C262+C264</f>
+        <v>4</v>
+      </c>
       <c r="C282" s="21"/>
       <c r="D282" s="20"/>
     </row>
@@ -4023,7 +4053,7 @@
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="C285" s="14"/>
       <c r="D285" s="6"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4A530E-DDB1-48B9-94FA-F2C027721162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99FA12-B626-4E97-8B64-FABC318E7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Remade development Plan with Plant UML</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,9 +439,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1475,45 +1481,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1567,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1593,12 +1599,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1613,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1623,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1633,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1643,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1646,43 +1652,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1722,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1734,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1760,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1772,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1798,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1810,10 +1816,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1822,7 +1828,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1838,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +1848,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1858,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1861,43 +1867,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1937,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1949,7 +1955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1975,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1987,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2014,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2041,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2053,14 +2059,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2075,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2085,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2095,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2105,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2108,31 +2114,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2264,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2276,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2288,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2300,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2312,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2338,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2350,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2400,10 +2406,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +2418,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2442,7 +2448,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2451,31 +2457,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2515,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2527,7 +2533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2539,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2551,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2588,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2642,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2654,7 +2660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2710,10 +2716,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2722,7 +2728,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2738,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2751,7 +2757,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2760,31 +2766,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2824,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2836,7 +2842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2862,7 +2868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2874,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2914,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2926,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2938,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2964,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2976,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3002,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3014,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3040,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3052,11 +3058,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3071,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +3080,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3093,7 +3099,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3102,31 +3108,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3166,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3228,7 +3234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3240,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3266,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3278,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3290,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3302,35 +3308,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3339,7 +3345,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3349,7 +3355,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3365,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3375,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3378,31 +3384,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3442,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3490,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3569,7 +3575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3606,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3643,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3655,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3667,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3679,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3691,7 +3697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -3703,7 +3709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -3715,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -3748,13 +3754,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -3763,7 +3769,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3779,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3799,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -3802,34 +3808,38 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="254" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -3839,11 +3849,14 @@
       <c r="C259" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D259" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D259" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -3853,11 +3866,14 @@
       <c r="C260" s="21">
         <v>2</v>
       </c>
-      <c r="D260" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D260" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -3865,22 +3881,28 @@
       <c r="C261" s="21">
         <v>2</v>
       </c>
-      <c r="D261" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D261" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C262" s="21">
         <v>1</v>
       </c>
-      <c r="D262" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D262" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44678</v>
       </c>
@@ -3890,11 +3912,14 @@
       <c r="C263" s="21">
         <v>1</v>
       </c>
-      <c r="D263" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D263" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="19" t="s">
         <v>88</v>
@@ -3902,11 +3927,14 @@
       <c r="C264" s="21">
         <v>1</v>
       </c>
-      <c r="D264" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D264" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44689</v>
       </c>
@@ -3916,11 +3944,14 @@
       <c r="C265" s="21">
         <v>1.5</v>
       </c>
-      <c r="D265" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="19" t="s">
         <v>86</v>
@@ -3928,11 +3959,12 @@
       <c r="C266" s="21">
         <v>2</v>
       </c>
-      <c r="D266" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D266" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="20"/>
+    </row>
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
         <v>86</v>
@@ -3940,75 +3972,76 @@
       <c r="C267" s="21">
         <v>2</v>
       </c>
-      <c r="D267" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D267" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="20"/>
+    </row>
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="C268" s="21"/>
-      <c r="D268" s="20"/>
-    </row>
-    <row r="269" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E268" s="20"/>
+    </row>
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="C269" s="21"/>
-      <c r="D269" s="20"/>
-    </row>
-    <row r="270" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E269" s="20"/>
+    </row>
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="C270" s="21"/>
-      <c r="D270" s="20"/>
-    </row>
-    <row r="271" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="20"/>
+    </row>
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="C271" s="21"/>
-      <c r="D271" s="20"/>
-    </row>
-    <row r="272" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="20"/>
+    </row>
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="C272" s="21"/>
-      <c r="D272" s="20"/>
-    </row>
-    <row r="273" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E272" s="20"/>
+    </row>
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C273" s="21"/>
-      <c r="D273" s="20"/>
-    </row>
-    <row r="274" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E273" s="20"/>
+    </row>
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="C274" s="21"/>
-      <c r="D274" s="20"/>
-    </row>
-    <row r="275" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E274" s="20"/>
+    </row>
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="C275" s="21"/>
-      <c r="D275" s="20"/>
-    </row>
-    <row r="276" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E275" s="20"/>
+    </row>
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="20"/>
-    </row>
-    <row r="277" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E276" s="20"/>
+    </row>
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="C277" s="21"/>
-      <c r="D277" s="20"/>
-    </row>
-    <row r="278" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E277" s="20"/>
+    </row>
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="C278" s="21"/>
-      <c r="D278" s="20"/>
-    </row>
-    <row r="279" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E278" s="20"/>
+    </row>
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="C279" s="21"/>
-      <c r="D279" s="20"/>
-    </row>
-    <row r="280" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E279" s="20"/>
+    </row>
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
-      <c r="D280" s="20"/>
-    </row>
-    <row r="281" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="20"/>
+    </row>
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4016,9 +4049,9 @@
         <v>19</v>
       </c>
       <c r="C281" s="21"/>
-      <c r="D281" s="20"/>
-    </row>
-    <row r="282" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E281" s="20"/>
+    </row>
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
@@ -4027,9 +4060,9 @@
         <v>4</v>
       </c>
       <c r="C282" s="21"/>
-      <c r="D282" s="20"/>
-    </row>
-    <row r="283" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E282" s="20"/>
+    </row>
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
@@ -4037,9 +4070,9 @@
         <v>2</v>
       </c>
       <c r="C283" s="21"/>
-      <c r="D283" s="20"/>
-    </row>
-    <row r="284" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E283" s="20"/>
+    </row>
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="19" t="s">
         <v>3</v>
       </c>
@@ -4047,16 +4080,17 @@
         <v>6.5</v>
       </c>
       <c r="C284" s="21"/>
-      <c r="D284" s="20"/>
-    </row>
-    <row r="285" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="20"/>
+    </row>
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
         <v>12.5</v>
       </c>
       <c r="C285" s="14"/>
-      <c r="D285" s="6"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99FA12-B626-4E97-8B64-FABC318E7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2229B-193A-47C1-9AE7-50550882441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Issue</t>
+  </si>
+  <si>
+    <t>Trxing to fix bug in game</t>
+  </si>
+  <si>
+    <t>Trying to fix bug in game</t>
   </si>
 </sst>
 </file>
@@ -1481,45 +1487,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E268" sqref="E268"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1573,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1599,12 +1605,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1619,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1629,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1649,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1652,43 +1658,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1728,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1740,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1766,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1778,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1804,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1816,10 +1822,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1834,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +1844,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1854,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1864,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -1867,43 +1873,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -1943,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1955,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -1981,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -1993,7 +1999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2020,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2047,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2059,14 +2065,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2081,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2091,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2101,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2111,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2114,31 +2120,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2270,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2282,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2294,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2306,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2318,7 +2324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2344,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2356,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2406,10 +2412,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2424,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2434,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2444,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2457,31 +2463,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2521,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2533,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2545,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2557,7 +2563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2594,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2648,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2660,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2716,10 +2722,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2734,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2744,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2754,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2763,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2766,31 +2772,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -2830,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -2842,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -2868,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -2880,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -2920,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -2932,7 +2938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -2944,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -2970,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -2982,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3008,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3020,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3046,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3058,11 +3064,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3071,7 +3077,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3086,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3096,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3099,7 +3105,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3108,31 +3114,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3172,7 +3178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3234,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3246,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3272,7 +3278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3284,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3296,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3308,35 +3314,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3361,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3371,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3384,31 +3390,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3448,7 +3454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3496,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3575,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3612,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3649,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3661,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3673,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3685,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3697,7 +3703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -3709,7 +3715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -3721,7 +3727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -3754,13 +3760,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3775,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3785,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -3789,7 +3795,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -3799,7 +3805,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -3808,38 +3814,38 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -3856,24 +3862,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C260" s="21">
         <v>2</v>
       </c>
       <c r="D260" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E260" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -3882,45 +3888,42 @@
         <v>2</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E261" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
       <c r="B262" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C262" s="21">
+        <v>2</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C262" s="21">
-        <v>1</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E262" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>44678</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="C263" s="21">
         <v>1</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E263" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B264" s="19" t="s">
         <v>88</v>
       </c>
@@ -3928,169 +3931,277 @@
         <v>1</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E264" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>44689</v>
-      </c>
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="21">
+        <v>1</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B266" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C265" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="D265" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="15">
+      <c r="C266" s="21">
+        <v>1</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C266" s="21">
-        <v>2</v>
-      </c>
-      <c r="D266" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="20"/>
-    </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C267" s="21">
+        <v>1</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C268" s="21">
+        <v>2</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C269" s="21">
+        <v>2</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C270" s="21">
+        <v>1</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C271" s="21">
+        <v>2</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C272" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C267" s="21">
-        <v>2</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="20"/>
-    </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="C268" s="21"/>
-      <c r="E268" s="20"/>
-    </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="C269" s="21"/>
-      <c r="E269" s="20"/>
-    </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="C270" s="21"/>
-      <c r="E270" s="20"/>
-    </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="C271" s="21"/>
-      <c r="E271" s="20"/>
-    </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="C272" s="21"/>
-      <c r="E272" s="20"/>
-    </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C273" s="21"/>
-      <c r="E273" s="20"/>
-    </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="21">
+        <v>3</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
-      <c r="C274" s="21"/>
-      <c r="E274" s="20"/>
-    </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" s="21">
+        <v>3</v>
+      </c>
+      <c r="D274" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
-      <c r="C275" s="21"/>
-      <c r="E275" s="20"/>
-    </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="B275" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" s="21">
+        <v>3</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>44689</v>
+      </c>
       <c r="C276" s="21"/>
       <c r="E276" s="20"/>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C277" s="21"/>
       <c r="E277" s="20"/>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="C278" s="21"/>
       <c r="E278" s="20"/>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="C279" s="21"/>
       <c r="E279" s="20"/>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="21">
-        <f>C261+C262+C264</f>
-        <v>4</v>
-      </c>
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B283" s="21">
-        <v>2</v>
-      </c>
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" s="13">
-        <v>6.5</v>
-      </c>
+    <row r="284" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="14">
-        <f>SUM(B282:B284)</f>
-        <v>12.5</v>
-      </c>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
-      <c r="E285" s="6"/>
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C285" s="21"/>
+      <c r="E285" s="20"/>
+    </row>
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="21">
+        <f>C260+C263+C267+C275+C269</f>
+        <v>9</v>
+      </c>
+      <c r="C286" s="21"/>
+      <c r="E286" s="20"/>
+    </row>
+    <row r="287" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" s="21">
+        <f>C274+C262+C271+C265</f>
+        <v>8</v>
+      </c>
+      <c r="C287" s="21"/>
+      <c r="E287" s="20"/>
+    </row>
+    <row r="288" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="13">
+        <f>C261+C266+C268+C272+C273+C270+C264</f>
+        <v>11.5</v>
+      </c>
+      <c r="C288" s="21"/>
+      <c r="E288" s="20"/>
+    </row>
+    <row r="289" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="4"/>
+      <c r="B289" s="14">
+        <f>SUM(B286:B288)</f>
+        <v>28.5</v>
+      </c>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2229B-193A-47C1-9AE7-50550882441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5ECDB-771C-4376-AF8B-C8A845F1A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Trying to fix bug in game</t>
+  </si>
+  <si>
+    <t>Creating ReadMe for sub directories</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4108,13 +4111,20 @@
       <c r="A276" s="1">
         <v>44689</v>
       </c>
-      <c r="C276" s="21"/>
-      <c r="E276" s="20"/>
-    </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="21"/>
-      <c r="E277" s="20"/>
-    </row>
+      <c r="B276" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C276" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="C278" s="21"/>
@@ -4187,8 +4197,8 @@
         <v>3</v>
       </c>
       <c r="B288" s="13">
-        <f>C261+C266+C268+C272+C273+C270+C264</f>
-        <v>11.5</v>
+        <f>C261+C266+C268+C272+C273+C270+C264+C276</f>
+        <v>12</v>
       </c>
       <c r="C288" s="21"/>
       <c r="E288" s="20"/>
@@ -4197,7 +4207,7 @@
       <c r="A289" s="4"/>
       <c r="B289" s="14">
         <f>SUM(B286:B288)</f>
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="C289" s="14"/>
       <c r="D289" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5ECDB-771C-4376-AF8B-C8A845F1A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB0BBD-510B-4E67-A2A6-338AA59E44DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -301,19 +301,19 @@
     <t>Getting familiar with Plant UML</t>
   </si>
   <si>
-    <t>Remade development Plan with Plant UML</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
-    <t>Trxing to fix bug in game</t>
-  </si>
-  <si>
     <t>Trying to fix bug in game</t>
   </si>
   <si>
-    <t>Creating ReadMe for sub directories</t>
+    <t>Creating ReadMes for sub directories</t>
+  </si>
+  <si>
+    <t>Remaking development Plan with Plant UML</t>
+  </si>
+  <si>
+    <t>Fixing git problems</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
     </row>
     <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B263" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C263" s="21">
         <v>1</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B264" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C264" s="21">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C265" s="21">
         <v>1</v>
@@ -3974,58 +3974,57 @@
     <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C267" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="20">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E267" s="20"/>
     </row>
     <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
+      <c r="A268" s="1"/>
+      <c r="B268" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C268" s="21">
+        <v>1</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
         <v>44683</v>
       </c>
-      <c r="B268" s="19" t="s">
+      <c r="B269" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C268" s="21">
-        <v>2</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C269" s="21">
         <v>2</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E269" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B270" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C270" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E270" s="20">
         <v>9</v>
@@ -4033,48 +4032,47 @@
     </row>
     <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B271" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C271" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E271" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
+      <c r="B272" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" s="21">
+        <v>2</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
         <v>44688</v>
       </c>
-      <c r="B272" s="19" t="s">
+      <c r="B273" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C272" s="21">
+      <c r="C273" s="21">
         <v>1.5</v>
       </c>
-      <c r="D272" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E272" s="15">
+      <c r="D273" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="15">
         <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-      <c r="B273" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C273" s="21">
-        <v>3</v>
-      </c>
-      <c r="D273" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="20">
-        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="D274" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E274" s="20">
         <v>10</v>
@@ -4101,34 +4099,57 @@
         <v>3</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E275" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
+      <c r="A276" s="1"/>
+      <c r="B276" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" s="21">
+        <v>3</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
         <v>44689</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C276" s="21">
+      <c r="B277" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C277" s="21">
         <v>0.5</v>
       </c>
-      <c r="D276" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E276" s="20">
+      <c r="D277" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="1"/>
-      <c r="C278" s="21"/>
-      <c r="E278" s="20"/>
+      <c r="B278" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C278" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
@@ -4161,57 +4182,62 @@
       <c r="E284" s="20"/>
     </row>
     <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A285" s="1"/>
       <c r="C285" s="21"/>
       <c r="E285" s="20"/>
     </row>
     <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B286" s="21">
-        <f>C260+C263+C267+C275+C269</f>
-        <v>9</v>
+      <c r="A286" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C286" s="21"/>
       <c r="E286" s="20"/>
     </row>
     <row r="287" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B287" s="21">
-        <f>C274+C262+C271+C265</f>
-        <v>8</v>
+        <f>C260+C263+C268+C276+C270</f>
+        <v>9</v>
       </c>
       <c r="C287" s="21"/>
       <c r="E287" s="20"/>
     </row>
-    <row r="288" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B288" s="13">
-        <f>C261+C266+C268+C272+C273+C270+C264+C276</f>
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B288" s="21">
+        <f>C275+C262+C272+C265+C267+C278</f>
+        <v>12.5</v>
       </c>
       <c r="C288" s="21"/>
       <c r="E288" s="20"/>
     </row>
-    <row r="289" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="4"/>
-      <c r="B289" s="14">
-        <f>SUM(B286:B288)</f>
-        <v>29</v>
-      </c>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="6"/>
+    <row r="289" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" s="13">
+        <f>C261+C266+C269+C273+C274+C271+C264+C277</f>
+        <v>12</v>
+      </c>
+      <c r="C289" s="21"/>
+      <c r="E289" s="20"/>
+    </row>
+    <row r="290" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="4"/>
+      <c r="B290" s="14">
+        <f>SUM(B287:B289)</f>
+        <v>33.5</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB0BBD-510B-4E67-A2A6-338AA59E44DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434CF3D3-2FE2-4372-A05D-CE8C1E5B9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Fixing git problems</t>
+  </si>
+  <si>
+    <t>Tried to implement animations</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1194,7 +1197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1492,11 +1495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
@@ -4001,33 +4004,34 @@
     </row>
     <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>44683</v>
+        <v>44681</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C269" s="21">
         <v>2</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="20">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E269" s="20"/>
     </row>
     <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>44683</v>
+      </c>
       <c r="B270" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C270" s="21">
         <v>2</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E270" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4035,10 +4039,10 @@
         <v>89</v>
       </c>
       <c r="C271" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E271" s="20">
         <v>9</v>
@@ -4049,45 +4053,44 @@
         <v>89</v>
       </c>
       <c r="C272" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E272" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
+      <c r="B273" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C273" s="21">
+        <v>2</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
         <v>44688</v>
       </c>
-      <c r="B273" s="19" t="s">
+      <c r="B274" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C273" s="21">
+      <c r="C274" s="21">
         <v>1.5</v>
       </c>
-      <c r="D273" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="15">
+      <c r="D274" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="15">
         <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1"/>
-      <c r="B274" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C274" s="21">
-        <v>3</v>
-      </c>
-      <c r="D274" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="20">
-        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E275" s="20">
         <v>10</v>
@@ -4114,47 +4117,57 @@
         <v>3</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E276" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
+      <c r="A277" s="1"/>
+      <c r="B277" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" s="21">
+        <v>3</v>
+      </c>
+      <c r="D277" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
         <v>44689</v>
       </c>
-      <c r="B277" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C277" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D277" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B278" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C278" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C279" s="21">
         <v>2.5</v>
       </c>
-      <c r="D278" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" s="15">
+      <c r="D279" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-      <c r="C279" s="21"/>
-      <c r="E279" s="20"/>
     </row>
     <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
@@ -4182,63 +4195,59 @@
       <c r="E284" s="20"/>
     </row>
     <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1"/>
+      <c r="A285" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C285" s="21"/>
       <c r="E285" s="20"/>
     </row>
     <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>19</v>
+      <c r="A286" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="21">
+        <f>C260+C263+C268+C277+C271+C269</f>
+        <v>11</v>
       </c>
       <c r="C286" s="21"/>
       <c r="E286" s="20"/>
     </row>
     <row r="287" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B287" s="21">
-        <f>C260+C263+C268+C276+C270</f>
-        <v>9</v>
+        <f>C276+C262+C273+C265+C267+C279</f>
+        <v>12.5</v>
       </c>
       <c r="C287" s="21"/>
       <c r="E287" s="20"/>
     </row>
-    <row r="288" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B288" s="21">
-        <f>C275+C262+C272+C265+C267+C278</f>
-        <v>12.5</v>
+        <v>3</v>
+      </c>
+      <c r="B288" s="13">
+        <f>C261+C266+C270+C274+C275+C272+C264+C278</f>
+        <v>12</v>
       </c>
       <c r="C288" s="21"/>
       <c r="E288" s="20"/>
     </row>
-    <row r="289" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" s="13">
-        <f>C261+C266+C269+C273+C274+C271+C264+C277</f>
-        <v>12</v>
-      </c>
-      <c r="C289" s="21"/>
-      <c r="E289" s="20"/>
-    </row>
-    <row r="290" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="4"/>
-      <c r="B290" s="14">
-        <f>SUM(B287:B289)</f>
-        <v>33.5</v>
-      </c>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
-      <c r="E290" s="6"/>
-    </row>
+    <row r="289" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="4"/>
+      <c r="B289" s="14">
+        <f>SUM(B286:B288)</f>
+        <v>35.5</v>
+      </c>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="290" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434CF3D3-2FE2-4372-A05D-CE8C1E5B9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0FDB3-E796-4C03-9CD8-47D7670537A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
     <t>Fixing git problems</t>
   </si>
   <si>
-    <t>Tried to implement animations</t>
+    <t>Trying to implement animations</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1495,11 +1495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0FDB3-E796-4C03-9CD8-47D7670537A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BF7A8-7579-4478-BE72-805C42D2BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4175,79 +4175,59 @@
       <c r="E280" s="20"/>
     </row>
     <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1"/>
+      <c r="A281" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
     <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
+      <c r="A282" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="21">
+        <f>C260+C263+C268+C277+C271+C269</f>
+        <v>11</v>
+      </c>
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
     <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
+      <c r="A283" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="21">
+        <f>C276+C262+C273+C265+C267+C279</f>
+        <v>12.5</v>
+      </c>
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="13">
+        <f>C261+C266+C270+C274+C275+C272+C264+C278</f>
+        <v>12</v>
+      </c>
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
     <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C285" s="21"/>
-      <c r="E285" s="20"/>
-    </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B286" s="21">
-        <f>C260+C263+C268+C277+C271+C269</f>
-        <v>11</v>
-      </c>
-      <c r="C286" s="21"/>
-      <c r="E286" s="20"/>
-    </row>
-    <row r="287" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B287" s="21">
-        <f>C276+C262+C273+C265+C267+C279</f>
-        <v>12.5</v>
-      </c>
-      <c r="C287" s="21"/>
-      <c r="E287" s="20"/>
-    </row>
-    <row r="288" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B288" s="13">
-        <f>C261+C266+C270+C274+C275+C272+C264+C278</f>
-        <v>12</v>
-      </c>
-      <c r="C288" s="21"/>
-      <c r="E288" s="20"/>
-    </row>
-    <row r="289" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="4"/>
-      <c r="B289" s="14">
-        <f>SUM(B286:B288)</f>
+      <c r="A285" s="4"/>
+      <c r="B285" s="14">
+        <f>SUM(B282:B284)</f>
         <v>35.5</v>
       </c>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="6"/>
-    </row>
-    <row r="290" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BF7A8-7579-4478-BE72-805C42D2BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D2CCA-3D27-49FD-B83D-9D3FEDB09202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Trying to implement animations</t>
+  </si>
+  <si>
+    <t>Trying to fix mulitplayer issue</t>
+  </si>
+  <si>
+    <t>Issue Nr.</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1199,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Textfeld 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969F8C57-E9D8-4318-AA2A-D4D17EC27C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47276657"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1493,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3820,6 +3886,9 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="19"/>
+    </row>
     <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21"/>
     </row>
@@ -4228,6 +4297,265 @@
       <c r="E285" s="6"/>
     </row>
     <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="22"/>
+      <c r="E295" s="20"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="20"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="20"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="20"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C299" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="19"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="21"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="20"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="19"/>
+      <c r="C301" s="21"/>
+      <c r="D301" s="22"/>
+      <c r="E301" s="20"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="20"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="22"/>
+      <c r="E303" s="20"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="20"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="22"/>
+      <c r="E305" s="20"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="19"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="20"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="19"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="22"/>
+      <c r="E307" s="20"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="19"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="22"/>
+      <c r="E308" s="20"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="22"/>
+      <c r="E309" s="15"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="20"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="22"/>
+      <c r="E311" s="20"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="21"/>
+      <c r="D312" s="22"/>
+      <c r="E312" s="20"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="21"/>
+      <c r="D313" s="22"/>
+      <c r="E313" s="20"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="19"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="22"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="19"/>
+      <c r="E315" s="20"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="21"/>
+      <c r="D316" s="19"/>
+      <c r="E316" s="20"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="19"/>
+      <c r="E317" s="20"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" s="21"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="19"/>
+      <c r="E318" s="20"/>
+    </row>
+    <row r="319" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="C319" s="21"/>
+      <c r="D319" s="19"/>
+      <c r="E319" s="20"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="4"/>
+      <c r="B320" s="14">
+        <f>SUM(B317:B319)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="6"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
+      <c r="E321" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D2CCA-3D27-49FD-B83D-9D3FEDB09202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0EAA17-FACC-4695-B9D0-B50A399F9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -323,6 +323,30 @@
   </si>
   <si>
     <t>Issue Nr.</t>
+  </si>
+  <si>
+    <t>Trying to find useful tutorials</t>
+  </si>
+  <si>
+    <t>Watching Tutorials</t>
+  </si>
+  <si>
+    <t>Installing MLAPI</t>
+  </si>
+  <si>
+    <t>Fixing VisualStudio Issues</t>
+  </si>
+  <si>
+    <t>Trying to Implement Item Pickup System</t>
+  </si>
+  <si>
+    <t>Implementing Item Pickup System</t>
+  </si>
+  <si>
+    <t>Trying to fix multiplayer issue</t>
+  </si>
+  <si>
+    <t>Importing Assets and Scripts into new Project</t>
   </si>
 </sst>
 </file>
@@ -462,7 +486,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1263,7 +1287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1561,11 +1585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
@@ -4343,28 +4367,54 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
-      <c r="B295" s="19"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="22"/>
+      <c r="A295" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C295" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E295" s="20"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="1"/>
-      <c r="B296" s="19"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="22"/>
+      <c r="A296" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="21">
+        <v>1</v>
+      </c>
+      <c r="D296" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E296" s="20"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="1"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="21"/>
-      <c r="D297" s="22"/>
+      <c r="A297" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C297" s="21">
+        <v>2</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E297" s="20"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="19"/>
+      <c r="A298" s="1">
+        <v>44697</v>
+      </c>
       <c r="B298" s="19"/>
       <c r="C298" s="21"/>
       <c r="D298" s="22"/>
@@ -4372,79 +4422,134 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
+        <v>44697</v>
+      </c>
+      <c r="E299" s="20"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B300" t="s">
+        <v>98</v>
+      </c>
+      <c r="C300" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D300" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E300" s="20"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C301" s="21">
+        <v>1</v>
+      </c>
+      <c r="D301" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" s="20"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C302" s="21">
+        <v>4</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E302" s="20"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B303" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C303" s="21">
+        <v>3</v>
+      </c>
+      <c r="D303" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E303" s="20"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B304" t="s">
+        <v>103</v>
+      </c>
+      <c r="C304" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="20"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C305" s="21">
+        <v>1</v>
+      </c>
+      <c r="D305" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="20"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
         <v>44703</v>
       </c>
-      <c r="B299" s="19" t="s">
+      <c r="B306" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C306" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D306" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" s="20"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B307" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C299" s="21">
+      <c r="C307" s="21">
         <v>3.5</v>
       </c>
-      <c r="D299" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E299" s="20">
+      <c r="D307" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="19"/>
-      <c r="B300" s="19"/>
-      <c r="C300" s="21"/>
-      <c r="D300" s="22"/>
-      <c r="E300" s="20"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="1"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="21"/>
-      <c r="D301" s="22"/>
-      <c r="E301" s="20"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="19"/>
-      <c r="C302" s="21"/>
-      <c r="D302" s="22"/>
-      <c r="E302" s="20"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
-      <c r="B303" s="19"/>
-      <c r="C303" s="21"/>
-      <c r="D303" s="22"/>
-      <c r="E303" s="20"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="22"/>
-      <c r="E304" s="20"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="22"/>
-      <c r="E305" s="20"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="22"/>
-      <c r="E306" s="20"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="19"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="21"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="20"/>
-    </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="19"/>
+      <c r="A308" s="1"/>
       <c r="B308" s="19"/>
       <c r="C308" s="21"/>
       <c r="D308" s="22"/>
@@ -4486,7 +4591,7 @@
       <c r="E313" s="20"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="19"/>
+      <c r="A314" s="1"/>
       <c r="B314" s="19"/>
       <c r="C314" s="21"/>
       <c r="D314" s="22"/>
@@ -4514,7 +4619,10 @@
       <c r="A317" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="21"/>
+      <c r="B317" s="21">
+        <f>C295+C296+C297+C300+C301+C302+C303+C305+C306+C304</f>
+        <v>22</v>
+      </c>
       <c r="C317" s="21"/>
       <c r="D317" s="19"/>
       <c r="E317" s="20"/>
@@ -4543,7 +4651,7 @@
       <c r="A320" s="4"/>
       <c r="B320" s="14">
         <f>SUM(B317:B319)</f>
-        <v>3.5</v>
+        <v>25.5</v>
       </c>
       <c r="C320" s="14"/>
       <c r="D320" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0EAA17-FACC-4695-B9D0-B50A399F9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96EBBE-5F3E-4110-8A86-D4D4FF1BA680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Importing Assets and Scripts into new Project</t>
+  </si>
+  <si>
+    <t>Working on inventory system</t>
+  </si>
+  <si>
+    <t>Creating a demo for inventory system</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1583,13 +1589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B318" sqref="B318"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
@@ -4412,18 +4418,20 @@
       <c r="E297" s="20"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>44697</v>
-      </c>
-      <c r="B298" s="19"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="22"/>
+      <c r="A298" s="1"/>
+      <c r="B298" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C298" s="21">
+        <v>2</v>
+      </c>
+      <c r="D298" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E298" s="20"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <v>44697</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="E299" s="20"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -4441,30 +4449,26 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <v>44700</v>
-      </c>
+    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
       <c r="B301" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C301" s="21">
+        <v>3.52</v>
+      </c>
+      <c r="D301" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E301" s="20"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C301" s="21">
-        <v>1</v>
-      </c>
-      <c r="D301" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E301" s="20"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>44701</v>
-      </c>
-      <c r="B302" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="C302" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D302" s="22" t="s">
         <v>5</v>
@@ -4473,13 +4477,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C303" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D303" s="22" t="s">
         <v>5</v>
@@ -4490,90 +4494,116 @@
       <c r="A304" s="1">
         <v>44702</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C304" s="21">
+        <v>3</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="20"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" t="s">
         <v>103</v>
       </c>
-      <c r="C304" s="12">
+      <c r="C305" s="12">
         <v>2.5</v>
       </c>
-      <c r="D304" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="20"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <v>44702</v>
-      </c>
-      <c r="B305" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C305" s="21">
-        <v>1</v>
-      </c>
       <c r="D305" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E305" s="20"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <v>44703</v>
-      </c>
+    <row r="306" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
       <c r="B306" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C306" s="21">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E306" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="E306" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
-        <v>44703</v>
-      </c>
+      <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C307" s="21">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E307" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
-      <c r="B308" s="19"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="22"/>
+      <c r="B308" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C308" s="21">
+        <v>2</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E308" s="20"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-      <c r="B309" s="19"/>
-      <c r="C309" s="21"/>
-      <c r="D309" s="22"/>
-      <c r="E309" s="15"/>
+      <c r="A309" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C309" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D309" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="22"/>
-      <c r="E310" s="20"/>
+      <c r="B310" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C310" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D310" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="21"/>
-      <c r="D311" s="22"/>
+      <c r="B311" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C311" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E311" s="20"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -4581,7 +4611,7 @@
       <c r="B312" s="19"/>
       <c r="C312" s="21"/>
       <c r="D312" s="22"/>
-      <c r="E312" s="20"/>
+      <c r="E312" s="15"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
@@ -4595,74 +4625,96 @@
       <c r="B314" s="19"/>
       <c r="C314" s="21"/>
       <c r="D314" s="22"/>
-      <c r="E314" s="15"/>
+      <c r="E314" s="20"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="19"/>
       <c r="C315" s="21"/>
-      <c r="D315" s="19"/>
+      <c r="D315" s="22"/>
       <c r="E315" s="20"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A316" s="1"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="21"/>
-      <c r="D316" s="19"/>
+      <c r="D316" s="22"/>
       <c r="E316" s="20"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B317" s="21">
-        <f>C295+C296+C297+C300+C301+C302+C303+C305+C306+C304</f>
-        <v>22</v>
-      </c>
+      <c r="A317" s="1"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="21"/>
-      <c r="D317" s="19"/>
-      <c r="E317" s="20"/>
+      <c r="D317" s="22"/>
+      <c r="E317" s="15"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B318" s="21"/>
+      <c r="A318" s="1"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="21"/>
       <c r="D318" s="19"/>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" s="13">
-        <v>3.5</v>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C319" s="21"/>
       <c r="D319" s="19"/>
       <c r="E319" s="20"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="4"/>
-      <c r="B320" s="14">
-        <f>SUM(B317:B319)</f>
-        <v>25.5</v>
-      </c>
-      <c r="C320" s="14"/>
-      <c r="D320" s="14"/>
-      <c r="E320" s="6"/>
+      <c r="A320" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="21">
+        <f>C295+C296+C297+C300+C302+C303+C304+C307+C309+C305</f>
+        <v>22</v>
+      </c>
+      <c r="C320" s="21"/>
+      <c r="D320" s="19"/>
+      <c r="E320" s="20"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="19"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
+      <c r="A321" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
       <c r="D321" s="19"/>
-      <c r="E321" s="19"/>
+      <c r="E321" s="20"/>
+    </row>
+    <row r="322" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322" s="13">
+        <f>C298+C301+C308+C310+C311+C306</f>
+        <v>14.75</v>
+      </c>
+      <c r="C322" s="21"/>
+      <c r="D322" s="19"/>
+      <c r="E322" s="20"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="4"/>
+      <c r="B323" s="14">
+        <f>SUM(B320:B322)</f>
+        <v>36.75</v>
+      </c>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="6"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="19"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\Desktop\HTL\SYP\Youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96EBBE-5F3E-4110-8A86-D4D4FF1BA680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C07209-40AA-412E-98A6-A3773F35AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -1589,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4432,6 +4432,15 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
+      <c r="B299" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C299" s="12">
+        <v>2</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E299" s="20"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -4460,30 +4469,32 @@
       <c r="D301" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E301" s="20"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E301" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C302" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C302" s="21">
-        <v>1</v>
-      </c>
-      <c r="D302" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E302" s="20"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <v>44701</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="C303" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D303" s="22" t="s">
         <v>5</v>
@@ -4492,57 +4503,57 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C304" s="21">
+        <v>4</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="20"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
         <v>44702</v>
       </c>
-      <c r="B304" s="19" t="s">
+      <c r="B305" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C304" s="21">
-        <v>3</v>
-      </c>
-      <c r="D304" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="20"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-      <c r="B305" t="s">
+      <c r="C305" s="21">
+        <v>3</v>
+      </c>
+      <c r="D305" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="20"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" t="s">
         <v>103</v>
       </c>
-      <c r="C305" s="12">
+      <c r="C306" s="12">
         <v>2.5</v>
       </c>
-      <c r="D305" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E305" s="20"/>
-    </row>
-    <row r="306" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-      <c r="B306" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C306" s="21">
-        <v>1.23</v>
-      </c>
       <c r="D306" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E306" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E306" s="20"/>
+    </row>
+    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C307" s="21">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E307" s="20">
         <v>11</v>
@@ -4551,88 +4562,124 @@
     <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C308" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E308" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="E308" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
-        <v>44703</v>
-      </c>
+      <c r="A309" s="1"/>
       <c r="B309" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C309" s="21">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E309" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="19" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C310" s="21">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E310" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C311" s="21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D311" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E311" s="20"/>
+      <c r="E311" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="1"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="21"/>
-      <c r="D312" s="22"/>
-      <c r="E312" s="15"/>
+      <c r="A312" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C312" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D312" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
-      <c r="B313" s="19"/>
-      <c r="C313" s="21"/>
-      <c r="D313" s="22"/>
-      <c r="E313" s="20"/>
+      <c r="B313" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C313" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D313" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E313" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
-      <c r="B314" s="19"/>
-      <c r="C314" s="21"/>
-      <c r="D314" s="22"/>
-      <c r="E314" s="20"/>
+      <c r="B314" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C314" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D314" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
-      <c r="B315" s="19"/>
-      <c r="C315" s="21"/>
-      <c r="D315" s="22"/>
-      <c r="E315" s="20"/>
+      <c r="B315" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C315" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D315" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="15">
+        <v>12</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
@@ -4646,75 +4693,99 @@
       <c r="B317" s="19"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
-      <c r="E317" s="15"/>
+      <c r="E317" s="20"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="19"/>
       <c r="C318" s="21"/>
-      <c r="D318" s="19"/>
+      <c r="D318" s="22"/>
       <c r="E318" s="20"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A319" s="1"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="21"/>
-      <c r="D319" s="19"/>
+      <c r="D319" s="22"/>
       <c r="E319" s="20"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B320" s="21">
-        <f>C295+C296+C297+C300+C302+C303+C304+C307+C309+C305</f>
-        <v>22</v>
-      </c>
+      <c r="A320" s="1"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="21"/>
-      <c r="D320" s="19"/>
-      <c r="E320" s="20"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="15"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" s="21"/>
+      <c r="A321" s="1"/>
+      <c r="B321" s="19"/>
       <c r="C321" s="21"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
     </row>
-    <row r="322" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B322" s="13">
-        <f>C298+C301+C308+C310+C311+C306</f>
-        <v>14.75</v>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C322" s="21"/>
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="4"/>
-      <c r="B323" s="14">
-        <f>SUM(B320:B322)</f>
-        <v>36.75</v>
-      </c>
-      <c r="C323" s="14"/>
-      <c r="D323" s="14"/>
-      <c r="E323" s="6"/>
+      <c r="A323" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="21">
+        <f>C295+C296+C297+C300+C303+C304+C305+C309+C312+C306</f>
+        <v>22</v>
+      </c>
+      <c r="C323" s="21"/>
+      <c r="D323" s="19"/>
+      <c r="E323" s="20"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="19"/>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
+      <c r="A324" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="21">
+        <f>C302+C315+C310+C299+C309</f>
+        <v>11</v>
+      </c>
+      <c r="C324" s="21"/>
       <c r="D324" s="19"/>
-      <c r="E324" s="19"/>
+      <c r="E324" s="20"/>
+    </row>
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="13">
+        <f>C298+C301+C311+C313+C314+C307</f>
+        <v>14.75</v>
+      </c>
+      <c r="C325" s="21"/>
+      <c r="D325" s="19"/>
+      <c r="E325" s="20"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="4"/>
+      <c r="B326" s="14">
+        <f>SUM(B323:B325)</f>
+        <v>47.75</v>
+      </c>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="6"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="19"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C07209-40AA-412E-98A6-A3773F35AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Creating a demo for inventory system</t>
+  </si>
+  <si>
+    <t>Finishing inventory system</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1595,7 @@
   <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4682,11 +4685,21 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="21"/>
-      <c r="D316" s="22"/>
-      <c r="E316" s="20"/>
+      <c r="A316" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C316" s="21">
+        <v>3</v>
+      </c>
+      <c r="D316" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
@@ -4751,8 +4764,8 @@
         <v>7</v>
       </c>
       <c r="B324" s="21">
-        <f>C302+C315+C310+C299+C309</f>
-        <v>11</v>
+        <f>C302+C315+C310+C299+C309+C316</f>
+        <v>14</v>
       </c>
       <c r="C324" s="21"/>
       <c r="D324" s="19"/>
@@ -4774,7 +4787,7 @@
       <c r="A326" s="4"/>
       <c r="B326" s="14">
         <f>SUM(B323:B325)</f>
-        <v>47.75</v>
+        <v>50.75</v>
       </c>
       <c r="C326" s="14"/>
       <c r="D326" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2db96cb2f0c79c5/Desktop/SYP/youre-not-alone/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8727F39-125C-40EA-9363-811DE0703C1D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Finishing inventory system</t>
+  </si>
+  <si>
+    <t>Powerpoint erstellen</t>
+  </si>
+  <si>
+    <t>Powerpoint bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -1292,6 +1298,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Textfeld 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAACDC70-2D88-4735-8C8F-D05EA5D97AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52058047"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1592,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E346" sqref="E346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4800,6 +4866,201 @@
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
     </row>
+    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="22"/>
+      <c r="E338" s="20"/>
+    </row>
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="22"/>
+      <c r="E339" s="20"/>
+    </row>
+    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="22"/>
+      <c r="E340" s="20"/>
+    </row>
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="22"/>
+      <c r="E341" s="20"/>
+    </row>
+    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="20"/>
+    </row>
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="22"/>
+      <c r="E343" s="20"/>
+    </row>
+    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="22"/>
+      <c r="E344" s="20"/>
+    </row>
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+      <c r="C347" s="21"/>
+      <c r="D347" s="22"/>
+      <c r="E347" s="20"/>
+    </row>
+    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="C348" s="21"/>
+      <c r="D348" s="22"/>
+      <c r="E348" s="20"/>
+    </row>
+    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="C349" s="21"/>
+      <c r="D349" s="22"/>
+      <c r="E349" s="20"/>
+    </row>
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C350" s="21">
+        <v>1</v>
+      </c>
+      <c r="D350" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B351" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C351" s="21">
+        <v>2</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E351" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="22"/>
+      <c r="E352" s="20"/>
+    </row>
+    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C353" s="21"/>
+      <c r="E353" s="20"/>
+    </row>
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="E354" s="20"/>
+    </row>
+    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="E355" s="20"/>
+    </row>
+    <row r="356" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="13">
+        <v>3</v>
+      </c>
+      <c r="C356" s="21"/>
+      <c r="E356" s="20"/>
+    </row>
+    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="4"/>
+      <c r="B357" s="14">
+        <f>SUM(B354:B356)</f>
+        <v>3</v>
+      </c>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2db96cb2f0c79c5/Desktop/SYP/youre-not-alone/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8727F39-125C-40EA-9363-811DE0703C1D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECE54A6-89E8-47C4-ACED-DC68BF3644B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E346" sqref="E346"/>
+      <selection activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4911,8 +4911,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E336" s="20"/>
+    </row>
+    <row r="337" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E337" s="20"/>
+    </row>
     <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="C338" s="21"/>
@@ -4955,8 +4959,12 @@
       <c r="D344" s="22"/>
       <c r="E344" s="20"/>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E345" s="20"/>
+    </row>
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E346" s="20"/>
+    </row>
     <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="C347" s="21"/>
@@ -4983,7 +4991,7 @@
         <v>107</v>
       </c>
       <c r="C350" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350" s="22" t="s">
         <v>3</v>
@@ -5000,7 +5008,7 @@
         <v>108</v>
       </c>
       <c r="C351" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D351" s="22" t="s">
         <v>3</v>
@@ -5046,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="B356" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C356" s="21"/>
       <c r="E356" s="20"/>
@@ -5055,7 +5063,7 @@
       <c r="A357" s="4"/>
       <c r="B357" s="14">
         <f>SUM(B354:B356)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C357" s="14"/>
       <c r="D357" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F350" sqref="F350"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2db96cb2f0c79c5/Desktop/SYP/youre-not-alone/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{79916E2F-61CA-4740-AD7A-A1FF4FA54BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECE54A6-89E8-47C4-ACED-DC68BF3644B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68933F-0AC8-49C5-87F8-E13FCD64C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Powerpoint bearbeiten</t>
+  </si>
+  <si>
+    <t>Make puzzle work in multiplayer</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+      <selection activeCell="H345" sqref="H345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4912,22 +4915,68 @@
       </c>
     </row>
     <row r="336" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E336" s="20"/>
+      <c r="A336" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C336" s="21">
+        <v>2</v>
+      </c>
+      <c r="D336" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E336" s="20">
+        <v>14</v>
+      </c>
     </row>
     <row r="337" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E337" s="20"/>
+      <c r="A337" s="1"/>
+      <c r="B337" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C337" s="21">
+        <v>3</v>
+      </c>
+      <c r="D337" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E337" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1"/>
-      <c r="C338" s="21"/>
-      <c r="D338" s="22"/>
-      <c r="E338" s="20"/>
+      <c r="A338" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C338" s="21">
+        <v>3</v>
+      </c>
+      <c r="D338" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E338" s="20">
+        <v>14</v>
+      </c>
     </row>
     <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
-      <c r="C339" s="21"/>
-      <c r="D339" s="22"/>
-      <c r="E339" s="20"/>
+      <c r="B339" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C339" s="21">
+        <v>5</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
@@ -4960,15 +5009,15 @@
       <c r="E344" s="20"/>
     </row>
     <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="22"/>
       <c r="E345" s="20"/>
     </row>
     <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E346" s="20"/>
     </row>
     <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="22"/>
       <c r="E347" s="20"/>
     </row>
     <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4984,90 +5033,68 @@
       <c r="E349" s="20"/>
     </row>
     <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
-        <v>44723</v>
-      </c>
-      <c r="B350" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C350" s="21">
-        <v>2</v>
-      </c>
-      <c r="D350" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E350" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
-        <v>44724</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C351" s="21">
-        <v>3</v>
-      </c>
-      <c r="D351" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E351" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="C352" s="21"/>
-      <c r="D352" s="22"/>
+      <c r="A350" s="1"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="22"/>
+      <c r="E350" s="20"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E351" s="20"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E352" s="20"/>
     </row>
     <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B353" s="9" t="s">
+      <c r="A353" s="1"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="22"/>
+      <c r="E353" s="20"/>
+    </row>
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C353" s="21"/>
-      <c r="E353" s="20"/>
-    </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B354" s="21"/>
       <c r="C354" s="21"/>
       <c r="E354" s="20"/>
     </row>
     <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
       <c r="E355" s="20"/>
     </row>
-    <row r="356" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B356" s="13">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B356" s="21"/>
       <c r="C356" s="21"/>
       <c r="E356" s="20"/>
     </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
-      <c r="B357" s="14">
-        <f>SUM(B354:B356)</f>
-        <v>5</v>
-      </c>
-      <c r="C357" s="14"/>
-      <c r="D357" s="14"/>
-      <c r="E357" s="6"/>
+    <row r="357" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357" s="13">
+        <v>13</v>
+      </c>
+      <c r="C357" s="21"/>
+      <c r="E357" s="20"/>
+    </row>
+    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="4"/>
+      <c r="B358" s="14">
+        <f>SUM(B355:B357)</f>
+        <v>13</v>
+      </c>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68933F-0AC8-49C5-87F8-E13FCD64C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F0EE3-D3DC-4345-BA52-4EE06A09D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H345" sqref="H345"/>
+      <selection activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4914,14 +4914,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>44723</v>
+        <v>44718</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C336" s="21">
+      <c r="C336" s="12">
         <v>2</v>
       </c>
       <c r="D336" s="22" t="s">
@@ -4931,8 +4931,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>44723</v>
+      </c>
       <c r="B337" s="19" t="s">
         <v>109</v>
       </c>
@@ -4947,47 +4949,43 @@
       </c>
     </row>
     <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1">
+      <c r="A338" s="1"/>
+      <c r="C338" s="21"/>
+      <c r="E338" s="20"/>
+    </row>
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
         <v>44724</v>
       </c>
-      <c r="B338" s="19" t="s">
+      <c r="B339" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C338" s="21">
-        <v>3</v>
-      </c>
-      <c r="D338" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E338" s="20">
+      <c r="C339" s="21">
+        <v>3</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="20">
         <v>14</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-      <c r="B339" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C339" s="21">
-        <v>5</v>
-      </c>
-      <c r="D339" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E339" s="20">
-        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
-      <c r="C340" s="21"/>
-      <c r="D340" s="22"/>
-      <c r="E340" s="20"/>
+      <c r="B340" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C340" s="21">
+        <v>5</v>
+      </c>
+      <c r="D340" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E340" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-      <c r="C341" s="21"/>
-      <c r="D341" s="22"/>
       <c r="E341" s="20"/>
     </row>
     <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F0EE3-D3DC-4345-BA52-4EE06A09D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A0A39-F208-4631-883F-3A02DE06CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>Make puzzle work in multiplayer</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1664,42 +1667,42 @@
   <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1753,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1779,12 +1782,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1796,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1806,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1816,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1826,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1832,43 +1835,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1908,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1920,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1946,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1958,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1984,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1996,10 +1999,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2011,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2021,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2047,43 +2050,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2123,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2135,7 +2138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2161,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2173,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2200,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2227,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2239,14 +2242,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2258,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2265,7 +2268,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2278,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2285,7 +2288,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2294,31 +2297,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2450,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2462,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2474,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2486,7 +2489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2498,7 +2501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2524,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2536,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2586,10 +2589,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2601,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2608,7 +2611,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2618,7 +2621,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2637,31 +2640,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2701,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2713,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2725,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2737,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2774,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2828,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2840,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2896,10 +2899,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2931,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2946,31 +2949,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3010,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3022,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3048,7 +3051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3060,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3100,7 +3103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3112,7 +3115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3124,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3150,7 +3153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3162,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3188,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3200,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3226,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3238,11 +3241,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3254,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3288,31 +3291,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3352,7 +3355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3414,7 +3417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3426,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3452,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3464,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3476,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3488,35 +3491,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3535,7 +3538,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3548,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3558,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3564,31 +3567,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3628,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3676,7 +3679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3755,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3792,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3829,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3841,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3853,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3865,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3877,7 +3880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -3889,7 +3892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -3901,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -3934,13 +3937,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -3949,7 +3952,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +3962,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -3969,7 +3972,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +3982,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -3988,41 +3991,41 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -4071,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="19" t="s">
         <v>87</v>
@@ -4086,7 +4089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="19" t="s">
         <v>91</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="19" t="s">
         <v>91</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="19" t="s">
         <v>91</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
         <v>92</v>
@@ -4158,7 +4161,7 @@
       </c>
       <c r="E267" s="20"/>
     </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="19" t="s">
         <v>91</v>
@@ -4173,7 +4176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4188,7 +4191,7 @@
       </c>
       <c r="E269" s="20"/>
     </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="19" t="s">
         <v>89</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="19" t="s">
         <v>89</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="19" t="s">
         <v>89</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="19" t="s">
         <v>86</v>
@@ -4279,7 +4282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="19" t="s">
         <v>86</v>
@@ -4294,7 +4297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="19" t="s">
         <v>86</v>
@@ -4309,7 +4312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="19" t="s">
         <v>90</v>
       </c>
@@ -4340,12 +4343,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4355,7 +4358,7 @@
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
@@ -4366,7 +4369,7 @@
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
@@ -4377,7 +4380,7 @@
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="19" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
@@ -4398,36 +4401,36 @@
       <c r="D285" s="14"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="16"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="16"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="16"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="16"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -4459,7 +4462,7 @@
       </c>
       <c r="E295" s="20"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -4474,7 +4477,7 @@
       </c>
       <c r="E296" s="20"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -4489,7 +4492,7 @@
       </c>
       <c r="E297" s="20"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="19" t="s">
         <v>97</v>
@@ -4502,7 +4505,7 @@
       </c>
       <c r="E298" s="20"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="19" t="s">
         <v>97</v>
@@ -4515,7 +4518,7 @@
       </c>
       <c r="E299" s="20"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -4530,7 +4533,7 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="19" t="s">
         <v>105</v>
@@ -4545,7 +4548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="19" t="s">
         <v>105</v>
@@ -4560,7 +4563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19" t="s">
         <v>99</v>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="E303" s="20"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -4588,7 +4591,7 @@
       </c>
       <c r="E304" s="20"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="E305" s="20"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -4616,7 +4619,7 @@
       </c>
       <c r="E306" s="20"/>
     </row>
-    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
         <v>102</v>
@@ -4631,7 +4634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="19" t="s">
         <v>102</v>
@@ -4646,7 +4649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="19" t="s">
         <v>102</v>
@@ -4661,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="19" t="s">
         <v>104</v>
@@ -4676,7 +4679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="19" t="s">
         <v>104</v>
@@ -4691,7 +4694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="19" t="s">
         <v>94</v>
@@ -4723,7 +4726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="19" t="s">
         <v>104</v>
@@ -4738,7 +4741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="19" t="s">
         <v>104</v>
@@ -4753,7 +4756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -4770,42 +4773,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="19"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
       <c r="E317" s="20"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="19"/>
       <c r="C318" s="21"/>
       <c r="D318" s="22"/>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="19"/>
       <c r="C319" s="21"/>
       <c r="D319" s="22"/>
       <c r="E319" s="20"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="19"/>
       <c r="C320" s="21"/>
       <c r="D320" s="22"/>
       <c r="E320" s="15"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="19"/>
       <c r="C321" s="21"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -4816,7 +4819,7 @@
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>5</v>
       </c>
@@ -4828,7 +4831,7 @@
       <c r="D323" s="19"/>
       <c r="E323" s="20"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +4843,7 @@
       <c r="D324" s="19"/>
       <c r="E324" s="20"/>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4855,7 @@
       <c r="D325" s="19"/>
       <c r="E325" s="20"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="14">
         <f>SUM(B323:B325)</f>
@@ -4862,42 +4865,42 @@
       <c r="D326" s="14"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
     </row>
-    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="16"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="16"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="16"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="16"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44718</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44723</v>
       </c>
@@ -4948,12 +4951,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="C338" s="21"/>
       <c r="E338" s="20"/>
     </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44724</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="19" t="s">
         <v>109</v>
@@ -4985,70 +4988,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="E341" s="20"/>
     </row>
-    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="C342" s="21"/>
       <c r="D342" s="22"/>
       <c r="E342" s="20"/>
     </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="C343" s="21"/>
       <c r="D343" s="22"/>
       <c r="E343" s="20"/>
     </row>
-    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="C344" s="21"/>
       <c r="D344" s="22"/>
       <c r="E344" s="20"/>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="C345" s="21"/>
       <c r="D345" s="22"/>
       <c r="E345" s="20"/>
     </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E346" s="20"/>
     </row>
-    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E347" s="20"/>
     </row>
-    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="C348" s="21"/>
       <c r="D348" s="22"/>
       <c r="E348" s="20"/>
     </row>
-    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="C349" s="21"/>
       <c r="D349" s="22"/>
       <c r="E349" s="20"/>
     </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="C350" s="21"/>
       <c r="D350" s="22"/>
       <c r="E350" s="20"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E351" s="20"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E352" s="20"/>
     </row>
-    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="C353" s="21"/>
       <c r="D353" s="22"/>
       <c r="E353" s="20"/>
     </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>1</v>
       </c>
@@ -5058,7 +5064,7 @@
       <c r="C354" s="21"/>
       <c r="E354" s="20"/>
     </row>
-    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>5</v>
       </c>
@@ -5066,7 +5072,7 @@
       <c r="C355" s="21"/>
       <c r="E355" s="20"/>
     </row>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>7</v>
       </c>
@@ -5074,7 +5080,7 @@
       <c r="C356" s="21"/>
       <c r="E356" s="20"/>
     </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="19" t="s">
         <v>3</v>
       </c>
@@ -5084,7 +5090,7 @@
       <c r="C357" s="21"/>
       <c r="E357" s="20"/>
     </row>
-    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="14">
         <f>SUM(B355:B357)</f>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A0A39-F208-4631-883F-3A02DE06CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E56DF-31DE-4735-8E6A-7D4490FD0706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
     <t>Make puzzle work in multiplayer</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test2</t>
   </si>
 </sst>
 </file>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E56DF-31DE-4735-8E6A-7D4490FD0706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A781A4-885B-48DA-9224-A2DA7275E428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
     <t>Make puzzle work in multiplayer</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>test23</t>
   </si>
 </sst>
 </file>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A781A4-885B-48DA-9224-A2DA7275E428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97506CBE-70F3-4663-AEFC-8F1CBF1A9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -367,7 +367,19 @@
     <t>Make puzzle work in multiplayer</t>
   </si>
   <si>
-    <t>test23</t>
+    <t>Researching about github actions</t>
+  </si>
+  <si>
+    <t>watching tutorials</t>
+  </si>
+  <si>
+    <t>Tried to make puzzle work in multiplayer</t>
+  </si>
+  <si>
+    <t>Created actions</t>
+  </si>
+  <si>
+    <t>Tried to fix Errors</t>
   </si>
 </sst>
 </file>
@@ -507,7 +519,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1368,7 +1380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1666,43 +1678,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1756,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1782,12 +1794,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1818,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1838,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1835,43 +1847,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1911,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1923,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1949,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1961,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -1975,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -1987,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1999,10 +2011,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2023,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2033,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2053,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2050,43 +2062,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2126,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2138,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2164,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2176,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2203,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2230,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2242,14 +2254,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2280,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2290,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2288,7 +2300,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2297,31 +2309,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2453,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2465,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2477,7 +2489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2489,7 +2501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2501,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2527,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2539,7 +2551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2589,10 +2601,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +2623,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2633,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2640,31 +2652,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2704,7 +2716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2716,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2728,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2740,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2777,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2831,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2843,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2885,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -2899,10 +2911,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2923,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2933,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2952,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -2949,31 +2961,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3013,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3025,7 +3037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3051,7 +3063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3063,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3103,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3115,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3127,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3153,7 +3165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3165,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3191,7 +3203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3203,7 +3215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3229,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3241,11 +3253,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3266,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3263,7 +3275,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +3285,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3294,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3291,31 +3303,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3355,7 +3367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3417,7 +3429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3429,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3455,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3467,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3479,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3491,35 +3503,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3538,7 +3550,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +3560,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3558,7 +3570,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3567,31 +3579,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3631,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3656,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3679,7 +3691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3758,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3769,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3795,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3820,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3832,7 +3844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3844,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3856,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3868,7 +3880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3880,7 +3892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -3892,7 +3904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -3904,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -3937,13 +3949,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -3952,7 +3964,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +3974,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -3972,7 +3984,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -3982,7 +3994,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -3991,41 +4003,41 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -4074,7 +4086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="19" t="s">
         <v>87</v>
@@ -4089,7 +4101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B263" s="19" t="s">
         <v>91</v>
       </c>
@@ -4103,7 +4115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B264" s="19" t="s">
         <v>91</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="19" t="s">
         <v>91</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4148,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
         <v>92</v>
@@ -4161,7 +4173,7 @@
       </c>
       <c r="E267" s="20"/>
     </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="19" t="s">
         <v>91</v>
@@ -4176,7 +4188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4191,7 +4203,7 @@
       </c>
       <c r="E269" s="20"/>
     </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4208,7 +4220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B271" s="19" t="s">
         <v>89</v>
       </c>
@@ -4222,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B272" s="19" t="s">
         <v>89</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B273" s="19" t="s">
         <v>89</v>
       </c>
@@ -4250,7 +4262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="19" t="s">
         <v>86</v>
@@ -4282,7 +4294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="19" t="s">
         <v>86</v>
@@ -4297,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="19" t="s">
         <v>86</v>
@@ -4312,7 +4324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B279" s="19" t="s">
         <v>90</v>
       </c>
@@ -4343,12 +4355,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4358,7 +4370,7 @@
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
@@ -4369,7 +4381,7 @@
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
@@ -4380,7 +4392,7 @@
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="19" t="s">
         <v>3</v>
       </c>
@@ -4391,7 +4403,7 @@
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
@@ -4401,36 +4413,36 @@
       <c r="D285" s="14"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="16"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="16"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="16"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="16"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -4462,7 +4474,7 @@
       </c>
       <c r="E295" s="20"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -4477,7 +4489,7 @@
       </c>
       <c r="E296" s="20"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -4492,7 +4504,7 @@
       </c>
       <c r="E297" s="20"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="19" t="s">
         <v>97</v>
@@ -4505,7 +4517,7 @@
       </c>
       <c r="E298" s="20"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="19" t="s">
         <v>97</v>
@@ -4518,7 +4530,7 @@
       </c>
       <c r="E299" s="20"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -4533,7 +4545,7 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="19" t="s">
         <v>105</v>
@@ -4548,7 +4560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="19" t="s">
         <v>105</v>
@@ -4563,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="19" t="s">
         <v>99</v>
@@ -4576,7 +4588,7 @@
       </c>
       <c r="E303" s="20"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -4591,7 +4603,7 @@
       </c>
       <c r="E304" s="20"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -4606,7 +4618,7 @@
       </c>
       <c r="E305" s="20"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -4619,7 +4631,7 @@
       </c>
       <c r="E306" s="20"/>
     </row>
-    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
         <v>102</v>
@@ -4634,7 +4646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="19" t="s">
         <v>102</v>
@@ -4649,7 +4661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="19" t="s">
         <v>102</v>
@@ -4664,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="19" t="s">
         <v>104</v>
@@ -4679,7 +4691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="19" t="s">
         <v>104</v>
@@ -4694,7 +4706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -4711,7 +4723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="19" t="s">
         <v>94</v>
@@ -4726,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="19" t="s">
         <v>104</v>
@@ -4741,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="19" t="s">
         <v>104</v>
@@ -4756,7 +4768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -4773,42 +4785,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="19"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
       <c r="E317" s="20"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="19"/>
       <c r="C318" s="21"/>
       <c r="D318" s="22"/>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="19"/>
       <c r="C319" s="21"/>
       <c r="D319" s="22"/>
       <c r="E319" s="20"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="19"/>
       <c r="C320" s="21"/>
       <c r="D320" s="22"/>
       <c r="E320" s="15"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="19"/>
       <c r="C321" s="21"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +4831,7 @@
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="19" t="s">
         <v>5</v>
       </c>
@@ -4831,7 +4843,7 @@
       <c r="D323" s="19"/>
       <c r="E323" s="20"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="19" t="s">
         <v>7</v>
       </c>
@@ -4843,7 +4855,7 @@
       <c r="D324" s="19"/>
       <c r="E324" s="20"/>
     </row>
-    <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="19" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4867,7 @@
       <c r="D325" s="19"/>
       <c r="E325" s="20"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="14">
         <f>SUM(B323:B325)</f>
@@ -4865,42 +4877,42 @@
       <c r="D326" s="14"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
     </row>
-    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="16"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="16"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="16"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="16"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -4917,54 +4929,59 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>44718</v>
-      </c>
-      <c r="B336" s="19" t="s">
-        <v>107</v>
+        <v>44711</v>
+      </c>
+      <c r="B336" t="s">
+        <v>110</v>
       </c>
       <c r="C336" s="12">
         <v>2</v>
       </c>
-      <c r="D336" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E336" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>44723</v>
-      </c>
-      <c r="B337" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C337" s="21">
-        <v>3</v>
-      </c>
-      <c r="D337" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E337" s="20">
+      <c r="D336" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" s="20"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>111</v>
+      </c>
+      <c r="C337" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D337" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="20"/>
+    </row>
+    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C338" s="21">
+        <v>2</v>
+      </c>
+      <c r="D338" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-      <c r="C338" s="21"/>
-      <c r="E338" s="20"/>
-    </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>44724</v>
+        <v>44718</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C339" s="21">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="C339" s="12">
+        <v>2</v>
       </c>
       <c r="D339" s="22" t="s">
         <v>3</v>
@@ -4973,13 +4990,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>44723</v>
+      </c>
       <c r="B340" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C340" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D340" s="22" t="s">
         <v>3</v>
@@ -4988,118 +5007,134 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="19" t="s">
-        <v>110</v>
-      </c>
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="C341" s="21"/>
       <c r="E341" s="20"/>
     </row>
-    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-      <c r="C342" s="21"/>
-      <c r="D342" s="22"/>
-      <c r="E342" s="20"/>
-    </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C342" s="21">
+        <v>3</v>
+      </c>
+      <c r="D342" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E342" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
-      <c r="C343" s="21"/>
-      <c r="D343" s="22"/>
-      <c r="E343" s="20"/>
-    </row>
-    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C343" s="21">
+        <v>5</v>
+      </c>
+      <c r="D343" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
-      <c r="C344" s="21"/>
-      <c r="D344" s="22"/>
+      <c r="B344" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C344" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D344" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E344" s="20"/>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
-      <c r="C345" s="21"/>
-      <c r="D345" s="22"/>
+      <c r="B345" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C345" s="21">
+        <v>4</v>
+      </c>
+      <c r="D345" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E345" s="20"/>
     </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E346" s="20"/>
     </row>
-    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E347" s="20"/>
     </row>
-    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-      <c r="C348" s="21"/>
-      <c r="D348" s="22"/>
+    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E348" s="20"/>
     </row>
-    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C349" s="21"/>
-      <c r="D349" s="22"/>
       <c r="E349" s="20"/>
     </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" s="21">
+        <f>C336+C337+C338+C344+C345</f>
+        <v>11</v>
+      </c>
       <c r="C350" s="21"/>
-      <c r="D350" s="22"/>
       <c r="E350" s="20"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" s="21"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="19"/>
       <c r="E351" s="20"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" s="13">
+        <v>13</v>
+      </c>
+      <c r="C352" s="21"/>
+      <c r="D352" s="19"/>
       <c r="E352" s="20"/>
     </row>
-    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-      <c r="C353" s="21"/>
-      <c r="D353" s="22"/>
-      <c r="E353" s="20"/>
-    </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C354" s="21"/>
-      <c r="E354" s="20"/>
-    </row>
-    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B355" s="21"/>
-      <c r="C355" s="21"/>
-      <c r="E355" s="20"/>
-    </row>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
-      <c r="E356" s="20"/>
-    </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B357" s="13">
-        <v>13</v>
-      </c>
-      <c r="C357" s="21"/>
-      <c r="E357" s="20"/>
-    </row>
-    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
-      <c r="B358" s="14">
-        <f>SUM(B355:B357)</f>
-        <v>13</v>
-      </c>
-      <c r="C358" s="14"/>
-      <c r="D358" s="14"/>
-      <c r="E358" s="6"/>
-    </row>
+    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="4"/>
+      <c r="B353" s="14">
+        <f>SUM(B350:B352)</f>
+        <v>24</v>
+      </c>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97506CBE-70F3-4663-AEFC-8F1CBF1A9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415457E-6F41-4A67-B459-A662E77C9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>Tried to fix Errors</t>
+  </si>
+  <si>
+    <t>Trying to fix building errors</t>
+  </si>
+  <si>
+    <t>Git secrets</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F347" sqref="F347"/>
+      <selection activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4991,150 +4997,192 @@
       </c>
     </row>
     <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1">
+      <c r="A340" s="1"/>
+      <c r="B340" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C340" s="21">
+        <v>2</v>
+      </c>
+      <c r="D340" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="20"/>
+    </row>
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
         <v>44723</v>
       </c>
-      <c r="B340" s="19" t="s">
+      <c r="B341" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C340" s="21">
-        <v>3</v>
-      </c>
-      <c r="D340" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E340" s="20">
+      <c r="C341" s="21">
+        <v>3</v>
+      </c>
+      <c r="D341" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E341" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-      <c r="C341" s="21"/>
-      <c r="E341" s="20"/>
-    </row>
     <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1">
+      <c r="A342" s="1"/>
+      <c r="B342" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C342" s="21">
+        <v>3</v>
+      </c>
+      <c r="D342" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="20"/>
+    </row>
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
         <v>44724</v>
       </c>
-      <c r="B342" s="19" t="s">
+      <c r="B343" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C342" s="21">
-        <v>3</v>
-      </c>
-      <c r="D342" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E342" s="20">
+      <c r="C343" s="21">
+        <v>3</v>
+      </c>
+      <c r="D343" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="20">
         <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
-      <c r="B343" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C343" s="21">
-        <v>5</v>
-      </c>
-      <c r="D343" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E343" s="20">
-        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C344" s="21">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D344" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E344" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="E344" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C345" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D345" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E345" s="20"/>
+    </row>
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C345" s="21">
+      <c r="C346" s="21">
         <v>4</v>
       </c>
-      <c r="D345" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E345" s="20"/>
-    </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D346" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E346" s="20"/>
     </row>
     <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C347" s="21">
+        <v>3</v>
+      </c>
+      <c r="D347" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E347" s="20"/>
     </row>
     <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C348" s="21">
+        <v>5</v>
+      </c>
+      <c r="D348" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E348" s="20"/>
     </row>
     <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B349" s="9" t="s">
+      <c r="E349" s="20"/>
+    </row>
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C349" s="21"/>
-      <c r="E349" s="20"/>
-    </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B350" s="21">
-        <f>C336+C337+C338+C344+C345</f>
-        <v>11</v>
       </c>
       <c r="C350" s="21"/>
       <c r="E350" s="20"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B351" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="B351" s="21">
+        <f>C336+C337+C338+C345+C346</f>
+        <v>11</v>
+      </c>
       <c r="C351" s="21"/>
-      <c r="D351" s="19"/>
       <c r="E351" s="20"/>
     </row>
-    <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B352" s="13">
+        <v>7</v>
+      </c>
+      <c r="B352" s="21">
+        <f>C348+C347+C342+C340</f>
         <v>13</v>
       </c>
       <c r="C352" s="21"/>
       <c r="D352" s="19"/>
       <c r="E352" s="20"/>
     </row>
-    <row r="353" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="4"/>
-      <c r="B353" s="14">
-        <f>SUM(B350:B352)</f>
-        <v>24</v>
-      </c>
-      <c r="C353" s="14"/>
-      <c r="D353" s="14"/>
-      <c r="E353" s="6"/>
-    </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" s="13">
+        <v>13</v>
+      </c>
+      <c r="C353" s="21"/>
+      <c r="D353" s="19"/>
+      <c r="E353" s="20"/>
+    </row>
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="4"/>
+      <c r="B354" s="14">
+        <f>SUM(B351:B353)</f>
+        <v>37</v>
+      </c>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="6"/>
+    </row>
     <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415457E-6F41-4A67-B459-A662E77C9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3835-7D14-456E-87EE-7160219962FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1685,10 +1685,10 @@
   <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+      <selection activeCell="E339" sqref="E339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
@@ -5007,7 +5007,9 @@
       <c r="D340" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E340" s="20"/>
+      <c r="E340" s="20">
+        <v>14</v>
+      </c>
     </row>
     <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
@@ -5107,7 +5109,9 @@
       <c r="D347" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E347" s="20"/>
+      <c r="E347" s="20">
+        <v>14</v>
+      </c>
     </row>
     <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B348" s="19" t="s">

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3835-7D14-456E-87EE-7160219962FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E246154-0535-410C-B3C2-91DB402E9DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E339" sqref="E339"/>
+      <selection activeCell="J334" sqref="J334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5097,7 +5097,9 @@
       <c r="D346" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E346" s="20"/>
+      <c r="E346" s="20">
+        <v>16</v>
+      </c>
     </row>
     <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B347" s="19" t="s">
@@ -5123,7 +5125,9 @@
       <c r="D348" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E348" s="20"/>
+      <c r="E348" s="20">
+        <v>16</v>
+      </c>
     </row>
     <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E349" s="20"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E246154-0535-410C-B3C2-91DB402E9DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA16A2F-46E0-4663-9C9A-109D4B60E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -386,13 +386,16 @@
   </si>
   <si>
     <t>Git secrets</t>
+  </si>
+  <si>
+    <t>Sprint 1-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +408,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -497,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +534,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1684,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J334" sqref="J334"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5187,7 +5200,15 @@
       <c r="E354" s="6"/>
     </row>
     <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B356" s="24">
+        <f>B354+B326+B285+B249+B205+B168+B131+B100+B63+B38+B16</f>
+        <v>395.55</v>
+      </c>
+    </row>
     <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA16A2F-46E0-4663-9C9A-109D4B60E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67D27D-D946-4F31-9B91-AA06E94BE8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>Sprint 1-11</t>
+  </si>
+  <si>
+    <t>Discussing future of project</t>
+  </si>
+  <si>
+    <t>Reworking project state presentation</t>
+  </si>
+  <si>
+    <t>Recognizing current state of project</t>
+  </si>
+  <si>
+    <t>Fixing Website DNS</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F344" sqref="F344"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D375" sqref="D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5212,6 +5224,225 @@
     <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B363" t="s">
+        <v>121</v>
+      </c>
+      <c r="C363" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="20"/>
+    </row>
+    <row r="364" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B364" t="s">
+        <v>120</v>
+      </c>
+      <c r="C364" s="12">
+        <v>1</v>
+      </c>
+      <c r="D364" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E364" s="20"/>
+    </row>
+    <row r="365" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C365" s="21">
+        <v>1</v>
+      </c>
+      <c r="D365" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="20"/>
+    </row>
+    <row r="366" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1"/>
+      <c r="B366" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C366" s="21">
+        <v>1</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E366" s="20"/>
+    </row>
+    <row r="367" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B367" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C367" s="21">
+        <v>2</v>
+      </c>
+      <c r="D367" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E367" s="20"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+      <c r="B368" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C368" s="21">
+        <v>2</v>
+      </c>
+      <c r="D368" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" s="20"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="19"/>
+      <c r="B369" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C369" s="21">
+        <v>2</v>
+      </c>
+      <c r="D369" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E369" s="20"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B370" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C370" s="21">
+        <v>2</v>
+      </c>
+      <c r="D370" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E370" s="20"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C371" s="21">
+        <v>2</v>
+      </c>
+      <c r="D371" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" s="20"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+      <c r="B372" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C372" s="21">
+        <v>2</v>
+      </c>
+      <c r="D372" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E372" s="20"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="19"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="19"/>
+      <c r="E373" s="20"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C374" s="21"/>
+      <c r="D374" s="19"/>
+      <c r="E374" s="20"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" s="21">
+        <f>C364+C367+C370</f>
+        <v>5</v>
+      </c>
+      <c r="C375" s="21"/>
+      <c r="D375" s="19"/>
+      <c r="E375" s="20"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376" s="21">
+        <f>C363+C365+C368+C371</f>
+        <v>6.5</v>
+      </c>
+      <c r="C376" s="21"/>
+      <c r="D376" s="19"/>
+      <c r="E376" s="20"/>
+    </row>
+    <row r="377" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" s="13">
+        <f>C366+C369+C372</f>
+        <v>5</v>
+      </c>
+      <c r="C377" s="21"/>
+      <c r="D377" s="19"/>
+      <c r="E377" s="20"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="4"/>
+      <c r="B378" s="14">
+        <f>SUM(B375:B377)</f>
+        <v>16.5</v>
+      </c>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67D27D-D946-4F31-9B91-AA06E94BE8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE3773-BE9B-4F6E-AF5E-CFD87A61B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +401,21 @@
   </si>
   <si>
     <t>Fixing Website DNS</t>
+  </si>
+  <si>
+    <t>Creating blender player model</t>
+  </si>
+  <si>
+    <t>Wiedereinführung in Projekt</t>
+  </si>
+  <si>
+    <t>Creating blender player model and adding it to game</t>
+  </si>
+  <si>
+    <t>Using tmate to debug github build action</t>
+  </si>
+  <si>
+    <t>Trying to make github build action work</t>
   </si>
 </sst>
 </file>
@@ -1407,6 +1422,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BF3F7A-09EE-4A7D-8720-7A5E0E9DD47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="59418071"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1707,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D375" sqref="D375"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5443,6 +5518,310 @@
       <c r="D378" s="14"/>
       <c r="E378" s="6"/>
     </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="19"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="16"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="16"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="16"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="16"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B388" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C388" s="21">
+        <v>3</v>
+      </c>
+      <c r="D388" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E388" s="20"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="19"/>
+      <c r="B389" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C389" s="21">
+        <v>3</v>
+      </c>
+      <c r="D389" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="20"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1"/>
+      <c r="B390" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C390" s="21">
+        <v>3</v>
+      </c>
+      <c r="D390" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="20"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C391" s="21">
+        <v>3</v>
+      </c>
+      <c r="D391" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E391" s="20"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C392" s="21">
+        <v>3</v>
+      </c>
+      <c r="D392" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C393" s="12">
+        <v>3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B394" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C394" s="21">
+        <v>2</v>
+      </c>
+      <c r="D394" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E394" s="20"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C395" s="21">
+        <v>2</v>
+      </c>
+      <c r="D395" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1"/>
+      <c r="B396" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C396" s="21">
+        <v>2</v>
+      </c>
+      <c r="D396" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B397" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C397" s="21">
+        <v>2</v>
+      </c>
+      <c r="D397" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E397" s="20"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B398" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C398" s="21">
+        <v>3</v>
+      </c>
+      <c r="D398" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E398" s="20"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="19"/>
+      <c r="B399" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C399" s="21">
+        <v>3</v>
+      </c>
+      <c r="D399" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="19"/>
+      <c r="B400" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C400" s="21">
+        <v>3</v>
+      </c>
+      <c r="D400" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E400" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="19"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="19"/>
+      <c r="D401" s="19"/>
+      <c r="E401" s="20"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C402" s="21"/>
+      <c r="D402" s="19"/>
+      <c r="E402" s="20"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" s="21">
+        <f>C389+C392+C395+C399</f>
+        <v>11</v>
+      </c>
+      <c r="C403" s="21"/>
+      <c r="D403" s="19"/>
+      <c r="E403" s="20"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" s="21">
+        <f>C390+C393+C396+C400</f>
+        <v>11</v>
+      </c>
+      <c r="C404" s="21"/>
+      <c r="D404" s="19"/>
+      <c r="E404" s="20"/>
+    </row>
+    <row r="405" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B405" s="13">
+        <v>13</v>
+      </c>
+      <c r="C405" s="21"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="20"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="4"/>
+      <c r="B406" s="14">
+        <f>SUM(B403:B405)</f>
+        <v>35</v>
+      </c>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE3773-BE9B-4F6E-AF5E-CFD87A61B062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF068B2-FC24-4387-AEB4-91C1B667A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -389,15 +389,6 @@
   </si>
   <si>
     <t>Sprint 1-11</t>
-  </si>
-  <si>
-    <t>Discussing future of project</t>
-  </si>
-  <si>
-    <t>Reworking project state presentation</t>
-  </si>
-  <si>
-    <t>Recognizing current state of project</t>
   </si>
   <si>
     <t>Fixing Website DNS</t>
@@ -1426,7 +1417,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3223260" cy="512769"/>
@@ -1782,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E400" sqref="E400"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5299,528 +5290,321 @@
     <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="7" t="s">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="19"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="19"/>
+      <c r="E365" s="19"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="16"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="16"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="16"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="16"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B370" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C362" s="17" t="s">
+      <c r="C370" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D362" s="17" t="s">
+      <c r="D370" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E362" s="8" t="s">
+      <c r="E370" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
-        <v>44761</v>
-      </c>
-      <c r="B363" t="s">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C371" s="21">
+        <v>3</v>
+      </c>
+      <c r="D371" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E371" s="20"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="19"/>
+      <c r="B372" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C372" s="21">
+        <v>3</v>
+      </c>
+      <c r="D372" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="20"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C373" s="21">
+        <v>3</v>
+      </c>
+      <c r="D373" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="20"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C374" s="21">
+        <v>3</v>
+      </c>
+      <c r="D374" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" s="20"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C375" s="21">
+        <v>3</v>
+      </c>
+      <c r="D375" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C376" s="12">
+        <v>3</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B377" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C377" s="21">
+        <v>2</v>
+      </c>
+      <c r="D377" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E377" s="20"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C378" s="21">
+        <v>2</v>
+      </c>
+      <c r="D378" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E378" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C379" s="21">
+        <v>2</v>
+      </c>
+      <c r="D379" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B380" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C380" s="21">
+        <v>2</v>
+      </c>
+      <c r="D380" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380" s="20"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C381" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D381" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" s="20"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B382" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C363" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D363" t="s">
-        <v>7</v>
-      </c>
-      <c r="E363" s="20"/>
-    </row>
-    <row r="364" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B364" t="s">
-        <v>120</v>
-      </c>
-      <c r="C364" s="12">
+      <c r="C382" s="21">
+        <v>3</v>
+      </c>
+      <c r="D382" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E382" s="20"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="19"/>
+      <c r="B383" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C383" s="21">
+        <v>3</v>
+      </c>
+      <c r="D383" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="19"/>
+      <c r="B384" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C384" s="21">
+        <v>3</v>
+      </c>
+      <c r="D384" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="19"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="19"/>
+      <c r="E385" s="20"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D364" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E364" s="20"/>
-    </row>
-    <row r="365" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-      <c r="B365" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C365" s="21">
-        <v>1</v>
-      </c>
-      <c r="D365" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E365" s="20"/>
-    </row>
-    <row r="366" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
-      <c r="B366" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C366" s="21">
-        <v>1</v>
-      </c>
-      <c r="D366" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E366" s="20"/>
-    </row>
-    <row r="367" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C367" s="21">
-        <v>2</v>
-      </c>
-      <c r="D367" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E367" s="20"/>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-      <c r="B368" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C368" s="21">
-        <v>2</v>
-      </c>
-      <c r="D368" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E368" s="20"/>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="19"/>
-      <c r="B369" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C369" s="21">
-        <v>2</v>
-      </c>
-      <c r="D369" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E369" s="20"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="1">
-        <v>44768</v>
-      </c>
-      <c r="B370" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C370" s="21">
-        <v>2</v>
-      </c>
-      <c r="D370" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E370" s="20"/>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-      <c r="B371" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C371" s="21">
-        <v>2</v>
-      </c>
-      <c r="D371" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E371" s="20"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
-      <c r="B372" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C372" s="21">
-        <v>2</v>
-      </c>
-      <c r="D372" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E372" s="20"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="19"/>
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
-      <c r="D373" s="19"/>
-      <c r="E373" s="20"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B374" s="9" t="s">
+      <c r="B386" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C374" s="21"/>
-      <c r="D374" s="19"/>
-      <c r="E374" s="20"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B375" s="21">
-        <f>C364+C367+C370</f>
-        <v>5</v>
-      </c>
-      <c r="C375" s="21"/>
-      <c r="D375" s="19"/>
-      <c r="E375" s="20"/>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B376" s="21">
-        <f>C363+C365+C368+C371</f>
-        <v>6.5</v>
-      </c>
-      <c r="C376" s="21"/>
-      <c r="D376" s="19"/>
-      <c r="E376" s="20"/>
-    </row>
-    <row r="377" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B377" s="13">
-        <f>C366+C369+C372</f>
-        <v>5</v>
-      </c>
-      <c r="C377" s="21"/>
-      <c r="D377" s="19"/>
-      <c r="E377" s="20"/>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="4"/>
-      <c r="B378" s="14">
-        <f>SUM(B375:B377)</f>
-        <v>16.5</v>
-      </c>
-      <c r="C378" s="14"/>
-      <c r="D378" s="14"/>
-      <c r="E378" s="6"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="19"/>
-      <c r="B382" s="19"/>
-      <c r="C382" s="21"/>
-      <c r="D382" s="19"/>
-      <c r="E382" s="19"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="3"/>
-      <c r="B383" s="3"/>
-      <c r="C383" s="16"/>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="3"/>
-      <c r="B384" s="3"/>
-      <c r="C384" s="16"/>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="3"/>
-      <c r="B385" s="3"/>
-      <c r="C385" s="16"/>
-      <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="3"/>
-      <c r="B386" s="3"/>
-      <c r="C386" s="16"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="19"/>
+      <c r="E386" s="20"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B387" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C387" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D387" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E387" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="A387" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" s="21">
+        <f>C372+C375+C378+C383</f>
+        <v>11</v>
+      </c>
+      <c r="C387" s="21"/>
+      <c r="D387" s="19"/>
+      <c r="E387" s="20"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
-        <v>44832</v>
-      </c>
-      <c r="B388" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C388" s="21">
-        <v>3</v>
-      </c>
-      <c r="D388" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="A388" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" s="21">
+        <f>C373+C376+C379+C384+C381</f>
+        <v>12.5</v>
+      </c>
+      <c r="C388" s="21"/>
+      <c r="D388" s="19"/>
       <c r="E388" s="20"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="19"/>
-      <c r="B389" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C389" s="21">
-        <v>3</v>
-      </c>
-      <c r="D389" s="19" t="s">
-        <v>5</v>
-      </c>
+    <row r="389" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" s="13">
+        <v>13</v>
+      </c>
+      <c r="C389" s="21"/>
+      <c r="D389" s="19"/>
       <c r="E389" s="20"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
-      <c r="B390" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C390" s="21">
-        <v>3</v>
-      </c>
-      <c r="D390" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E390" s="20"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="1">
-        <v>44838</v>
-      </c>
-      <c r="B391" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C391" s="21">
-        <v>3</v>
-      </c>
-      <c r="D391" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E391" s="20"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B392" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C392" s="21">
-        <v>3</v>
-      </c>
-      <c r="D392" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E392" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B393" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C393" s="12">
-        <v>3</v>
-      </c>
-      <c r="D393" t="s">
-        <v>7</v>
-      </c>
-      <c r="E393" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="1">
-        <v>44839</v>
-      </c>
-      <c r="B394" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C394" s="21">
-        <v>2</v>
-      </c>
-      <c r="D394" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E394" s="20"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-      <c r="B395" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C395" s="21">
-        <v>2</v>
-      </c>
-      <c r="D395" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
-      <c r="B396" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C396" s="21">
-        <v>2</v>
-      </c>
-      <c r="D396" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E396" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="1">
-        <v>44843</v>
-      </c>
-      <c r="B397" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C397" s="21">
-        <v>2</v>
-      </c>
-      <c r="D397" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E397" s="20"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" s="1">
-        <v>44844</v>
-      </c>
-      <c r="B398" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C398" s="21">
-        <v>3</v>
-      </c>
-      <c r="D398" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E398" s="20"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" s="19"/>
-      <c r="B399" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C399" s="21">
-        <v>3</v>
-      </c>
-      <c r="D399" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E399" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="19"/>
-      <c r="B400" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C400" s="21">
-        <v>3</v>
-      </c>
-      <c r="D400" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E400" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" s="19"/>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="19"/>
-      <c r="E401" s="20"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B402" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C402" s="21"/>
-      <c r="D402" s="19"/>
-      <c r="E402" s="20"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B403" s="21">
-        <f>C389+C392+C395+C399</f>
-        <v>11</v>
-      </c>
-      <c r="C403" s="21"/>
-      <c r="D403" s="19"/>
-      <c r="E403" s="20"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B404" s="21">
-        <f>C390+C393+C396+C400</f>
-        <v>11</v>
-      </c>
-      <c r="C404" s="21"/>
-      <c r="D404" s="19"/>
-      <c r="E404" s="20"/>
-    </row>
-    <row r="405" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B405" s="13">
-        <v>13</v>
-      </c>
-      <c r="C405" s="21"/>
-      <c r="D405" s="19"/>
-      <c r="E405" s="20"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="4"/>
-      <c r="B406" s="14">
-        <f>SUM(B403:B405)</f>
-        <v>35</v>
-      </c>
-      <c r="C406" s="14"/>
-      <c r="D406" s="14"/>
-      <c r="E406" s="6"/>
+      <c r="A390" s="4"/>
+      <c r="B390" s="14">
+        <f>SUM(B387:B389)</f>
+        <v>36.5</v>
+      </c>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14"/>
+      <c r="E390" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF068B2-FC24-4387-AEB4-91C1B667A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656786D1-D02C-47D2-8EB6-04010519C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,6 +554,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1773,45 +1774,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K379" sqref="K379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1865,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1891,12 +1892,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1906,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1916,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1935,7 +1936,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1944,43 +1945,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2020,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2032,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2058,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2070,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2096,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2108,10 +2109,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2131,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2159,43 +2160,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2235,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2247,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2273,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2285,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2312,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2339,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2351,14 +2352,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2368,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2378,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2388,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2398,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2406,31 +2407,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2562,7 +2563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2574,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2586,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2598,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2610,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2636,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2648,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2698,10 +2699,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2721,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2749,31 +2750,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2813,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2825,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2837,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2849,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2886,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2940,7 +2941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2952,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -3008,10 +3009,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3021,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3030,7 +3031,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3040,7 +3041,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3049,7 +3050,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -3058,31 +3059,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3122,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3134,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3160,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3172,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3212,7 +3213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3224,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3236,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3262,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3274,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3300,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3312,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3338,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3350,11 +3351,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3363,7 +3364,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +3373,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3383,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3400,31 +3401,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3464,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3526,7 +3527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3538,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3564,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3576,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3588,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3600,35 +3601,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3638,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3647,7 +3648,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3657,7 +3658,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3667,7 +3668,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3676,31 +3677,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3740,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3788,7 +3789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3867,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3904,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3941,7 +3942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3953,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3965,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3977,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3989,7 +3990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -4001,7 +4002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -4013,7 +4014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -4046,13 +4047,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -4061,7 +4062,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4072,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -4091,7 +4092,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -4100,41 +4101,41 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -4183,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="19" t="s">
         <v>87</v>
@@ -4198,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="19" t="s">
         <v>91</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="19" t="s">
         <v>91</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="19" t="s">
         <v>91</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
         <v>92</v>
@@ -4270,7 +4271,7 @@
       </c>
       <c r="E267" s="20"/>
     </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="19" t="s">
         <v>91</v>
@@ -4285,7 +4286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4300,7 +4301,7 @@
       </c>
       <c r="E269" s="20"/>
     </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="19" t="s">
         <v>89</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="19" t="s">
         <v>89</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="19" t="s">
         <v>89</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="19" t="s">
         <v>86</v>
@@ -4391,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="19" t="s">
         <v>86</v>
@@ -4406,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="19" t="s">
         <v>86</v>
@@ -4421,7 +4422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="19" t="s">
         <v>90</v>
       </c>
@@ -4452,12 +4453,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +4468,7 @@
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +4490,7 @@
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="19" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4501,7 @@
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
@@ -4510,36 +4511,36 @@
       <c r="D285" s="14"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="16"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="16"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="16"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="16"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -4571,7 +4572,7 @@
       </c>
       <c r="E295" s="20"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -4586,7 +4587,7 @@
       </c>
       <c r="E296" s="20"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -4601,7 +4602,7 @@
       </c>
       <c r="E297" s="20"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="19" t="s">
         <v>97</v>
@@ -4614,7 +4615,7 @@
       </c>
       <c r="E298" s="20"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="19" t="s">
         <v>97</v>
@@ -4627,7 +4628,7 @@
       </c>
       <c r="E299" s="20"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -4642,7 +4643,7 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="19" t="s">
         <v>105</v>
@@ -4657,7 +4658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="19" t="s">
         <v>105</v>
@@ -4672,7 +4673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19" t="s">
         <v>99</v>
@@ -4685,7 +4686,7 @@
       </c>
       <c r="E303" s="20"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -4700,7 +4701,7 @@
       </c>
       <c r="E304" s="20"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -4715,7 +4716,7 @@
       </c>
       <c r="E305" s="20"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -4728,7 +4729,7 @@
       </c>
       <c r="E306" s="20"/>
     </row>
-    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
         <v>102</v>
@@ -4743,7 +4744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="19" t="s">
         <v>102</v>
@@ -4758,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="19" t="s">
         <v>102</v>
@@ -4773,7 +4774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="19" t="s">
         <v>104</v>
@@ -4788,7 +4789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="19" t="s">
         <v>104</v>
@@ -4803,7 +4804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="19" t="s">
         <v>94</v>
@@ -4835,7 +4836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="19" t="s">
         <v>104</v>
@@ -4850,7 +4851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="19" t="s">
         <v>104</v>
@@ -4865,7 +4866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -4882,42 +4883,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="19"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
       <c r="E317" s="20"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="19"/>
       <c r="C318" s="21"/>
       <c r="D318" s="22"/>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="19"/>
       <c r="C319" s="21"/>
       <c r="D319" s="22"/>
       <c r="E319" s="20"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="19"/>
       <c r="C320" s="21"/>
       <c r="D320" s="22"/>
       <c r="E320" s="15"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="19"/>
       <c r="C321" s="21"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -4928,7 +4929,7 @@
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4941,7 @@
       <c r="D323" s="19"/>
       <c r="E323" s="20"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>7</v>
       </c>
@@ -4952,7 +4953,7 @@
       <c r="D324" s="19"/>
       <c r="E324" s="20"/>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>3</v>
       </c>
@@ -4964,7 +4965,7 @@
       <c r="D325" s="19"/>
       <c r="E325" s="20"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="14">
         <f>SUM(B323:B325)</f>
@@ -4974,42 +4975,42 @@
       <c r="D326" s="14"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
     </row>
-    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="16"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="16"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="16"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="16"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44711</v>
       </c>
@@ -5041,7 +5042,7 @@
       </c>
       <c r="E336" s="20"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>111</v>
       </c>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="E337" s="20"/>
     </row>
-    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="19" t="s">
         <v>107</v>
@@ -5102,7 +5103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="19" t="s">
         <v>116</v>
@@ -5132,7 +5133,7 @@
       </c>
       <c r="E342" s="20"/>
     </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="19" t="s">
         <v>109</v>
@@ -5164,7 +5165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="19" t="s">
         <v>113</v>
@@ -5177,7 +5178,7 @@
       </c>
       <c r="E345" s="20"/>
     </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="19" t="s">
         <v>114</v>
@@ -5192,7 +5193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="19" t="s">
         <v>108</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="19" t="s">
         <v>115</v>
       </c>
@@ -5220,10 +5221,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E349" s="20"/>
     </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5234,7 @@
       <c r="C350" s="21"/>
       <c r="E350" s="20"/>
     </row>
-    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="19" t="s">
         <v>5</v>
       </c>
@@ -5244,7 +5245,7 @@
       <c r="C351" s="21"/>
       <c r="E351" s="20"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="19" t="s">
         <v>7</v>
       </c>
@@ -5256,7 +5257,7 @@
       <c r="D352" s="19"/>
       <c r="E352" s="20"/>
     </row>
-    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="19" t="s">
         <v>3</v>
       </c>
@@ -5267,7 +5268,7 @@
       <c r="D353" s="19"/>
       <c r="E353" s="20"/>
     </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="14">
         <f>SUM(B351:B353)</f>
@@ -5277,8 +5278,8 @@
       <c r="D354" s="14"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="23" t="s">
         <v>117</v>
       </c>
@@ -5287,45 +5288,45 @@
         <v>395.55</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="21"/>
       <c r="D365" s="19"/>
       <c r="E365" s="19"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="16"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="16"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="16"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="16"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44832</v>
       </c>
@@ -5357,7 +5358,7 @@
       </c>
       <c r="E371" s="20"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="19"/>
       <c r="B372" s="19" t="s">
         <v>120</v>
@@ -5370,7 +5371,7 @@
       </c>
       <c r="E372" s="20"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="19" t="s">
         <v>120</v>
@@ -5383,7 +5384,7 @@
       </c>
       <c r="E373" s="20"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
@@ -5398,7 +5399,7 @@
       </c>
       <c r="E374" s="20"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B375" s="19" t="s">
         <v>122</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B376" s="19" t="s">
         <v>122</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44839</v>
       </c>
@@ -5441,7 +5442,7 @@
       </c>
       <c r="E377" s="20"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="19" t="s">
         <v>123</v>
@@ -5456,7 +5457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="19" t="s">
         <v>123</v>
@@ -5471,7 +5472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
@@ -5486,7 +5487,7 @@
       </c>
       <c r="E380" s="20"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B381" s="19" t="s">
         <v>118</v>
       </c>
@@ -5498,7 +5499,7 @@
       </c>
       <c r="E381" s="20"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
@@ -5513,7 +5514,7 @@
       </c>
       <c r="E382" s="20"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="19"/>
       <c r="B383" s="19" t="s">
         <v>123</v>
@@ -5528,7 +5529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="19"/>
       <c r="B384" s="19" t="s">
         <v>123</v>
@@ -5543,68 +5544,109 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="19"/>
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
-      <c r="D385" s="19"/>
+    <row r="385" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C385" s="21"/>
       <c r="E385" s="20"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="9" t="s">
+    <row r="386" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C386" s="21"/>
+      <c r="E386" s="20"/>
+    </row>
+    <row r="387" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C387" s="21"/>
+      <c r="E387" s="20"/>
+    </row>
+    <row r="388" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D388" s="21"/>
+      <c r="E388" s="20"/>
+      <c r="F388" s="25"/>
+    </row>
+    <row r="389" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C389" s="21"/>
+      <c r="E389" s="20"/>
+    </row>
+    <row r="390" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C390" s="21"/>
+      <c r="E390" s="20"/>
+    </row>
+    <row r="391" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C391" s="21"/>
+      <c r="E391" s="20"/>
+    </row>
+    <row r="392" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C392" s="21"/>
+      <c r="E392" s="20"/>
+    </row>
+    <row r="393" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C393" s="21"/>
+      <c r="E393" s="20"/>
+    </row>
+    <row r="394" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C394" s="21"/>
+      <c r="E394" s="20"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="19"/>
+      <c r="B395" s="19"/>
+      <c r="C395" s="19"/>
+      <c r="D395" s="19"/>
+      <c r="E395" s="20"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B396" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C386" s="21"/>
-      <c r="D386" s="19"/>
-      <c r="E386" s="20"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B387" s="21">
+      <c r="C396" s="21"/>
+      <c r="D396" s="19"/>
+      <c r="E396" s="20"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" s="21">
         <f>C372+C375+C378+C383</f>
         <v>11</v>
       </c>
-      <c r="C387" s="21"/>
-      <c r="D387" s="19"/>
-      <c r="E387" s="20"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B388" s="21">
+      <c r="C397" s="21"/>
+      <c r="D397" s="19"/>
+      <c r="E397" s="20"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="21">
         <f>C373+C376+C379+C384+C381</f>
         <v>12.5</v>
       </c>
-      <c r="C388" s="21"/>
-      <c r="D388" s="19"/>
-      <c r="E388" s="20"/>
-    </row>
-    <row r="389" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B389" s="13">
+      <c r="C398" s="21"/>
+      <c r="D398" s="19"/>
+      <c r="E398" s="20"/>
+    </row>
+    <row r="399" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" s="13">
         <v>13</v>
       </c>
-      <c r="C389" s="21"/>
-      <c r="D389" s="19"/>
-      <c r="E389" s="20"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="4"/>
-      <c r="B390" s="14">
-        <f>SUM(B387:B389)</f>
+      <c r="C399" s="21"/>
+      <c r="D399" s="19"/>
+      <c r="E399" s="20"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="14">
+        <f>SUM(B397:B399)</f>
         <v>36.5</v>
       </c>
-      <c r="C390" s="14"/>
-      <c r="D390" s="14"/>
-      <c r="E390" s="6"/>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14"/>
+      <c r="E400" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656786D1-D02C-47D2-8EB6-04010519C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8E3BC-BAAE-44DE-99C2-7E67116E2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>Trying to make github build action work</t>
+  </si>
+  <si>
+    <t>Brainstorming new puzzle</t>
+  </si>
+  <si>
+    <t>Conceptualizing puzzle</t>
+  </si>
+  <si>
+    <t>Creating puzzle UML diagram</t>
   </si>
 </sst>
 </file>
@@ -1776,43 +1785,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K379" sqref="K379"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1866,7 +1875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -1880,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1892,12 +1901,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +1915,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1926,7 +1935,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <f>B13+B14+B15</f>
@@ -1945,43 +1954,43 @@
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2021,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2033,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2059,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2071,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2097,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2109,10 +2118,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2121,7 +2130,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2140,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2150,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2151,7 +2160,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2160,43 +2169,43 @@
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="16"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="16"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="16"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="16"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="16"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="16"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2236,7 +2245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2248,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2274,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2286,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2313,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2340,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2352,14 +2361,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2377,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2387,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2398,7 +2407,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="14">
         <f>B60+B61+B62</f>
@@ -2407,31 +2416,31 @@
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="16"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="16"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="16"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="16"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2563,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2575,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2587,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2599,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2611,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -2637,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -2649,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -2699,10 +2708,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -2711,7 +2720,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2730,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2731,7 +2740,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2741,7 +2750,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="14">
         <f>B99+B98+B97</f>
@@ -2750,31 +2759,31 @@
       <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="16"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="16"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="16"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="16"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -2814,7 +2823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -2826,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -2838,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -2850,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -2887,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -2941,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -2953,7 +2962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -3009,10 +3018,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -3021,7 +3030,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3040,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3050,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3059,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="14">
         <f>B130+B129+B128</f>
@@ -3059,31 +3068,31 @@
       <c r="C131" s="14"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3123,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3135,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3149,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3161,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3173,7 +3182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3213,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3225,7 +3234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3237,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3263,7 +3272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3275,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3301,7 +3310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3313,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3339,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3351,11 +3360,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3373,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3373,7 +3382,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3392,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3392,7 +3401,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="14">
         <f>SUM(B165:B167)</f>
@@ -3401,31 +3410,31 @@
       <c r="C168" s="14"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="16"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="16"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="16"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="16"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3465,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3527,7 +3536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3539,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3565,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3577,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3589,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3601,35 +3610,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3647,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3657,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3667,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3677,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="14">
         <f>SUM(B202:B204)</f>
@@ -3677,31 +3686,31 @@
       <c r="C205" s="14"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="16"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="16"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="16"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="16"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -3741,7 +3750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -3789,7 +3798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -3868,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -3893,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -3905,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -3916,7 +3925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -3942,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -3954,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -3966,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -3978,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -3990,7 +3999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -4002,7 +4011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -4014,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B240" s="19" t="s">
         <v>82</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B241" s="19" t="s">
         <v>83</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
@@ -4047,13 +4056,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -4062,7 +4071,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4072,7 +4081,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4091,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="14">
         <f>SUM(B246:B248)</f>
@@ -4101,41 +4110,41 @@
       <c r="C249" s="14"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="16"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="16"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="16"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="16"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4169,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="19" t="s">
         <v>87</v>
@@ -4184,7 +4193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="19" t="s">
         <v>87</v>
@@ -4199,7 +4208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B263" s="19" t="s">
         <v>91</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B264" s="19" t="s">
         <v>91</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="19" t="s">
         <v>91</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4258,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="19" t="s">
         <v>92</v>
@@ -4271,7 +4280,7 @@
       </c>
       <c r="E267" s="20"/>
     </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="19" t="s">
         <v>91</v>
@@ -4286,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4301,7 +4310,7 @@
       </c>
       <c r="E269" s="20"/>
     </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B271" s="19" t="s">
         <v>89</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B272" s="19" t="s">
         <v>89</v>
       </c>
@@ -4346,7 +4355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B273" s="19" t="s">
         <v>89</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="19" t="s">
         <v>86</v>
@@ -4392,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="19" t="s">
         <v>86</v>
@@ -4407,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="19" t="s">
         <v>86</v>
@@ -4422,7 +4431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B279" s="19" t="s">
         <v>90</v>
       </c>
@@ -4453,12 +4462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="C280" s="21"/>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4468,7 +4477,7 @@
       <c r="C281" s="21"/>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4488,7 @@
       <c r="C282" s="21"/>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="19" t="s">
         <v>7</v>
       </c>
@@ -4490,7 +4499,7 @@
       <c r="C283" s="21"/>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="19" t="s">
         <v>3</v>
       </c>
@@ -4501,7 +4510,7 @@
       <c r="C284" s="21"/>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="14">
         <f>SUM(B282:B284)</f>
@@ -4511,36 +4520,36 @@
       <c r="D285" s="14"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="16"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="16"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="16"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="16"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -4572,7 +4581,7 @@
       </c>
       <c r="E295" s="20"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -4587,7 +4596,7 @@
       </c>
       <c r="E296" s="20"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -4602,7 +4611,7 @@
       </c>
       <c r="E297" s="20"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="19" t="s">
         <v>97</v>
@@ -4615,7 +4624,7 @@
       </c>
       <c r="E298" s="20"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="19" t="s">
         <v>97</v>
@@ -4628,7 +4637,7 @@
       </c>
       <c r="E299" s="20"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -4643,7 +4652,7 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="19" t="s">
         <v>105</v>
@@ -4658,7 +4667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="19" t="s">
         <v>105</v>
@@ -4673,7 +4682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="19" t="s">
         <v>99</v>
@@ -4686,7 +4695,7 @@
       </c>
       <c r="E303" s="20"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -4701,7 +4710,7 @@
       </c>
       <c r="E304" s="20"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -4716,7 +4725,7 @@
       </c>
       <c r="E305" s="20"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -4729,7 +4738,7 @@
       </c>
       <c r="E306" s="20"/>
     </row>
-    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="19" t="s">
         <v>102</v>
@@ -4744,7 +4753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="19" t="s">
         <v>102</v>
@@ -4759,7 +4768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="19" t="s">
         <v>102</v>
@@ -4774,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="19" t="s">
         <v>104</v>
@@ -4789,7 +4798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="19" t="s">
         <v>104</v>
@@ -4804,7 +4813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -4821,7 +4830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="19" t="s">
         <v>94</v>
@@ -4836,7 +4845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="19" t="s">
         <v>104</v>
@@ -4851,7 +4860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="19" t="s">
         <v>104</v>
@@ -4866,7 +4875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -4883,42 +4892,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="19"/>
       <c r="C317" s="21"/>
       <c r="D317" s="22"/>
       <c r="E317" s="20"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="19"/>
       <c r="C318" s="21"/>
       <c r="D318" s="22"/>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="19"/>
       <c r="C319" s="21"/>
       <c r="D319" s="22"/>
       <c r="E319" s="20"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="19"/>
       <c r="C320" s="21"/>
       <c r="D320" s="22"/>
       <c r="E320" s="15"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="19"/>
       <c r="C321" s="21"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -4929,7 +4938,7 @@
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="19" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4950,7 @@
       <c r="D323" s="19"/>
       <c r="E323" s="20"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="19" t="s">
         <v>7</v>
       </c>
@@ -4953,7 +4962,7 @@
       <c r="D324" s="19"/>
       <c r="E324" s="20"/>
     </row>
-    <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="19" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4974,7 @@
       <c r="D325" s="19"/>
       <c r="E325" s="20"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="14">
         <f>SUM(B323:B325)</f>
@@ -4975,42 +4984,42 @@
       <c r="D326" s="14"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
     </row>
-    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="16"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="16"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="16"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="16"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44711</v>
       </c>
@@ -5042,7 +5051,7 @@
       </c>
       <c r="E336" s="20"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>111</v>
       </c>
@@ -5054,7 +5063,7 @@
       </c>
       <c r="E337" s="20"/>
     </row>
-    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
@@ -5088,7 +5097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="19" t="s">
         <v>107</v>
@@ -5103,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="19" t="s">
         <v>116</v>
@@ -5133,7 +5142,7 @@
       </c>
       <c r="E342" s="20"/>
     </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="19" t="s">
         <v>109</v>
@@ -5165,7 +5174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="19" t="s">
         <v>113</v>
@@ -5178,7 +5187,7 @@
       </c>
       <c r="E345" s="20"/>
     </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="19" t="s">
         <v>114</v>
@@ -5193,7 +5202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B347" s="19" t="s">
         <v>108</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B348" s="19" t="s">
         <v>115</v>
       </c>
@@ -5221,10 +5230,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E349" s="20"/>
     </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
@@ -5234,7 +5243,7 @@
       <c r="C350" s="21"/>
       <c r="E350" s="20"/>
     </row>
-    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="19" t="s">
         <v>5</v>
       </c>
@@ -5245,7 +5254,7 @@
       <c r="C351" s="21"/>
       <c r="E351" s="20"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="19" t="s">
         <v>7</v>
       </c>
@@ -5257,7 +5266,7 @@
       <c r="D352" s="19"/>
       <c r="E352" s="20"/>
     </row>
-    <row r="353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="19" t="s">
         <v>3</v>
       </c>
@@ -5268,7 +5277,7 @@
       <c r="D353" s="19"/>
       <c r="E353" s="20"/>
     </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="14">
         <f>SUM(B351:B353)</f>
@@ -5278,8 +5287,8 @@
       <c r="D354" s="14"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="23" t="s">
         <v>117</v>
       </c>
@@ -5288,45 +5297,45 @@
         <v>395.55</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="21"/>
       <c r="D365" s="19"/>
       <c r="E365" s="19"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="16"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="16"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="16"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="16"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44832</v>
       </c>
@@ -5358,7 +5367,7 @@
       </c>
       <c r="E371" s="20"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="19"/>
       <c r="B372" s="19" t="s">
         <v>120</v>
@@ -5371,7 +5380,7 @@
       </c>
       <c r="E372" s="20"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="19" t="s">
         <v>120</v>
@@ -5384,7 +5393,7 @@
       </c>
       <c r="E373" s="20"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
@@ -5399,7 +5408,7 @@
       </c>
       <c r="E374" s="20"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B375" s="19" t="s">
         <v>122</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B376" s="19" t="s">
         <v>122</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44839</v>
       </c>
@@ -5442,7 +5451,7 @@
       </c>
       <c r="E377" s="20"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="19" t="s">
         <v>123</v>
@@ -5457,7 +5466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="19" t="s">
         <v>123</v>
@@ -5472,7 +5481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
@@ -5487,19 +5496,19 @@
       </c>
       <c r="E380" s="20"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B381" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C381" s="21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D381" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E381" s="20"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
@@ -5514,7 +5523,7 @@
       </c>
       <c r="E382" s="20"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="19"/>
       <c r="B383" s="19" t="s">
         <v>123</v>
@@ -5529,7 +5538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="19"/>
       <c r="B384" s="19" t="s">
         <v>123</v>
@@ -5544,55 +5553,136 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C385" s="21"/>
+    <row r="385" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B385" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C385" s="21">
+        <v>3</v>
+      </c>
+      <c r="D385" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E385" s="20"/>
     </row>
-    <row r="386" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C386" s="21"/>
+    <row r="386" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C386" s="21">
+        <v>3</v>
+      </c>
+      <c r="D386" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E386" s="20"/>
     </row>
-    <row r="387" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C387" s="21"/>
+    <row r="387" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C387" s="21">
+        <v>3</v>
+      </c>
+      <c r="D387" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E387" s="20"/>
     </row>
-    <row r="388" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D388" s="21"/>
+    <row r="388" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B388" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C388" s="21">
+        <v>2</v>
+      </c>
+      <c r="D388" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E388" s="20"/>
       <c r="F388" s="25"/>
     </row>
-    <row r="389" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C389" s="21"/>
+    <row r="389" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C389" s="21">
+        <v>2</v>
+      </c>
+      <c r="D389" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E389" s="20"/>
     </row>
-    <row r="390" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C390" s="21"/>
+    <row r="390" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C390" s="21">
+        <v>2</v>
+      </c>
+      <c r="D390" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E390" s="20"/>
     </row>
-    <row r="391" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="21"/>
+    <row r="391" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C391" s="21">
+        <v>2</v>
+      </c>
+      <c r="D391" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E391" s="20"/>
     </row>
-    <row r="392" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C392" s="21"/>
+    <row r="392" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C392" s="21">
+        <v>2</v>
+      </c>
+      <c r="D392" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E392" s="20"/>
     </row>
-    <row r="393" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C393" s="21"/>
+    <row r="393" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C393" s="21">
+        <v>2</v>
+      </c>
+      <c r="D393" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="E393" s="20"/>
     </row>
-    <row r="394" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C394" s="21"/>
       <c r="E394" s="20"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="19"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
       <c r="D395" s="19"/>
       <c r="E395" s="20"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
@@ -5603,46 +5693,47 @@
       <c r="D396" s="19"/>
       <c r="E396" s="20"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B397" s="21">
-        <f>C372+C375+C378+C383</f>
-        <v>11</v>
+        <f>C372+C375+C378+C383+C386+C389+C392</f>
+        <v>18</v>
       </c>
       <c r="C397" s="21"/>
       <c r="D397" s="19"/>
       <c r="E397" s="20"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B398" s="21">
-        <f>C373+C376+C379+C384+C381</f>
-        <v>12.5</v>
+        <f>C373+C376+C379+C384+C381+C387+C390+C393</f>
+        <v>21</v>
       </c>
       <c r="C398" s="21"/>
       <c r="D398" s="19"/>
       <c r="E398" s="20"/>
     </row>
-    <row r="399" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B399" s="13">
-        <v>13</v>
+        <f>C371+C374+C377+C380+C382+C385+C388+C391</f>
+        <v>20</v>
       </c>
       <c r="C399" s="21"/>
       <c r="D399" s="19"/>
       <c r="E399" s="20"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
       <c r="B400" s="14">
         <f>SUM(B397:B399)</f>
-        <v>36.5</v>
+        <v>59</v>
       </c>
       <c r="C400" s="14"/>
       <c r="D400" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8E3BC-BAAE-44DE-99C2-7E67116E2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4918535-C4E4-48EA-8619-1F6E01EEE2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +570,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1785,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D395" sqref="D395"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G387" sqref="G387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5731,7 +5738,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
-      <c r="B400" s="14">
+      <c r="B400" s="26">
         <f>SUM(B397:B399)</f>
         <v>59</v>
       </c>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4918535-C4E4-48EA-8619-1F6E01EEE2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C94A3-A3CC-4158-B7D7-A7B3CD6C6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -416,6 +416,27 @@
   </si>
   <si>
     <t>Creating puzzle UML diagram</t>
+  </si>
+  <si>
+    <t>Researching networking with Unity</t>
+  </si>
+  <si>
+    <t>Player Animation</t>
+  </si>
+  <si>
+    <t>model objects and add texture</t>
+  </si>
+  <si>
+    <t>Make MLAPI work over different computers</t>
+  </si>
+  <si>
+    <t>Create and show Labyrinth map in game</t>
+  </si>
+  <si>
+    <t>General work on Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add menu and ability to set ip address and port </t>
   </si>
 </sst>
 </file>
@@ -1490,6 +1511,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE87E0F9-4336-4045-AB52-83226989AA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="66332100"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1790,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G387" sqref="G387"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,6 +5827,384 @@
       <c r="D400" s="14"/>
       <c r="E400" s="6"/>
     </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D410" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C411" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D411" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="19"/>
+      <c r="B412" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C412" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D412" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1"/>
+      <c r="B413" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C413" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D413" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" s="20"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B414" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C414" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D414" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E414" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="19"/>
+      <c r="B415" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C415" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D415" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="19"/>
+      <c r="B416" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C416" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D416" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E416" s="20"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B417" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C417" s="21">
+        <v>4</v>
+      </c>
+      <c r="D417" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E417" s="20"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+      <c r="B418" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C418" s="21">
+        <v>3</v>
+      </c>
+      <c r="D418" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="1"/>
+      <c r="B419" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C419" s="21">
+        <v>3</v>
+      </c>
+      <c r="D419" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>132</v>
+      </c>
+      <c r="C420" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D420" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" s="20"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C421" s="21">
+        <v>3</v>
+      </c>
+      <c r="D421" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" s="20"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="19"/>
+      <c r="B422" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C422" s="21">
+        <v>3</v>
+      </c>
+      <c r="D422" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1"/>
+      <c r="B423" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C423" s="21">
+        <v>3</v>
+      </c>
+      <c r="D423" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E423" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="19"/>
+      <c r="B424" s="19"/>
+      <c r="C424" s="21"/>
+      <c r="D424" s="19"/>
+      <c r="E424" s="20"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="21"/>
+      <c r="D425" s="22"/>
+      <c r="E425" s="20"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="19"/>
+      <c r="B426" s="19"/>
+      <c r="C426" s="21"/>
+      <c r="D426" s="22"/>
+      <c r="E426" s="20"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="19"/>
+      <c r="B427" s="19"/>
+      <c r="C427" s="21"/>
+      <c r="D427" s="22"/>
+      <c r="E427" s="20"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+      <c r="B428" s="19"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="22"/>
+      <c r="E428" s="20"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="19"/>
+      <c r="B429" s="19"/>
+      <c r="C429" s="21"/>
+      <c r="D429" s="22"/>
+      <c r="E429" s="20"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="19"/>
+      <c r="B430" s="19"/>
+      <c r="C430" s="21"/>
+      <c r="D430" s="22"/>
+      <c r="E430" s="20"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+      <c r="B431" s="19"/>
+      <c r="C431" s="21"/>
+      <c r="D431" s="22"/>
+      <c r="E431" s="20"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="19"/>
+      <c r="B432" s="19"/>
+      <c r="C432" s="21"/>
+      <c r="D432" s="22"/>
+      <c r="E432" s="20"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="19"/>
+      <c r="B433" s="19"/>
+      <c r="C433" s="21"/>
+      <c r="D433" s="22"/>
+      <c r="E433" s="20"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="19"/>
+      <c r="B434" s="19"/>
+      <c r="C434" s="21"/>
+      <c r="D434" s="19"/>
+      <c r="E434" s="20"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="19"/>
+      <c r="B435" s="19"/>
+      <c r="C435" s="19"/>
+      <c r="D435" s="19"/>
+      <c r="E435" s="20"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B436" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C436" s="21"/>
+      <c r="D436" s="19"/>
+      <c r="E436" s="20"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" s="21">
+        <f>C411+C414+C418+C423</f>
+        <v>10</v>
+      </c>
+      <c r="C437" s="21"/>
+      <c r="D437" s="19"/>
+      <c r="E437" s="20"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" s="21">
+        <f>C412+C415+C419+C422+C420</f>
+        <v>11.5</v>
+      </c>
+      <c r="C438" s="21"/>
+      <c r="D438" s="19"/>
+      <c r="E438" s="20"/>
+    </row>
+    <row r="439" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B439" s="13">
+        <f>C413+C416+C417+C421</f>
+        <v>11</v>
+      </c>
+      <c r="C439" s="21"/>
+      <c r="D439" s="19"/>
+      <c r="E439" s="20"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="4"/>
+      <c r="B440" s="26">
+        <f>SUM(B437:B439)</f>
+        <v>32.5</v>
+      </c>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C94A3-A3CC-4158-B7D7-A7B3CD6C6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3C141-A1E2-4418-A995-F77F448835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,7 +1874,7 @@
   <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5915,7 +5915,9 @@
       <c r="D413" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E413" s="20"/>
+      <c r="E413" s="20">
+        <v>21</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
@@ -5960,7 +5962,9 @@
       <c r="D416" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E416" s="20"/>
+      <c r="E416" s="20">
+        <v>21</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
@@ -5975,7 +5979,9 @@
       <c r="D417" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E417" s="20"/>
+      <c r="E417" s="20">
+        <v>21</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
@@ -6032,7 +6038,9 @@
       <c r="D421" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E421" s="20"/>
+      <c r="E421" s="20">
+        <v>22</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="19"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3C141-A1E2-4418-A995-F77F448835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A1C54-F41B-431F-92E5-39404ED41A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">Add menu and ability to set ip address and port </t>
+  </si>
+  <si>
+    <t>Watching blender tutorials</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1877,7 @@
   <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E420" sqref="E420"/>
+      <selection activeCell="E431" sqref="E431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5954,7 +5957,7 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
       <c r="B416" s="19" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C416" s="21">
         <v>2.5</v>
@@ -5974,7 +5977,7 @@
         <v>128</v>
       </c>
       <c r="C417" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D417" s="22" t="s">
         <v>3</v>
@@ -6033,7 +6036,7 @@
         <v>129</v>
       </c>
       <c r="C421" s="21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D421" s="22" t="s">
         <v>3</v>
@@ -6197,7 +6200,7 @@
       </c>
       <c r="B439" s="13">
         <f>C413+C416+C417+C421</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="C439" s="21"/>
       <c r="D439" s="19"/>
@@ -6207,7 +6210,7 @@
       <c r="A440" s="4"/>
       <c r="B440" s="26">
         <f>SUM(B437:B439)</f>
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C440" s="14"/>
       <c r="D440" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A1C54-F41B-431F-92E5-39404ED41A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194246EC-88B6-4D6A-82BD-55684B0D0D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,25 +421,25 @@
     <t>Researching networking with Unity</t>
   </si>
   <si>
-    <t>Player Animation</t>
-  </si>
-  <si>
-    <t>model objects and add texture</t>
-  </si>
-  <si>
-    <t>Make MLAPI work over different computers</t>
-  </si>
-  <si>
-    <t>Create and show Labyrinth map in game</t>
-  </si>
-  <si>
-    <t>General work on Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add menu and ability to set ip address and port </t>
-  </si>
-  <si>
     <t>Watching blender tutorials</t>
+  </si>
+  <si>
+    <t>Generally working on Game</t>
+  </si>
+  <si>
+    <t>Making MLAPI work over different computers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding lobby menu and ability to set ip address and port </t>
+  </si>
+  <si>
+    <t>Modelling objects and add texture</t>
+  </si>
+  <si>
+    <t>Adding player animation</t>
+  </si>
+  <si>
+    <t>Creating and showing labyrinth map in game</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E431" sqref="E431"/>
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5957,7 +5957,7 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
       <c r="B416" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C416" s="21">
         <v>2.5</v>
@@ -5974,7 +5974,7 @@
         <v>44878</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C417" s="21">
         <v>3</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C420" s="12">
         <v>1.5</v>
@@ -6033,7 +6033,7 @@
         <v>44879</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C421" s="21">
         <v>3.5</v>
@@ -6048,7 +6048,7 @@
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="19"/>
       <c r="B422" s="19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C422" s="21">
         <v>3</v>
@@ -6063,7 +6063,7 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C423" s="21">
         <v>3</v>
@@ -6076,7 +6076,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="19"/>
+      <c r="A424" s="1"/>
       <c r="B424" s="19"/>
       <c r="C424" s="21"/>
       <c r="D424" s="19"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194246EC-88B6-4D6A-82BD-55684B0D0D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565A7C5-73E2-4573-92AA-FA1C85A45E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F440"/>
+  <dimension ref="A1:F430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6083,138 +6083,68 @@
       <c r="E424" s="20"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="1"/>
+      <c r="A425" s="19"/>
       <c r="B425" s="19"/>
-      <c r="C425" s="21"/>
-      <c r="D425" s="22"/>
+      <c r="C425" s="19"/>
+      <c r="D425" s="19"/>
       <c r="E425" s="20"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="19"/>
-      <c r="B426" s="19"/>
+      <c r="A426" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C426" s="21"/>
-      <c r="D426" s="22"/>
+      <c r="D426" s="19"/>
       <c r="E426" s="20"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="19"/>
-      <c r="B427" s="19"/>
-      <c r="C427" s="21"/>
-      <c r="D427" s="22"/>
-      <c r="E427" s="20"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
-      <c r="B428" s="19"/>
-      <c r="C428" s="21"/>
-      <c r="D428" s="22"/>
-      <c r="E428" s="20"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="19"/>
-      <c r="B429" s="19"/>
-      <c r="C429" s="21"/>
-      <c r="D429" s="22"/>
-      <c r="E429" s="20"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="19"/>
-      <c r="B430" s="19"/>
-      <c r="C430" s="21"/>
-      <c r="D430" s="22"/>
-      <c r="E430" s="20"/>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="1"/>
-      <c r="B431" s="19"/>
-      <c r="C431" s="21"/>
-      <c r="D431" s="22"/>
-      <c r="E431" s="20"/>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="19"/>
-      <c r="B432" s="19"/>
-      <c r="C432" s="21"/>
-      <c r="D432" s="22"/>
-      <c r="E432" s="20"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A433" s="19"/>
-      <c r="B433" s="19"/>
-      <c r="C433" s="21"/>
-      <c r="D433" s="22"/>
-      <c r="E433" s="20"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" s="19"/>
-      <c r="B434" s="19"/>
-      <c r="C434" s="21"/>
-      <c r="D434" s="19"/>
-      <c r="E434" s="20"/>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="19"/>
-      <c r="B435" s="19"/>
-      <c r="C435" s="19"/>
-      <c r="D435" s="19"/>
-      <c r="E435" s="20"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B436" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C436" s="21"/>
-      <c r="D436" s="19"/>
-      <c r="E436" s="20"/>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A437" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B437" s="21">
+      <c r="A427" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" s="21">
         <f>C411+C414+C418+C423</f>
         <v>10</v>
       </c>
-      <c r="C437" s="21"/>
-      <c r="D437" s="19"/>
-      <c r="E437" s="20"/>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A438" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B438" s="21">
+      <c r="C427" s="21"/>
+      <c r="D427" s="19"/>
+      <c r="E427" s="20"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" s="21">
         <f>C412+C415+C419+C422+C420</f>
         <v>11.5</v>
       </c>
-      <c r="C438" s="21"/>
-      <c r="D438" s="19"/>
-      <c r="E438" s="20"/>
-    </row>
-    <row r="439" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B439" s="13">
+      <c r="C428" s="21"/>
+      <c r="D428" s="19"/>
+      <c r="E428" s="20"/>
+    </row>
+    <row r="429" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429" s="13">
         <f>C413+C416+C417+C421</f>
         <v>10.5</v>
       </c>
-      <c r="C439" s="21"/>
-      <c r="D439" s="19"/>
-      <c r="E439" s="20"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A440" s="4"/>
-      <c r="B440" s="26">
-        <f>SUM(B437:B439)</f>
+      <c r="C429" s="21"/>
+      <c r="D429" s="19"/>
+      <c r="E429" s="20"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="4"/>
+      <c r="B430" s="26">
+        <f>SUM(B427:B429)</f>
         <v>32</v>
       </c>
-      <c r="C440" s="14"/>
-      <c r="D440" s="14"/>
-      <c r="E440" s="6"/>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565A7C5-73E2-4573-92AA-FA1C85A45E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF5E1B-371B-481A-B368-34DE46015ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>Creating and showing labyrinth map in game</t>
+  </si>
+  <si>
+    <t>Working on spawning 2 players at different points</t>
+  </si>
+  <si>
+    <t>Working on camera bug</t>
+  </si>
+  <si>
+    <t>Replacing default character with custom one</t>
+  </si>
+  <si>
+    <t>Fixing different wall heights</t>
   </si>
 </sst>
 </file>
@@ -1874,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F430"/>
+  <dimension ref="A1:F438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E437" sqref="E437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6076,75 +6088,156 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
-      <c r="B424" s="19"/>
-      <c r="C424" s="21"/>
-      <c r="D424" s="19"/>
-      <c r="E424" s="20"/>
+      <c r="A424" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B424" t="s">
+        <v>137</v>
+      </c>
+      <c r="C424" s="21">
+        <v>3</v>
+      </c>
+      <c r="D424" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="20">
+        <v>26</v>
+      </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="19"/>
-      <c r="B425" s="19"/>
-      <c r="C425" s="19"/>
-      <c r="D425" s="19"/>
-      <c r="E425" s="20"/>
+      <c r="B425" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C425" s="21">
+        <v>3</v>
+      </c>
+      <c r="D425" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="20">
+        <v>26</v>
+      </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="9" t="s">
+      <c r="E426" s="20"/>
+    </row>
+    <row r="427" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B427" t="s">
+        <v>135</v>
+      </c>
+      <c r="C427" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D427" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E428" s="20"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B429" t="s">
+        <v>136</v>
+      </c>
+      <c r="C429" s="12">
+        <v>3</v>
+      </c>
+      <c r="D429" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E429" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>138</v>
+      </c>
+      <c r="C430" s="12">
+        <v>2</v>
+      </c>
+      <c r="D430" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E430" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E431" s="20"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E432" s="20"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E433" s="20"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B434" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C426" s="21"/>
-      <c r="D426" s="19"/>
-      <c r="E426" s="20"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B427" s="21">
-        <f>C411+C414+C418+C423</f>
-        <v>10</v>
-      </c>
-      <c r="C427" s="21"/>
-      <c r="D427" s="19"/>
-      <c r="E427" s="20"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B428" s="21">
-        <f>C412+C415+C419+C422+C420</f>
-        <v>11.5</v>
-      </c>
-      <c r="C428" s="21"/>
-      <c r="D428" s="19"/>
-      <c r="E428" s="20"/>
-    </row>
-    <row r="429" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A429" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B429" s="13">
+      <c r="C434" s="21"/>
+      <c r="D434" s="19"/>
+      <c r="E434" s="20"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" s="21">
+        <f>C411+C414+C418+C423+C425+C430</f>
+        <v>15</v>
+      </c>
+      <c r="C435" s="21"/>
+      <c r="D435" s="19"/>
+      <c r="E435" s="20"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436" s="21">
+        <f>C412+C415+C419+C422+C420+C424+C429+C427</f>
+        <v>19</v>
+      </c>
+      <c r="C436" s="21"/>
+      <c r="D436" s="19"/>
+      <c r="E436" s="20"/>
+    </row>
+    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="13">
         <f>C413+C416+C417+C421</f>
         <v>10.5</v>
       </c>
-      <c r="C429" s="21"/>
-      <c r="D429" s="19"/>
-      <c r="E429" s="20"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="4"/>
-      <c r="B430" s="26">
-        <f>SUM(B427:B429)</f>
-        <v>32</v>
-      </c>
-      <c r="C430" s="14"/>
-      <c r="D430" s="14"/>
-      <c r="E430" s="6"/>
+      <c r="C437" s="21"/>
+      <c r="D437" s="19"/>
+      <c r="E437" s="20"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="4"/>
+      <c r="B438" s="26">
+        <f>SUM(B435:B437)</f>
+        <v>44.5</v>
+      </c>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF5E1B-371B-481A-B368-34DE46015ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86A4BE-73BE-4F6F-8A6B-CCCFA46E6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Watching blender tutorials</t>
   </si>
   <si>
-    <t>Generally working on Game</t>
-  </si>
-  <si>
     <t>Making MLAPI work over different computers</t>
   </si>
   <si>
@@ -452,6 +449,21 @@
   </si>
   <si>
     <t>Fixing different wall heights</t>
+  </si>
+  <si>
+    <t>Adding and editing textures</t>
+  </si>
+  <si>
+    <t>Resolving Github merge issues</t>
+  </si>
+  <si>
+    <t>Generally working on game</t>
+  </si>
+  <si>
+    <t>Fixing movement bug</t>
+  </si>
+  <si>
+    <t>Adding hit boxes to walls</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E437" sqref="E437"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E432" sqref="E432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5986,7 +5998,7 @@
         <v>44878</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C417" s="21">
         <v>3</v>
@@ -6001,7 +6013,7 @@
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C418" s="21">
         <v>3</v>
@@ -6016,7 +6028,7 @@
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C419" s="21">
         <v>3</v>
@@ -6030,7 +6042,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C420" s="12">
         <v>1.5</v>
@@ -6045,7 +6057,7 @@
         <v>44879</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C421" s="21">
         <v>3.5</v>
@@ -6060,7 +6072,7 @@
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="19"/>
       <c r="B422" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C422" s="21">
         <v>3</v>
@@ -6075,7 +6087,7 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C423" s="21">
         <v>3</v>
@@ -6092,7 +6104,7 @@
         <v>44880</v>
       </c>
       <c r="B424" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C424" s="21">
         <v>3</v>
@@ -6107,7 +6119,7 @@
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="19"/>
       <c r="B425" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C425" s="21">
         <v>3</v>
@@ -6120,14 +6132,25 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E426" s="20"/>
+      <c r="B426" t="s">
+        <v>138</v>
+      </c>
+      <c r="C426" s="12">
+        <v>3</v>
+      </c>
+      <c r="D426" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E426" s="20">
+        <v>24</v>
+      </c>
     </row>
     <row r="427" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44885</v>
       </c>
       <c r="B427" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C427" s="12">
         <v>1.5</v>
@@ -6140,43 +6163,74 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E428" s="20"/>
+      <c r="B428" t="s">
+        <v>142</v>
+      </c>
+      <c r="C428" s="12">
+        <v>2</v>
+      </c>
+      <c r="D428" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" s="20">
+        <v>23</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="1">
+      <c r="B429" t="s">
+        <v>141</v>
+      </c>
+      <c r="C429" s="12">
+        <v>2</v>
+      </c>
+      <c r="D429" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E429" s="20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
         <v>44886</v>
       </c>
-      <c r="B429" t="s">
-        <v>136</v>
-      </c>
-      <c r="C429" s="12">
-        <v>3</v>
-      </c>
-      <c r="D429" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E429" s="20">
+      <c r="B430" t="s">
+        <v>135</v>
+      </c>
+      <c r="C430" s="12">
+        <v>3</v>
+      </c>
+      <c r="D430" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B430" t="s">
-        <v>138</v>
-      </c>
-      <c r="C430" s="12">
-        <v>2</v>
-      </c>
-      <c r="D430" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E430" s="20">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
+        <v>137</v>
+      </c>
+      <c r="C431" s="12">
+        <v>2</v>
+      </c>
+      <c r="D431" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E431" s="20">
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E431" s="20"/>
-    </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>139</v>
+      </c>
+      <c r="C432" s="12">
+        <v>2</v>
+      </c>
+      <c r="D432" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E432" s="20"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -6198,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B435" s="21">
-        <f>C411+C414+C418+C423+C425+C430</f>
+        <f>C411+C414+C418+C423+C425+C431</f>
         <v>15</v>
       </c>
       <c r="C435" s="21"/>
@@ -6210,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="B436" s="21">
-        <f>C412+C415+C419+C422+C420+C424+C429+C427</f>
+        <f>C412+C415+C419+C422+C420+C424+C430+C427</f>
         <v>19</v>
       </c>
       <c r="C436" s="21"/>
@@ -6222,8 +6276,8 @@
         <v>3</v>
       </c>
       <c r="B437" s="13">
-        <f>C413+C416+C417+C421</f>
-        <v>10.5</v>
+        <f>C413+C416+C417+C421+C426+C428+C432</f>
+        <v>17.5</v>
       </c>
       <c r="C437" s="21"/>
       <c r="D437" s="19"/>
@@ -6233,7 +6287,7 @@
       <c r="A438" s="4"/>
       <c r="B438" s="26">
         <f>SUM(B435:B437)</f>
-        <v>44.5</v>
+        <v>51.5</v>
       </c>
       <c r="C438" s="14"/>
       <c r="D438" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86A4BE-73BE-4F6F-8A6B-CCCFA46E6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F82E45-3940-4519-9CF5-94B02013F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:F438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E432" sqref="E432"/>
+      <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6252,8 +6252,8 @@
         <v>5</v>
       </c>
       <c r="B435" s="21">
-        <f>C411+C414+C418+C423+C425+C431</f>
-        <v>15</v>
+        <f>C411+C414+C418+C423+C425+C431+C429</f>
+        <v>17</v>
       </c>
       <c r="C435" s="21"/>
       <c r="D435" s="19"/>
@@ -6287,7 +6287,7 @@
       <c r="A438" s="4"/>
       <c r="B438" s="26">
         <f>SUM(B435:B437)</f>
-        <v>51.5</v>
+        <v>53.5</v>
       </c>
       <c r="C438" s="14"/>
       <c r="D438" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F82E45-3940-4519-9CF5-94B02013F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB523B-5810-4CF5-8D62-4660E023003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -464,6 +464,39 @@
   </si>
   <si>
     <t>Adding hit boxes to walls</t>
+  </si>
+  <si>
+    <t>Changing the character model (again)</t>
+  </si>
+  <si>
+    <t>Filming scenes for the teaser-video</t>
+  </si>
+  <si>
+    <t>Refining the concept for the second puzzle</t>
+  </si>
+  <si>
+    <t>Researching subpuzzles for the second puzzle</t>
+  </si>
+  <si>
+    <t>Editing teaser-video</t>
+  </si>
+  <si>
+    <t>Creating a test Jump and Run room</t>
+  </si>
+  <si>
+    <t>Finally fixing camera bug with new model</t>
+  </si>
+  <si>
+    <t>Fixing infinite cube spawn bug</t>
+  </si>
+  <si>
+    <t>Finalize collecting subpuzzles</t>
+  </si>
+  <si>
+    <t>Importing / trying to implement animations</t>
+  </si>
+  <si>
+    <t>Planning filming of teaser-video</t>
   </si>
 </sst>
 </file>
@@ -1598,6 +1631,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55CFBD8-6A68-440D-A87F-7E2EF2F0BD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73580625"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1898,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F438"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G465" sqref="G465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6293,6 +6386,425 @@
       <c r="D438" s="14"/>
       <c r="E438" s="6"/>
     </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="19"/>
+      <c r="B443" s="19"/>
+      <c r="C443" s="21"/>
+      <c r="D443" s="19"/>
+      <c r="E443" s="19"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="3"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="16"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="3"/>
+      <c r="B445" s="3"/>
+      <c r="C445" s="16"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="3"/>
+      <c r="B446" s="3"/>
+      <c r="C446" s="16"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="3"/>
+      <c r="B447" s="3"/>
+      <c r="C447" s="16"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C448" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D448" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C449" s="21">
+        <v>2</v>
+      </c>
+      <c r="D449" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E449" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="19"/>
+      <c r="B450" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C450" s="21">
+        <v>2</v>
+      </c>
+      <c r="D450" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1"/>
+      <c r="B451" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C451" s="21">
+        <v>2</v>
+      </c>
+      <c r="D451" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E451" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>152</v>
+      </c>
+      <c r="C452" s="12">
+        <v>2</v>
+      </c>
+      <c r="D452" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C453" s="12">
+        <v>2</v>
+      </c>
+      <c r="D453" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" s="20"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
+        <v>153</v>
+      </c>
+      <c r="C454" s="21">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>5</v>
+      </c>
+      <c r="E454" s="20"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B455" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C455" s="21">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+      <c r="E455" s="20"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C456" s="21">
+        <v>3</v>
+      </c>
+      <c r="D456" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E456" s="20"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="19"/>
+      <c r="B457" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C457" s="21">
+        <v>3</v>
+      </c>
+      <c r="D457" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E457" s="20"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="19"/>
+      <c r="B458" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C458" s="21">
+        <v>3</v>
+      </c>
+      <c r="D458" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E458" s="20"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B459" t="s">
+        <v>149</v>
+      </c>
+      <c r="C459" s="12">
+        <v>2</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>150</v>
+      </c>
+      <c r="C460" s="12">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>5</v>
+      </c>
+      <c r="E460" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C461" s="21">
+        <v>1</v>
+      </c>
+      <c r="D461" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="1"/>
+      <c r="B462" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C462" s="21">
+        <v>1</v>
+      </c>
+      <c r="D462" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E462" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1"/>
+      <c r="B463" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C463" s="21">
+        <v>2</v>
+      </c>
+      <c r="D463" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E463" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="19"/>
+      <c r="B464" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C464" s="21">
+        <v>2</v>
+      </c>
+      <c r="D464" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E464" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="1"/>
+      <c r="B465" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C465" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D465" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E465" s="20"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C466" s="21">
+        <v>3</v>
+      </c>
+      <c r="D466" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E466" s="20"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="1"/>
+      <c r="B467" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C467" s="21">
+        <v>4</v>
+      </c>
+      <c r="D467" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="19"/>
+      <c r="B468" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C468" s="21">
+        <v>2</v>
+      </c>
+      <c r="D468" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E468" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="19"/>
+      <c r="B469" s="19"/>
+      <c r="C469" s="21"/>
+      <c r="D469" s="22"/>
+      <c r="E469" s="20"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="19"/>
+      <c r="B470" s="19"/>
+      <c r="C470" s="21"/>
+      <c r="D470" s="22"/>
+      <c r="E470" s="20"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="19"/>
+      <c r="B471" s="19"/>
+      <c r="C471" s="21"/>
+      <c r="D471" s="19"/>
+      <c r="E471" s="20"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B472" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C472" s="21"/>
+      <c r="D472" s="19"/>
+      <c r="E472" s="20"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="21">
+        <f>C449+C456+C462+C464+C460+C468+C454</f>
+        <v>15</v>
+      </c>
+      <c r="C473" s="21"/>
+      <c r="D473" s="19"/>
+      <c r="E473" s="20"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" s="21">
+        <f>C450+C457+C463+C467+C459+C461+C455</f>
+        <v>16</v>
+      </c>
+      <c r="C474" s="21"/>
+      <c r="D474" s="19"/>
+      <c r="E474" s="20"/>
+    </row>
+    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B475" s="13">
+        <f>C451+C458+C465+C466+C452+C453</f>
+        <v>15.5</v>
+      </c>
+      <c r="C475" s="21"/>
+      <c r="D475" s="19"/>
+      <c r="E475" s="20"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="4"/>
+      <c r="B476" s="26">
+        <f>SUM(B473:B475)</f>
+        <v>46.5</v>
+      </c>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB523B-5810-4CF5-8D62-4660E023003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B66078A-8276-4776-AFE3-A0A3832F6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Planning filming of teaser-video</t>
+  </si>
+  <si>
+    <t>Change ground texture</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1997,7 @@
   <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A440" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G465" sqref="G465"/>
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6440,38 +6443,39 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B449" t="s">
+        <v>154</v>
+      </c>
+      <c r="C449" s="12">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C450" s="12">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>5</v>
+      </c>
+      <c r="E450" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
         <v>44894</v>
       </c>
-      <c r="B449" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C449" s="21">
-        <v>2</v>
-      </c>
-      <c r="D449" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E449" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A450" s="19"/>
-      <c r="B450" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C450" s="21">
-        <v>2</v>
-      </c>
-      <c r="D450" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E450" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A451" s="1"/>
       <c r="B451" s="19" t="s">
         <v>143</v>
       </c>
@@ -6479,92 +6483,96 @@
         <v>2</v>
       </c>
       <c r="D451" s="19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E451" s="20">
         <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B452" t="s">
-        <v>152</v>
-      </c>
-      <c r="C452" s="12">
+      <c r="A452" s="19"/>
+      <c r="B452" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C452" s="21">
         <v>2</v>
       </c>
       <c r="D452" s="19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E452" s="20">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A453" s="1">
-        <v>44895</v>
-      </c>
+      <c r="A453" s="1"/>
       <c r="B453" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C453" s="12">
+        <v>143</v>
+      </c>
+      <c r="C453" s="21">
         <v>2</v>
       </c>
       <c r="D453" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E453" s="20"/>
+      <c r="E453" s="20">
+        <v>33</v>
+      </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
-        <v>153</v>
-      </c>
-      <c r="C454" s="21">
-        <v>2</v>
-      </c>
-      <c r="D454" t="s">
-        <v>5</v>
-      </c>
-      <c r="E454" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="C454" s="12">
+        <v>2</v>
+      </c>
+      <c r="D454" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E454" s="20">
+        <v>29</v>
+      </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>44895</v>
+      </c>
       <c r="B455" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C455" s="21">
-        <v>2</v>
-      </c>
-      <c r="D455" t="s">
-        <v>7</v>
+      <c r="C455" s="12">
+        <v>2</v>
+      </c>
+      <c r="D455" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="E455" s="20"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="19" t="s">
-        <v>144</v>
+      <c r="B456" t="s">
+        <v>153</v>
       </c>
       <c r="C456" s="21">
-        <v>3</v>
-      </c>
-      <c r="D456" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D456" t="s">
         <v>5</v>
       </c>
       <c r="E456" s="20"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A457" s="19"/>
       <c r="B457" s="19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C457" s="21">
-        <v>3</v>
-      </c>
-      <c r="D457" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D457" t="s">
         <v>7</v>
       </c>
       <c r="E457" s="20"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A458" s="19"/>
       <c r="B458" s="19" t="s">
         <v>144</v>
       </c>
@@ -6572,80 +6580,76 @@
         <v>3</v>
       </c>
       <c r="D458" s="19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E458" s="20"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A459" s="1">
-        <v>44898</v>
-      </c>
-      <c r="B459" t="s">
-        <v>149</v>
-      </c>
-      <c r="C459" s="12">
-        <v>2</v>
-      </c>
-      <c r="D459" t="s">
-        <v>7</v>
-      </c>
-      <c r="E459" s="20">
-        <v>9</v>
-      </c>
+      <c r="A459" s="19"/>
+      <c r="B459" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C459" s="21">
+        <v>3</v>
+      </c>
+      <c r="D459" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="20"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B460" t="s">
-        <v>150</v>
-      </c>
-      <c r="C460" s="12">
-        <v>3</v>
-      </c>
-      <c r="D460" t="s">
-        <v>5</v>
-      </c>
-      <c r="E460" s="20">
-        <v>34</v>
-      </c>
+      <c r="A460" s="19"/>
+      <c r="B460" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C460" s="21">
+        <v>3</v>
+      </c>
+      <c r="D460" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E460" s="20"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B461" t="s">
+        <v>149</v>
+      </c>
+      <c r="C461" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>150</v>
+      </c>
+      <c r="C462" s="12">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>5</v>
+      </c>
+      <c r="E462" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
         <v>44899</v>
       </c>
-      <c r="B461" s="19" t="s">
+      <c r="B463" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C461" s="21">
+      <c r="C463" s="21">
         <v>1</v>
-      </c>
-      <c r="D461" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E461" s="20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A462" s="1"/>
-      <c r="B462" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C462" s="21">
-        <v>1</v>
-      </c>
-      <c r="D462" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E462" s="20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
-      <c r="B463" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C463" s="21">
-        <v>2</v>
       </c>
       <c r="D463" s="22" t="s">
         <v>7</v>
@@ -6655,12 +6659,12 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A464" s="19"/>
+      <c r="A464" s="1"/>
       <c r="B464" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C464" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D464" s="22" t="s">
         <v>5</v>
@@ -6672,74 +6676,90 @@
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C465" s="21">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E465" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="E465" s="20">
+        <v>31</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A466" s="1">
-        <v>44900</v>
-      </c>
+      <c r="A466" s="19"/>
       <c r="B466" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C466" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E466" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="E466" s="20">
+        <v>31</v>
+      </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C467" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D467" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E467" s="20"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C468" s="21">
+        <v>3</v>
+      </c>
+      <c r="D468" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" s="20"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C467" s="21">
-        <v>4</v>
-      </c>
-      <c r="D467" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E467" s="20">
+      <c r="C469" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D469" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" s="20">
         <v>32</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A468" s="19"/>
-      <c r="B468" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C468" s="21">
-        <v>2</v>
-      </c>
-      <c r="D468" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E468" s="20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A469" s="19"/>
-      <c r="B469" s="19"/>
-      <c r="C469" s="21"/>
-      <c r="D469" s="22"/>
-      <c r="E469" s="20"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="19"/>
-      <c r="B470" s="19"/>
-      <c r="C470" s="21"/>
-      <c r="D470" s="22"/>
-      <c r="E470" s="20"/>
+      <c r="B470" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C470" s="21">
+        <v>2</v>
+      </c>
+      <c r="D470" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E470" s="20">
+        <v>31</v>
+      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="19"/>
@@ -6764,8 +6784,8 @@
         <v>5</v>
       </c>
       <c r="B473" s="21">
-        <f>C449+C456+C462+C464+C460+C468+C454</f>
-        <v>15</v>
+        <f>C451+C458+C464+C466+C462+C470+C456+C450</f>
+        <v>16</v>
       </c>
       <c r="C473" s="21"/>
       <c r="D473" s="19"/>
@@ -6776,8 +6796,8 @@
         <v>7</v>
       </c>
       <c r="B474" s="21">
-        <f>C450+C457+C463+C467+C459+C461+C455</f>
-        <v>16</v>
+        <f>C452+C459+C465+C469+C461+C463+C457+C449</f>
+        <v>17</v>
       </c>
       <c r="C474" s="21"/>
       <c r="D474" s="19"/>
@@ -6788,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="B475" s="13">
-        <f>C451+C458+C465+C466+C452+C453</f>
+        <f>C453+C460+C467+C468+C454+C455</f>
         <v>15.5</v>
       </c>
       <c r="C475" s="21"/>
@@ -6799,7 +6819,7 @@
       <c r="A476" s="4"/>
       <c r="B476" s="26">
         <f>SUM(B473:B475)</f>
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
       <c r="C476" s="14"/>
       <c r="D476" s="14"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B66078A-8276-4776-AFE3-A0A3832F6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5DE52-8CEE-4A65-8C5E-655943D19004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A440" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+      <selection activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6546,7 +6546,9 @@
       <c r="D455" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E455" s="20"/>
+      <c r="E455" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
@@ -6558,7 +6560,9 @@
       <c r="D456" t="s">
         <v>5</v>
       </c>
-      <c r="E456" s="20"/>
+      <c r="E456" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B457" s="19" t="s">
@@ -6570,7 +6574,9 @@
       <c r="D457" t="s">
         <v>7</v>
       </c>
-      <c r="E457" s="20"/>
+      <c r="E457" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B458" s="19" t="s">
@@ -6582,7 +6588,9 @@
       <c r="D458" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E458" s="20"/>
+      <c r="E458" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="19"/>
@@ -6595,7 +6603,9 @@
       <c r="D459" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E459" s="20"/>
+      <c r="E459" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="19"/>
@@ -6608,7 +6618,9 @@
       <c r="D460" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E460" s="20"/>
+      <c r="E460" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
@@ -6714,7 +6726,9 @@
       <c r="D467" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E467" s="20"/>
+      <c r="E467" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
@@ -6729,7 +6743,9 @@
       <c r="D468" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E468" s="20"/>
+      <c r="E468" s="20">
+        <v>35</v>
+      </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5DE52-8CEE-4A65-8C5E-655943D19004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BD5C1-EE01-43E1-AC20-AF8E18B43422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -500,6 +500,24 @@
   </si>
   <si>
     <t>Change ground texture</t>
+  </si>
+  <si>
+    <t>Working on creative part of second puzzle</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Implementing second puzzle</t>
+  </si>
+  <si>
+    <t>Videoclips vom Spiel aufnehmen</t>
+  </si>
+  <si>
+    <t>Video diskutieren</t>
+  </si>
+  <si>
+    <t>Editing Video</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -636,25 +654,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1694,6 +1706,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7A3725-55B3-4449-B433-D574732918CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="80467200"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1994,42 +2066,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:E513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E465" sqref="E465"/>
+    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="16"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="16"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,7 +2111,7 @@
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2053,7 +2125,7 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2067,7 +2139,7 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2079,7 +2151,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2093,7 +2165,7 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2105,7 +2177,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2150,7 +2222,7 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>C6+C10</f>
         <v>5</v>
       </c>
@@ -2158,47 +2230,47 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <f>B13+B14+B15</f>
         <v>13</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2208,7 +2280,7 @@
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2222,7 +2294,7 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2234,7 +2306,7 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2246,7 +2318,7 @@
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>1.5</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2260,7 +2332,7 @@
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2272,7 +2344,7 @@
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2284,7 +2356,7 @@
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2298,7 +2370,7 @@
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2310,7 +2382,7 @@
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2322,7 +2394,7 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2365,7 +2437,7 @@
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f>C31+C28+C24</f>
         <v>5</v>
       </c>
@@ -2377,43 +2449,43 @@
         <f>B35+B36+B37</f>
         <v>14.5</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="16"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,7 +2495,7 @@
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -2437,7 +2509,7 @@
       <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>0.7</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2449,7 +2521,7 @@
       <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>1.5</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2461,7 +2533,7 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2475,7 +2547,7 @@
       <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>2.5</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2487,7 +2559,7 @@
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>1.33</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2499,10 +2571,10 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="12">
-        <v>2</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="11">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2513,7 +2585,7 @@
       <c r="B52" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2526,7 +2598,7 @@
       <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>0.5</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2540,7 +2612,7 @@
       <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <f>86/60</f>
         <v>1.4333333333333333</v>
       </c>
@@ -2553,7 +2625,7 @@
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2565,7 +2637,7 @@
       <c r="B56" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2592,7 +2664,7 @@
       <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <f>C55+C51+C53</f>
         <v>9.5</v>
       </c>
@@ -2602,7 +2674,7 @@
       <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <f>C56+C49+C48</f>
         <v>5.5</v>
       </c>
@@ -2612,7 +2684,7 @@
       <c r="A62" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <f>C50+C52+C54+C46+C47</f>
         <v>5.63</v>
       </c>
@@ -2620,35 +2692,35 @@
     </row>
     <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <f>B60+B61+B62</f>
         <v>20.63</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="16"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="16"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="16"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2658,7 +2730,7 @@
       <c r="B74" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -2672,7 +2744,7 @@
       <c r="B75" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>2</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -2686,7 +2758,7 @@
       <c r="B76" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>2</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2700,7 +2772,7 @@
       <c r="B77" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>3.5</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -2711,7 +2783,7 @@
       <c r="B78" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11">
         <v>3.5</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -2722,7 +2794,7 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="11">
         <v>3.5</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2736,7 +2808,7 @@
       <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>0.67</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -2750,7 +2822,7 @@
       <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>2</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2764,7 +2836,7 @@
       <c r="B82" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <v>3</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -2776,7 +2848,7 @@
       <c r="B83" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>0.5</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -2788,7 +2860,7 @@
       <c r="B84" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="11">
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -2800,7 +2872,7 @@
       <c r="B85" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -2812,7 +2884,7 @@
       <c r="B86" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <v>2.5</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -2824,7 +2896,7 @@
       <c r="B87" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="11">
         <v>1.5</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -2838,7 +2910,7 @@
       <c r="B88" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -2850,7 +2922,7 @@
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="11">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -2862,7 +2934,7 @@
       <c r="B90" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <v>2</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -2873,7 +2945,7 @@
       <c r="B91" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>4</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -2884,7 +2956,7 @@
       <c r="B92" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="11">
         <v>2</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -2898,7 +2970,7 @@
       <c r="B93" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="11">
         <v>2</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -2912,7 +2984,7 @@
       <c r="B94" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="11">
         <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -2935,7 +3007,7 @@
       <c r="A97" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="11">
         <f>C79+C87+C89+C90+C81+C76</f>
         <v>12</v>
       </c>
@@ -2945,7 +3017,7 @@
       <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="11">
         <f>C91+C86+C85+C75+C78+C93+C94</f>
         <v>22</v>
       </c>
@@ -2955,7 +3027,7 @@
       <c r="A99" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="12">
         <f>C92+C88+C84+C83+C82+C80+C77</f>
         <v>12.67</v>
       </c>
@@ -2963,35 +3035,35 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <f>B99+B98+B97</f>
         <v>46.67</v>
       </c>
-      <c r="C100" s="14"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="16"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="16"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="16"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="16"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="3"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,7 +3073,7 @@
       <c r="B108" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -3015,7 +3087,7 @@
       <c r="B109" t="s">
         <v>39</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="11">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -3027,7 +3099,7 @@
       <c r="B110" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>2</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -3039,7 +3111,7 @@
       <c r="B111" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="11">
         <v>2.5</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -3051,7 +3123,7 @@
       <c r="B112" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="11">
         <v>2.5</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -3063,7 +3135,7 @@
       <c r="B113" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="11">
         <v>2.5</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -3074,10 +3146,10 @@
       <c r="B114" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="11">
         <v>1</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3088,10 +3160,10 @@
       <c r="B115" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="11">
         <v>0.5</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D115" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3100,10 +3172,10 @@
       <c r="B116" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="11">
         <v>1</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3114,10 +3186,10 @@
       <c r="B117" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="12">
-        <v>2</v>
-      </c>
-      <c r="D117" s="15" t="s">
+      <c r="C117" s="11">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3128,10 +3200,10 @@
       <c r="B118" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="11">
         <v>1</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D118" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3142,10 +3214,10 @@
       <c r="B119" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="12">
-        <v>3</v>
-      </c>
-      <c r="D119" s="15" t="s">
+      <c r="C119" s="11">
+        <v>3</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3154,7 +3226,7 @@
       <c r="B120" t="s">
         <v>43</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="11">
         <v>2.5</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -3166,7 +3238,7 @@
       <c r="B121" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="11">
         <v>1.5</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -3180,7 +3252,7 @@
       <c r="B122" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="11">
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -3194,7 +3266,7 @@
       <c r="B123" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="11">
         <v>4</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -3208,7 +3280,7 @@
       <c r="B124" t="s">
         <v>48</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="11">
         <v>2</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -3222,7 +3294,7 @@
       <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="11">
         <v>1.42</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -3245,7 +3317,7 @@
       <c r="A128" t="s">
         <v>5</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="11">
         <f>C113+C116+C117+C118+C122</f>
         <v>8.5</v>
       </c>
@@ -3255,7 +3327,7 @@
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="11">
         <f>C121+C120+C115+C114+C111</f>
         <v>8</v>
       </c>
@@ -3265,42 +3337,42 @@
       <c r="A130" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="12">
         <v>15</v>
       </c>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <f>B130+B129+B128</f>
         <v>31.5</v>
       </c>
-      <c r="C131" s="14"/>
+      <c r="C131" s="13"/>
       <c r="D131" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="16"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="16"/>
+      <c r="C139" s="14"/>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="16"/>
+      <c r="C140" s="14"/>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="16"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="3"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,7 +3382,7 @@
       <c r="B142" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="8" t="s">
@@ -3324,7 +3396,7 @@
       <c r="B143" t="s">
         <v>51</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="11">
         <v>2</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -3336,7 +3408,7 @@
       <c r="B144" t="s">
         <v>51</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="11">
         <v>2</v>
       </c>
       <c r="D144" s="5" t="s">
@@ -3348,7 +3420,7 @@
       <c r="B145" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="11">
         <v>2</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -3362,7 +3434,7 @@
       <c r="B146" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="11">
         <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -3374,7 +3446,7 @@
       <c r="B147" t="s">
         <v>52</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="11">
         <v>1</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -3386,7 +3458,7 @@
       <c r="B148" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="11">
         <v>1</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -3400,10 +3472,10 @@
       <c r="B149" t="s">
         <v>57</v>
       </c>
-      <c r="C149" s="12">
-        <v>2</v>
-      </c>
-      <c r="D149" s="15" t="s">
+      <c r="C149" s="11">
+        <v>2</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3414,10 +3486,10 @@
       <c r="B150" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="12">
-        <v>3</v>
-      </c>
-      <c r="D150" s="15" t="s">
+      <c r="C150" s="11">
+        <v>3</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3426,10 +3498,10 @@
       <c r="B151" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="11">
         <v>1.5</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3438,7 +3510,7 @@
       <c r="B152" t="s">
         <v>53</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="11">
         <v>1.5</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -3450,7 +3522,7 @@
       <c r="B153" t="s">
         <v>53</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="11">
         <v>1.5</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -3464,7 +3536,7 @@
       <c r="B154" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="11">
         <v>1</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -3476,7 +3548,7 @@
       <c r="B155" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="11">
         <v>1</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -3488,7 +3560,7 @@
       <c r="B156" t="s">
         <v>52</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="11">
         <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -3502,7 +3574,7 @@
       <c r="B157" t="s">
         <v>55</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="11">
         <v>2</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -3514,7 +3586,7 @@
       <c r="B158" t="s">
         <v>55</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="11">
         <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -3526,7 +3598,7 @@
       <c r="B159" t="s">
         <v>55</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="11">
         <v>2</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -3540,7 +3612,7 @@
       <c r="B160" t="s">
         <v>56</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="11">
         <v>5</v>
       </c>
       <c r="D160" s="5" t="s">
@@ -3552,7 +3624,7 @@
       <c r="B161" t="s">
         <v>56</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="11">
         <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -3564,7 +3636,7 @@
       <c r="B162" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="11">
         <v>5</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -3588,7 +3660,7 @@
       <c r="A165" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="11">
         <v>12.5</v>
       </c>
       <c r="D165" s="5"/>
@@ -3597,7 +3669,7 @@
       <c r="A166" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="11">
         <f>C162+C158+C155+C152+C149+C147+C145</f>
         <v>14.5</v>
       </c>
@@ -3607,42 +3679,42 @@
       <c r="A167" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="13">
+      <c r="B167" s="12">
         <v>15.5</v>
       </c>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
-      <c r="B168" s="14">
+      <c r="B168" s="13">
         <f>SUM(B165:B167)</f>
         <v>42.5</v>
       </c>
-      <c r="C168" s="14"/>
+      <c r="C168" s="13"/>
       <c r="D168" s="6"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="16"/>
+      <c r="C175" s="14"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="16"/>
+      <c r="C176" s="14"/>
       <c r="D176" s="3"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="16"/>
+      <c r="C177" s="14"/>
       <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="16"/>
+      <c r="C178" s="14"/>
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3652,7 +3724,7 @@
       <c r="B179" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="8" t="s">
@@ -3666,7 +3738,7 @@
       <c r="B180" t="s">
         <v>60</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="11">
         <v>2.5</v>
       </c>
       <c r="D180" s="5" t="s">
@@ -3678,7 +3750,7 @@
       <c r="B181" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="11">
         <v>2.5</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -3689,7 +3761,7 @@
       <c r="B182" t="s">
         <v>60</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="11">
         <v>2.5</v>
       </c>
       <c r="D182" t="s">
@@ -3703,7 +3775,7 @@
       <c r="B183" t="s">
         <v>57</v>
       </c>
-      <c r="C183" s="12">
+      <c r="C183" s="11">
         <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
@@ -3714,10 +3786,10 @@
       <c r="B184" t="s">
         <v>63</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="11">
         <v>1.5</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3728,7 +3800,7 @@
       <c r="B185" t="s">
         <v>62</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="11">
         <v>5</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -3740,7 +3812,7 @@
       <c r="B186" t="s">
         <v>60</v>
       </c>
-      <c r="C186" s="12">
+      <c r="C186" s="11">
         <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
@@ -3752,7 +3824,7 @@
       <c r="B187" t="s">
         <v>60</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="11">
         <v>3</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -3766,7 +3838,7 @@
       <c r="B188" t="s">
         <v>58</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="11">
         <v>3</v>
       </c>
       <c r="D188" s="5" t="s">
@@ -3778,7 +3850,7 @@
       <c r="B189" t="s">
         <v>59</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C189" s="11">
         <v>2</v>
       </c>
       <c r="D189" s="5" t="s">
@@ -3790,7 +3862,7 @@
       <c r="B190" t="s">
         <v>61</v>
       </c>
-      <c r="C190" s="12">
+      <c r="C190" s="11">
         <v>3</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -3802,7 +3874,7 @@
       <c r="B191" t="s">
         <v>61</v>
       </c>
-      <c r="C191" s="12">
+      <c r="C191" s="11">
         <v>3</v>
       </c>
       <c r="D191" s="5" t="s">
@@ -3814,7 +3886,7 @@
       <c r="B192" t="s">
         <v>61</v>
       </c>
-      <c r="C192" s="12">
+      <c r="C192" s="11">
         <v>3</v>
       </c>
       <c r="D192" s="5" t="s">
@@ -3862,7 +3934,7 @@
       <c r="A202" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B202" s="11">
         <f>C182+C187+C191+C184</f>
         <v>10</v>
       </c>
@@ -3872,7 +3944,7 @@
       <c r="A203" t="s">
         <v>7</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B203" s="11">
         <f>C192+C186+C183+C181</f>
         <v>9.5</v>
       </c>
@@ -3882,7 +3954,7 @@
       <c r="A204" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="13">
+      <c r="B204" s="12">
         <f>C180+C185+C188+C189+C190</f>
         <v>15.5</v>
       </c>
@@ -3890,35 +3962,35 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
-      <c r="B205" s="14">
+      <c r="B205" s="13">
         <f>SUM(B202:B204)</f>
         <v>35</v>
       </c>
-      <c r="C205" s="14"/>
+      <c r="C205" s="13"/>
       <c r="D205" s="6"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="16"/>
+      <c r="C211" s="14"/>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="16"/>
+      <c r="C212" s="14"/>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="16"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="16"/>
+      <c r="C214" s="14"/>
       <c r="D214" s="3"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3928,7 +4000,7 @@
       <c r="B215" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D215" s="8" t="s">
@@ -3942,7 +4014,7 @@
       <c r="B216" t="s">
         <v>64</v>
       </c>
-      <c r="C216" s="12">
+      <c r="C216" s="11">
         <v>2</v>
       </c>
       <c r="D216" s="5" t="s">
@@ -3954,7 +4026,7 @@
       <c r="B217" t="s">
         <v>68</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="11">
         <v>2.5</v>
       </c>
       <c r="D217" s="5" t="s">
@@ -3965,7 +4037,7 @@
       <c r="B218" t="s">
         <v>64</v>
       </c>
-      <c r="C218" s="12">
+      <c r="C218" s="11">
         <v>2</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -3979,7 +4051,7 @@
       <c r="B219" t="s">
         <v>65</v>
       </c>
-      <c r="C219" s="12">
+      <c r="C219" s="11">
         <v>2.5</v>
       </c>
       <c r="D219" s="5" t="s">
@@ -3990,7 +4062,7 @@
       <c r="B220" t="s">
         <v>69</v>
       </c>
-      <c r="C220" s="12">
+      <c r="C220" s="11">
         <v>3</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -4002,7 +4074,7 @@
       <c r="B221" t="s">
         <v>80</v>
       </c>
-      <c r="C221" s="12">
+      <c r="C221" s="11">
         <v>3</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -4016,7 +4088,7 @@
       <c r="B222" t="s">
         <v>65</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="11">
         <v>1</v>
       </c>
       <c r="D222" s="5" t="s">
@@ -4030,7 +4102,7 @@
       <c r="B223" t="s">
         <v>70</v>
       </c>
-      <c r="C223" s="12">
+      <c r="C223" s="11">
         <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
@@ -4044,7 +4116,7 @@
       <c r="B224" t="s">
         <v>66</v>
       </c>
-      <c r="C224" s="12">
+      <c r="C224" s="11">
         <v>6</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -4055,10 +4127,10 @@
       <c r="B225" t="s">
         <v>66</v>
       </c>
-      <c r="C225" s="12">
+      <c r="C225" s="11">
         <v>6</v>
       </c>
-      <c r="D225" s="15" t="s">
+      <c r="D225" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4069,7 +4141,7 @@
       <c r="B226" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="12">
+      <c r="C226" s="11">
         <v>1</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -4081,7 +4153,7 @@
       <c r="B227" t="s">
         <v>71</v>
       </c>
-      <c r="C227" s="12">
+      <c r="C227" s="11">
         <v>1</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -4092,10 +4164,10 @@
       <c r="B228" t="s">
         <v>80</v>
       </c>
-      <c r="C228" s="12">
+      <c r="C228" s="11">
         <v>1</v>
       </c>
-      <c r="D228" s="15" t="s">
+      <c r="D228" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4106,7 +4178,7 @@
       <c r="B229" t="s">
         <v>67</v>
       </c>
-      <c r="C229" s="12">
+      <c r="C229" s="11">
         <v>3.5</v>
       </c>
       <c r="D229" s="5" t="s">
@@ -4118,7 +4190,7 @@
       <c r="B230" t="s">
         <v>76</v>
       </c>
-      <c r="C230" s="12">
+      <c r="C230" s="11">
         <v>6</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -4129,10 +4201,10 @@
       <c r="B231" t="s">
         <v>81</v>
       </c>
-      <c r="C231" s="12">
+      <c r="C231" s="11">
         <v>1</v>
       </c>
-      <c r="D231" s="15" t="s">
+      <c r="D231" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4143,7 +4215,7 @@
       <c r="B232" t="s">
         <v>72</v>
       </c>
-      <c r="C232" s="12">
+      <c r="C232" s="11">
         <v>0.5</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -4155,7 +4227,7 @@
       <c r="B233" t="s">
         <v>78</v>
       </c>
-      <c r="C233" s="12">
+      <c r="C233" s="11">
         <v>5.5</v>
       </c>
       <c r="D233" s="5" t="s">
@@ -4167,7 +4239,7 @@
       <c r="B234" t="s">
         <v>73</v>
       </c>
-      <c r="C234" s="12">
+      <c r="C234" s="11">
         <v>2</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -4179,7 +4251,7 @@
       <c r="B235" t="s">
         <v>74</v>
       </c>
-      <c r="C235" s="12">
+      <c r="C235" s="11">
         <v>1.5</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -4191,7 +4263,7 @@
       <c r="B236" t="s">
         <v>74</v>
       </c>
-      <c r="C236" s="12">
+      <c r="C236" s="11">
         <v>1.5</v>
       </c>
       <c r="D236" s="5" t="s">
@@ -4203,7 +4275,7 @@
       <c r="B237" t="s">
         <v>74</v>
       </c>
-      <c r="C237" s="12">
+      <c r="C237" s="11">
         <v>1.5</v>
       </c>
       <c r="D237" s="5" t="s">
@@ -4215,7 +4287,7 @@
       <c r="B238" t="s">
         <v>75</v>
       </c>
-      <c r="C238" s="12">
+      <c r="C238" s="11">
         <v>2</v>
       </c>
       <c r="D238" s="5" t="s">
@@ -4227,7 +4299,7 @@
       <c r="B239" t="s">
         <v>79</v>
       </c>
-      <c r="C239" s="12">
+      <c r="C239" s="11">
         <v>3.5</v>
       </c>
       <c r="D239" s="5" t="s">
@@ -4235,35 +4307,35 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B240" s="19" t="s">
+      <c r="B240" t="s">
         <v>82</v>
       </c>
-      <c r="C240" s="21">
-        <v>2</v>
-      </c>
-      <c r="D240" s="20" t="s">
+      <c r="C240" s="11">
+        <v>2</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B241" s="19" t="s">
+      <c r="B241" t="s">
         <v>83</v>
       </c>
-      <c r="C241" s="21">
-        <v>2</v>
-      </c>
-      <c r="D241" s="20" t="s">
+      <c r="C241" s="11">
+        <v>2</v>
+      </c>
+      <c r="D241" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B242" s="19" t="s">
+      <c r="B242" t="s">
         <v>84</v>
       </c>
-      <c r="C242" s="21">
+      <c r="C242" s="11">
         <v>1</v>
       </c>
-      <c r="D242" s="20" t="s">
+      <c r="D242" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4286,7 +4358,7 @@
       <c r="A246" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="12">
+      <c r="B246" s="11">
         <f>C216+C219+C222+C224+C226+C229+C235+C233+C239</f>
         <v>26.5</v>
       </c>
@@ -4296,7 +4368,7 @@
       <c r="A247" t="s">
         <v>7</v>
       </c>
-      <c r="B247" s="12">
+      <c r="B247" s="11">
         <f>C218+C221+C225+C228+C231+C237+C240+C241+C242</f>
         <v>19.5</v>
       </c>
@@ -4306,7 +4378,7 @@
       <c r="A248" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="13">
+      <c r="B248" s="12">
         <f>C217+C220+C223+C227+C230+C232+C234+C236+C238</f>
         <v>22.5</v>
       </c>
@@ -4314,449 +4386,440 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
-      <c r="B249" s="14">
+      <c r="B249" s="13">
         <f>SUM(B246:B248)</f>
         <v>68.5</v>
       </c>
-      <c r="C249" s="14"/>
+      <c r="C249" s="13"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="19"/>
-    </row>
-    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C254" s="21"/>
-    </row>
-    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="16"/>
+      <c r="C255" s="14"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="16"/>
+      <c r="C256" s="14"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="16"/>
+      <c r="C257" s="14"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="16"/>
+      <c r="C258" s="14"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D259" s="17" t="s">
+      <c r="D259" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
-      <c r="B260" s="19" t="s">
+      <c r="B260" t="s">
         <v>87</v>
       </c>
-      <c r="C260" s="21">
-        <v>2</v>
-      </c>
-      <c r="D260" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E260" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="11">
+        <v>2</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
-      <c r="B261" s="19" t="s">
+      <c r="B261" t="s">
         <v>87</v>
       </c>
-      <c r="C261" s="21">
-        <v>2</v>
-      </c>
-      <c r="D261" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="11">
+        <v>2</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
-      <c r="B262" s="19" t="s">
+      <c r="B262" t="s">
         <v>87</v>
       </c>
-      <c r="C262" s="21">
-        <v>2</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="19" t="s">
+      <c r="C262" s="11">
+        <v>2</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="21">
+      <c r="C263" s="11">
         <v>1</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E263" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="19" t="s">
+      <c r="D263" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
         <v>91</v>
       </c>
-      <c r="C264" s="21">
+      <c r="C264" s="11">
         <v>1</v>
       </c>
-      <c r="D264" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="19" t="s">
+      <c r="D264" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
         <v>91</v>
       </c>
-      <c r="C265" s="21">
+      <c r="C265" s="11">
         <v>1</v>
       </c>
-      <c r="D265" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
-      <c r="B266" s="19" t="s">
+      <c r="B266" t="s">
         <v>85</v>
       </c>
-      <c r="C266" s="21">
+      <c r="C266" s="11">
         <v>1</v>
       </c>
-      <c r="D266" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="20">
+      <c r="D266" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="B267" s="19" t="s">
+      <c r="B267" t="s">
         <v>92</v>
       </c>
-      <c r="C267" s="21">
-        <v>2</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="20"/>
-    </row>
-    <row r="268" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="11">
+        <v>2</v>
+      </c>
+      <c r="D267" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
-      <c r="B268" s="19" t="s">
+      <c r="B268" t="s">
         <v>91</v>
       </c>
-      <c r="C268" s="21">
+      <c r="C268" s="11">
         <v>1</v>
       </c>
-      <c r="D268" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E268" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D268" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
-      <c r="B269" s="19" t="s">
+      <c r="B269" t="s">
         <v>93</v>
       </c>
-      <c r="C269" s="21">
-        <v>2</v>
-      </c>
-      <c r="D269" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E269" s="20"/>
-    </row>
-    <row r="270" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="11">
+        <v>2</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
-      <c r="B270" s="19" t="s">
+      <c r="B270" t="s">
         <v>85</v>
       </c>
-      <c r="C270" s="21">
-        <v>2</v>
-      </c>
-      <c r="D270" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E270" s="20">
+      <c r="C270" s="11">
+        <v>2</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="19" t="s">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>89</v>
       </c>
-      <c r="C271" s="21">
-        <v>2</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E271" s="20">
+      <c r="C271" s="11">
+        <v>2</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="19" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
         <v>89</v>
       </c>
-      <c r="C272" s="21">
+      <c r="C272" s="11">
         <v>1</v>
       </c>
-      <c r="D272" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E272" s="20">
+      <c r="D272" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="19" t="s">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
         <v>89</v>
       </c>
-      <c r="C273" s="21">
-        <v>2</v>
-      </c>
-      <c r="D273" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" s="20">
+      <c r="C273" s="11">
+        <v>2</v>
+      </c>
+      <c r="D273" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
-      <c r="B274" s="19" t="s">
+      <c r="B274" t="s">
         <v>85</v>
       </c>
-      <c r="C274" s="21">
+      <c r="C274" s="11">
         <v>1.5</v>
       </c>
-      <c r="D274" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="15">
+      <c r="D274" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
-      <c r="B275" s="19" t="s">
+      <c r="B275" t="s">
         <v>86</v>
       </c>
-      <c r="C275" s="21">
-        <v>3</v>
-      </c>
-      <c r="D275" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E275" s="20">
+      <c r="C275" s="11">
+        <v>3</v>
+      </c>
+      <c r="D275" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
-      <c r="B276" s="19" t="s">
+      <c r="B276" t="s">
         <v>86</v>
       </c>
-      <c r="C276" s="21">
-        <v>3</v>
-      </c>
-      <c r="D276" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E276" s="20">
+      <c r="C276" s="11">
+        <v>3</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
-      <c r="B277" s="19" t="s">
+      <c r="B277" t="s">
         <v>86</v>
       </c>
-      <c r="C277" s="21">
-        <v>3</v>
-      </c>
-      <c r="D277" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E277" s="20">
+      <c r="C277" s="11">
+        <v>3</v>
+      </c>
+      <c r="D277" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
-      <c r="B278" s="19" t="s">
+      <c r="B278" t="s">
         <v>90</v>
       </c>
-      <c r="C278" s="21">
+      <c r="C278" s="11">
         <v>0.5</v>
       </c>
-      <c r="D278" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E278" s="20">
+      <c r="D278" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="19" t="s">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
         <v>90</v>
       </c>
-      <c r="C279" s="21">
+      <c r="C279" s="11">
         <v>2.5</v>
       </c>
-      <c r="D279" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E279" s="15">
+      <c r="D279" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
-      <c r="C280" s="21"/>
-      <c r="E280" s="20"/>
-    </row>
-    <row r="281" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C281" s="21"/>
-      <c r="E281" s="20"/>
-    </row>
-    <row r="282" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="21">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="11">
         <f>C260+C263+C268+C277+C271+C269</f>
         <v>11</v>
       </c>
-      <c r="C282" s="21"/>
-      <c r="E282" s="20"/>
-    </row>
-    <row r="283" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B283" s="21">
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="11">
         <f>C276+C262+C273+C265+C267+C279</f>
         <v>12.5</v>
       </c>
-      <c r="C283" s="21"/>
-      <c r="E283" s="20"/>
-    </row>
-    <row r="284" spans="1:5" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" s="13">
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="12">
         <f>C261+C266+C270+C274+C275+C272+C264+C278</f>
         <v>12</v>
       </c>
-      <c r="C284" s="21"/>
-      <c r="E284" s="20"/>
-    </row>
-    <row r="285" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="5"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
-      <c r="B285" s="14">
+      <c r="B285" s="13">
         <f>SUM(B282:B284)</f>
         <v>35.5</v>
       </c>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C286"/>
+    </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="16"/>
+      <c r="C290" s="14"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="16"/>
+      <c r="C291" s="14"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="16"/>
+      <c r="C292" s="14"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="16"/>
+      <c r="C293" s="14"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
@@ -4767,10 +4830,10 @@
       <c r="B294" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C294" s="17" t="s">
+      <c r="C294" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D294" s="17" t="s">
+      <c r="D294" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E294" s="8" t="s">
@@ -4781,72 +4844,72 @@
       <c r="A295" s="1">
         <v>44695</v>
       </c>
-      <c r="B295" s="19" t="s">
+      <c r="B295" t="s">
         <v>96</v>
       </c>
-      <c r="C295" s="21">
+      <c r="C295" s="11">
         <v>2.5</v>
       </c>
-      <c r="D295" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E295" s="20"/>
+      <c r="D295" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" s="5"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
-      <c r="B296" s="19" t="s">
+      <c r="B296" t="s">
         <v>96</v>
       </c>
-      <c r="C296" s="21">
+      <c r="C296" s="11">
         <v>1</v>
       </c>
-      <c r="D296" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E296" s="20"/>
+      <c r="D296" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="5"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
-      <c r="B297" s="19" t="s">
+      <c r="B297" t="s">
         <v>97</v>
       </c>
-      <c r="C297" s="21">
-        <v>2</v>
-      </c>
-      <c r="D297" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E297" s="20"/>
+      <c r="C297" s="11">
+        <v>2</v>
+      </c>
+      <c r="D297" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="5"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
-      <c r="B298" s="19" t="s">
+      <c r="B298" t="s">
         <v>97</v>
       </c>
-      <c r="C298" s="21">
-        <v>2</v>
-      </c>
-      <c r="D298" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E298" s="20"/>
+      <c r="C298" s="11">
+        <v>2</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E298" s="5"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
-      <c r="B299" s="19" t="s">
+      <c r="B299" t="s">
         <v>97</v>
       </c>
-      <c r="C299" s="12">
-        <v>2</v>
-      </c>
-      <c r="D299" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E299" s="20"/>
+      <c r="C299" s="11">
+        <v>2</v>
+      </c>
+      <c r="D299" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="5"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
@@ -4855,172 +4918,172 @@
       <c r="B300" t="s">
         <v>98</v>
       </c>
-      <c r="C300" s="12">
+      <c r="C300" s="11">
         <v>1.5</v>
       </c>
-      <c r="D300" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E300" s="20"/>
-    </row>
-    <row r="301" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D300" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
-      <c r="B301" s="19" t="s">
+      <c r="B301" t="s">
         <v>105</v>
       </c>
-      <c r="C301" s="21">
+      <c r="C301" s="11">
         <v>3.52</v>
       </c>
-      <c r="D301" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E301" s="20">
+      <c r="D301" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E301" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
-      <c r="B302" s="19" t="s">
+      <c r="B302" t="s">
         <v>105</v>
       </c>
-      <c r="C302" s="21">
+      <c r="C302" s="11">
         <v>3.5</v>
       </c>
-      <c r="D302" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E302" s="20">
+      <c r="D302" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
-      <c r="B303" s="19" t="s">
+      <c r="B303" t="s">
         <v>99</v>
       </c>
-      <c r="C303" s="21">
+      <c r="C303" s="11">
         <v>1</v>
       </c>
-      <c r="D303" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E303" s="20"/>
+      <c r="D303" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E303" s="5"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
-      <c r="B304" s="19" t="s">
+      <c r="B304" t="s">
         <v>100</v>
       </c>
-      <c r="C304" s="21">
+      <c r="C304" s="11">
         <v>4</v>
       </c>
-      <c r="D304" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="20"/>
+      <c r="D304" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="5"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
-      <c r="B305" s="19" t="s">
+      <c r="B305" t="s">
         <v>101</v>
       </c>
-      <c r="C305" s="21">
-        <v>3</v>
-      </c>
-      <c r="D305" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E305" s="20"/>
+      <c r="C305" s="11">
+        <v>3</v>
+      </c>
+      <c r="D305" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="5"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
       </c>
-      <c r="C306" s="12">
+      <c r="C306" s="11">
         <v>2.5</v>
       </c>
-      <c r="D306" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E306" s="20"/>
-    </row>
-    <row r="307" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D306" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
-      <c r="B307" s="19" t="s">
+      <c r="B307" t="s">
         <v>102</v>
       </c>
-      <c r="C307" s="21">
+      <c r="C307" s="11">
         <v>1.23</v>
       </c>
-      <c r="D307" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E307" s="20">
+      <c r="D307" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
-      <c r="B308" s="19" t="s">
+      <c r="B308" t="s">
         <v>102</v>
       </c>
-      <c r="C308" s="21">
+      <c r="C308" s="11">
         <v>1</v>
       </c>
-      <c r="D308" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E308" s="20">
+      <c r="D308" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E308" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
-      <c r="B309" s="19" t="s">
+      <c r="B309" t="s">
         <v>102</v>
       </c>
-      <c r="C309" s="21">
+      <c r="C309" s="11">
         <v>1</v>
       </c>
-      <c r="D309" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E309" s="20">
+      <c r="D309" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
-      <c r="B310" s="19" t="s">
+      <c r="B310" t="s">
         <v>104</v>
       </c>
-      <c r="C310" s="21">
-        <v>2</v>
-      </c>
-      <c r="D310" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E310" s="20">
+      <c r="C310" s="11">
+        <v>2</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
-      <c r="B311" s="19" t="s">
+      <c r="B311" t="s">
         <v>104</v>
       </c>
-      <c r="C311" s="21">
-        <v>2</v>
-      </c>
-      <c r="D311" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E311" s="20">
+      <c r="C311" s="11">
+        <v>2</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" s="5">
         <v>12</v>
       </c>
     </row>
@@ -5028,61 +5091,61 @@
       <c r="A312" s="1">
         <v>44703</v>
       </c>
-      <c r="B312" s="19" t="s">
+      <c r="B312" t="s">
         <v>102</v>
       </c>
-      <c r="C312" s="21">
+      <c r="C312" s="11">
         <v>3.5</v>
       </c>
-      <c r="D312" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E312" s="20">
+      <c r="D312" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
-      <c r="B313" s="19" t="s">
+      <c r="B313" t="s">
         <v>94</v>
       </c>
-      <c r="C313" s="21">
+      <c r="C313" s="11">
         <v>3.5</v>
       </c>
-      <c r="D313" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E313" s="20">
+      <c r="D313" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E313" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
-      <c r="B314" s="19" t="s">
+      <c r="B314" t="s">
         <v>104</v>
       </c>
-      <c r="C314" s="21">
+      <c r="C314" s="11">
         <v>2.5</v>
       </c>
-      <c r="D314" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E314" s="20">
+      <c r="D314" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
-      <c r="B315" s="19" t="s">
+      <c r="B315" t="s">
         <v>104</v>
       </c>
-      <c r="C315" s="21">
+      <c r="C315" s="11">
         <v>2.5</v>
       </c>
-      <c r="D315" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E315" s="15">
+      <c r="D315" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="5">
         <v>12</v>
       </c>
     </row>
@@ -5090,53 +5153,42 @@
       <c r="A316" s="1">
         <v>44705</v>
       </c>
-      <c r="B316" s="19" t="s">
+      <c r="B316" t="s">
         <v>106</v>
       </c>
-      <c r="C316" s="21">
-        <v>3</v>
-      </c>
-      <c r="D316" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E316" s="20">
+      <c r="C316" s="11">
+        <v>3</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
-      <c r="B317" s="19"/>
-      <c r="C317" s="21"/>
-      <c r="D317" s="22"/>
-      <c r="E317" s="20"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="5"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
-      <c r="B318" s="19"/>
-      <c r="C318" s="21"/>
-      <c r="D318" s="22"/>
-      <c r="E318" s="20"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="5"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
-      <c r="B319" s="19"/>
-      <c r="C319" s="21"/>
-      <c r="D319" s="22"/>
-      <c r="E319" s="20"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="5"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
-      <c r="B320" s="19"/>
-      <c r="C320" s="21"/>
-      <c r="D320" s="22"/>
-      <c r="E320" s="15"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="5"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="21"/>
-      <c r="D321" s="19"/>
-      <c r="E321" s="20"/>
+      <c r="E321" s="5"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
@@ -5145,102 +5197,90 @@
       <c r="B322" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C322" s="21"/>
-      <c r="D322" s="19"/>
-      <c r="E322" s="20"/>
+      <c r="E322" s="5"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B323" s="21">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="11">
         <f>C295+C296+C297+C300+C303+C304+C305+C309+C312+C306</f>
         <v>22</v>
       </c>
-      <c r="C323" s="21"/>
-      <c r="D323" s="19"/>
-      <c r="E323" s="20"/>
+      <c r="E323" s="5"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B324" s="21">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="11">
         <f>C302+C315+C310+C299+C309+C316</f>
         <v>14</v>
       </c>
-      <c r="C324" s="21"/>
-      <c r="D324" s="19"/>
-      <c r="E324" s="20"/>
+      <c r="E324" s="5"/>
     </row>
     <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B325" s="13">
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="12">
         <f>C298+C301+C311+C313+C314+C307</f>
         <v>14.75</v>
       </c>
-      <c r="C325" s="21"/>
-      <c r="D325" s="19"/>
-      <c r="E325" s="20"/>
+      <c r="E325" s="5"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
-      <c r="B326" s="14">
+      <c r="B326" s="13">
         <f>SUM(B323:B325)</f>
         <v>50.75</v>
       </c>
-      <c r="C326" s="14"/>
-      <c r="D326" s="14"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
       <c r="E326" s="6"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="19"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-    </row>
-    <row r="331" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C327"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="16"/>
+      <c r="C331" s="14"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="16"/>
+      <c r="C332" s="14"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="16"/>
+      <c r="C333" s="14"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="16"/>
+      <c r="C334" s="14"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C335" s="17" t="s">
+      <c r="C335" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D335" s="17" t="s">
+      <c r="D335" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E335" s="8" t="s">
@@ -5254,295 +5294,292 @@
       <c r="B336" t="s">
         <v>110</v>
       </c>
-      <c r="C336" s="12">
+      <c r="C336" s="11">
         <v>2</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
       </c>
-      <c r="E336" s="20"/>
+      <c r="E336" s="5"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>111</v>
       </c>
-      <c r="C337" s="12">
+      <c r="C337" s="11">
         <v>1.5</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
       </c>
-      <c r="E337" s="20"/>
-    </row>
-    <row r="338" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E337" s="5"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
-      <c r="B338" s="19" t="s">
+      <c r="B338" t="s">
         <v>112</v>
       </c>
-      <c r="C338" s="21">
-        <v>2</v>
-      </c>
-      <c r="D338" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E338" s="20">
+      <c r="C338" s="11">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
-      <c r="B339" s="19" t="s">
+      <c r="B339" t="s">
         <v>107</v>
       </c>
-      <c r="C339" s="12">
-        <v>2</v>
-      </c>
-      <c r="D339" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E339" s="20">
+      <c r="C339" s="11">
+        <v>2</v>
+      </c>
+      <c r="D339" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
-      <c r="B340" s="19" t="s">
+      <c r="B340" t="s">
         <v>107</v>
       </c>
-      <c r="C340" s="21">
-        <v>2</v>
-      </c>
-      <c r="D340" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E340" s="20">
+      <c r="C340" s="11">
+        <v>2</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
-      <c r="B341" s="19" t="s">
+      <c r="B341" t="s">
         <v>109</v>
       </c>
-      <c r="C341" s="21">
-        <v>3</v>
-      </c>
-      <c r="D341" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E341" s="20">
+      <c r="C341" s="11">
+        <v>3</v>
+      </c>
+      <c r="D341" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E341" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
-      <c r="B342" s="19" t="s">
+      <c r="B342" t="s">
         <v>116</v>
       </c>
-      <c r="C342" s="21">
-        <v>3</v>
-      </c>
-      <c r="D342" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" s="20"/>
-    </row>
-    <row r="343" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="11">
+        <v>3</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="5"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
-      <c r="B343" s="19" t="s">
+      <c r="B343" t="s">
         <v>108</v>
       </c>
-      <c r="C343" s="21">
-        <v>3</v>
-      </c>
-      <c r="D343" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E343" s="20">
+      <c r="C343" s="11">
+        <v>3</v>
+      </c>
+      <c r="D343" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
-      <c r="B344" s="19" t="s">
+      <c r="B344" t="s">
         <v>109</v>
       </c>
-      <c r="C344" s="21">
-        <v>5</v>
-      </c>
-      <c r="D344" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E344" s="20">
+      <c r="C344" s="11">
+        <v>5</v>
+      </c>
+      <c r="D344" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E344" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
-      <c r="B345" s="19" t="s">
+      <c r="B345" t="s">
         <v>113</v>
       </c>
-      <c r="C345" s="21">
+      <c r="C345" s="11">
         <v>1.5</v>
       </c>
-      <c r="D345" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E345" s="20"/>
-    </row>
-    <row r="346" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D345" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
-      <c r="B346" s="19" t="s">
+      <c r="B346" t="s">
         <v>114</v>
       </c>
-      <c r="C346" s="21">
+      <c r="C346" s="11">
         <v>4</v>
       </c>
-      <c r="D346" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E346" s="20">
+      <c r="D346" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="19" t="s">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
         <v>108</v>
       </c>
-      <c r="C347" s="21">
-        <v>3</v>
-      </c>
-      <c r="D347" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E347" s="20">
+      <c r="C347" s="11">
+        <v>3</v>
+      </c>
+      <c r="D347" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="19" t="s">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
         <v>115</v>
       </c>
-      <c r="C348" s="21">
-        <v>5</v>
-      </c>
-      <c r="D348" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E348" s="20">
+      <c r="C348" s="11">
+        <v>5</v>
+      </c>
+      <c r="D348" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E349" s="20"/>
-    </row>
-    <row r="350" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C349"/>
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B350" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C350" s="21"/>
-      <c r="E350" s="20"/>
-    </row>
-    <row r="351" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B351" s="21">
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="11">
         <f>C336+C337+C338+C345+C346</f>
         <v>11</v>
       </c>
-      <c r="C351" s="21"/>
-      <c r="E351" s="20"/>
+      <c r="E351" s="5"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B352" s="21">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" s="11">
         <f>C348+C347+C342+C340</f>
         <v>13</v>
       </c>
-      <c r="C352" s="21"/>
-      <c r="D352" s="19"/>
-      <c r="E352" s="20"/>
+      <c r="E352" s="5"/>
     </row>
     <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B353" s="13">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" s="12">
         <v>13</v>
       </c>
-      <c r="C353" s="21"/>
-      <c r="D353" s="19"/>
-      <c r="E353" s="20"/>
-    </row>
-    <row r="354" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
-      <c r="B354" s="14">
+      <c r="B354" s="13">
         <f>SUM(B351:B353)</f>
         <v>37</v>
       </c>
-      <c r="C354" s="14"/>
-      <c r="D354" s="14"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="23" t="s">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C355"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B356" s="24">
+      <c r="B356" s="18">
         <f>B354+B326+B285+B249+B205+B168+B131+B100+B63+B38+B16</f>
         <v>395.55</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="19"/>
-      <c r="B365" s="19"/>
-      <c r="C365" s="21"/>
-      <c r="D365" s="19"/>
-      <c r="E365" s="19"/>
+      <c r="C356"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C357"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C358"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C359"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="16"/>
+      <c r="C366" s="14"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="16"/>
+      <c r="C367" s="14"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="16"/>
+      <c r="C368" s="14"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="16"/>
+      <c r="C369" s="14"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
@@ -5553,10 +5590,10 @@
       <c r="B370" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C370" s="17" t="s">
+      <c r="C370" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D370" s="17" t="s">
+      <c r="D370" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E370" s="8" t="s">
@@ -5567,83 +5604,82 @@
       <c r="A371" s="1">
         <v>44832</v>
       </c>
-      <c r="B371" s="19" t="s">
+      <c r="B371" t="s">
         <v>120</v>
       </c>
-      <c r="C371" s="21">
-        <v>3</v>
-      </c>
-      <c r="D371" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E371" s="20"/>
+      <c r="C371" s="11">
+        <v>3</v>
+      </c>
+      <c r="D371" t="s">
+        <v>3</v>
+      </c>
+      <c r="E371" s="5"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="19"/>
-      <c r="B372" s="19" t="s">
+      <c r="B372" t="s">
         <v>120</v>
       </c>
-      <c r="C372" s="21">
-        <v>3</v>
-      </c>
-      <c r="D372" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E372" s="20"/>
+      <c r="C372" s="11">
+        <v>3</v>
+      </c>
+      <c r="D372" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="5"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
-      <c r="B373" s="19" t="s">
+      <c r="B373" t="s">
         <v>120</v>
       </c>
-      <c r="C373" s="21">
-        <v>3</v>
-      </c>
-      <c r="D373" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E373" s="20"/>
+      <c r="C373" s="11">
+        <v>3</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="5"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
-      <c r="B374" s="19" t="s">
+      <c r="B374" t="s">
         <v>65</v>
       </c>
-      <c r="C374" s="21">
-        <v>3</v>
-      </c>
-      <c r="D374" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E374" s="20"/>
+      <c r="C374" s="11">
+        <v>3</v>
+      </c>
+      <c r="D374" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" s="5"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B375" s="19" t="s">
+      <c r="B375" t="s">
         <v>122</v>
       </c>
-      <c r="C375" s="21">
-        <v>3</v>
-      </c>
-      <c r="D375" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E375" s="20">
+      <c r="C375" s="11">
+        <v>3</v>
+      </c>
+      <c r="D375" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B376" s="19" t="s">
+      <c r="B376" t="s">
         <v>122</v>
       </c>
-      <c r="C376" s="12">
+      <c r="C376" s="11">
         <v>3</v>
       </c>
       <c r="D376" t="s">
         <v>7</v>
       </c>
-      <c r="E376" s="20">
+      <c r="E376" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5651,330 +5687,315 @@
       <c r="A377" s="1">
         <v>44839</v>
       </c>
-      <c r="B377" s="19" t="s">
+      <c r="B377" t="s">
         <v>119</v>
       </c>
-      <c r="C377" s="21">
-        <v>2</v>
-      </c>
-      <c r="D377" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E377" s="20"/>
+      <c r="C377" s="11">
+        <v>2</v>
+      </c>
+      <c r="D377" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E377" s="5"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
-      <c r="B378" s="19" t="s">
+      <c r="B378" t="s">
         <v>123</v>
       </c>
-      <c r="C378" s="21">
-        <v>2</v>
-      </c>
-      <c r="D378" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E378" s="20">
+      <c r="C378" s="11">
+        <v>2</v>
+      </c>
+      <c r="D378" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E378" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
-      <c r="B379" s="19" t="s">
+      <c r="B379" t="s">
         <v>123</v>
       </c>
-      <c r="C379" s="21">
-        <v>2</v>
-      </c>
-      <c r="D379" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E379" s="20">
+      <c r="C379" s="11">
+        <v>2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
-      <c r="B380" s="19" t="s">
+      <c r="B380" t="s">
         <v>119</v>
       </c>
-      <c r="C380" s="21">
-        <v>2</v>
-      </c>
-      <c r="D380" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E380" s="20"/>
+      <c r="C380" s="11">
+        <v>2</v>
+      </c>
+      <c r="D380" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380" s="5"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B381" s="19" t="s">
+      <c r="B381" t="s">
         <v>118</v>
       </c>
-      <c r="C381" s="21">
-        <v>3</v>
-      </c>
-      <c r="D381" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E381" s="20"/>
+      <c r="C381" s="11">
+        <v>3</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" s="5"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
-      <c r="B382" s="19" t="s">
+      <c r="B382" t="s">
         <v>121</v>
       </c>
-      <c r="C382" s="21">
-        <v>3</v>
-      </c>
-      <c r="D382" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E382" s="20"/>
+      <c r="C382" s="11">
+        <v>3</v>
+      </c>
+      <c r="D382" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E382" s="5"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="19"/>
-      <c r="B383" s="19" t="s">
+      <c r="B383" t="s">
         <v>123</v>
       </c>
-      <c r="C383" s="21">
-        <v>3</v>
-      </c>
-      <c r="D383" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E383" s="20">
+      <c r="C383" s="11">
+        <v>3</v>
+      </c>
+      <c r="D383" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="19"/>
-      <c r="B384" s="19" t="s">
+      <c r="B384" t="s">
         <v>123</v>
       </c>
-      <c r="C384" s="21">
-        <v>3</v>
-      </c>
-      <c r="D384" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E384" s="20">
+      <c r="C384" s="11">
+        <v>3</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44845</v>
       </c>
-      <c r="B385" s="19" t="s">
+      <c r="B385" t="s">
         <v>124</v>
       </c>
-      <c r="C385" s="21">
-        <v>3</v>
-      </c>
-      <c r="D385" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E385" s="20"/>
-    </row>
-    <row r="386" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="19" t="s">
+      <c r="C385" s="11">
+        <v>3</v>
+      </c>
+      <c r="D385" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E385" s="5"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
         <v>124</v>
       </c>
-      <c r="C386" s="21">
-        <v>3</v>
-      </c>
-      <c r="D386" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E386" s="20"/>
-    </row>
-    <row r="387" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="19" t="s">
+      <c r="C386" s="11">
+        <v>3</v>
+      </c>
+      <c r="D386" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
         <v>124</v>
       </c>
-      <c r="C387" s="21">
-        <v>3</v>
-      </c>
-      <c r="D387" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E387" s="20"/>
-    </row>
-    <row r="388" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="11">
+        <v>3</v>
+      </c>
+      <c r="D387" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44850</v>
       </c>
-      <c r="B388" s="19" t="s">
+      <c r="B388" t="s">
         <v>125</v>
       </c>
-      <c r="C388" s="21">
-        <v>2</v>
-      </c>
-      <c r="D388" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E388" s="20"/>
-      <c r="F388" s="25"/>
-    </row>
-    <row r="389" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="19" t="s">
+      <c r="C388" s="11">
+        <v>2</v>
+      </c>
+      <c r="D388" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
         <v>125</v>
       </c>
-      <c r="C389" s="21">
-        <v>2</v>
-      </c>
-      <c r="D389" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E389" s="20"/>
-    </row>
-    <row r="390" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="19" t="s">
+      <c r="C389" s="11">
+        <v>2</v>
+      </c>
+      <c r="D389" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
         <v>125</v>
       </c>
-      <c r="C390" s="21">
-        <v>2</v>
-      </c>
-      <c r="D390" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E390" s="20"/>
-    </row>
-    <row r="391" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="11">
+        <v>2</v>
+      </c>
+      <c r="D390" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="5"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44851</v>
       </c>
-      <c r="B391" s="19" t="s">
+      <c r="B391" t="s">
         <v>126</v>
       </c>
-      <c r="C391" s="21">
-        <v>2</v>
-      </c>
-      <c r="D391" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E391" s="20"/>
-    </row>
-    <row r="392" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="19" t="s">
+      <c r="C391" s="11">
+        <v>2</v>
+      </c>
+      <c r="D391" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>126</v>
       </c>
-      <c r="C392" s="21">
-        <v>2</v>
-      </c>
-      <c r="D392" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E392" s="20"/>
-    </row>
-    <row r="393" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="19" t="s">
+      <c r="C392" s="11">
+        <v>2</v>
+      </c>
+      <c r="D392" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
         <v>126</v>
       </c>
-      <c r="C393" s="21">
-        <v>2</v>
-      </c>
-      <c r="D393" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E393" s="20"/>
-    </row>
-    <row r="394" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C394" s="21"/>
-      <c r="E394" s="20"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="19"/>
-      <c r="B395" s="19"/>
-      <c r="C395" s="19"/>
-      <c r="D395" s="19"/>
-      <c r="E395" s="20"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C393" s="11">
+        <v>2</v>
+      </c>
+      <c r="D393" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C395"/>
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C396" s="21"/>
-      <c r="D396" s="19"/>
-      <c r="E396" s="20"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B397" s="21">
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" s="11">
         <f>C372+C375+C378+C383+C386+C389+C392</f>
         <v>18</v>
       </c>
-      <c r="C397" s="21"/>
-      <c r="D397" s="19"/>
-      <c r="E397" s="20"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B398" s="21">
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="11">
         <f>C373+C376+C379+C384+C381+C387+C390+C393</f>
         <v>21</v>
       </c>
-      <c r="C398" s="21"/>
-      <c r="D398" s="19"/>
-      <c r="E398" s="20"/>
-    </row>
-    <row r="399" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B399" s="13">
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" s="12">
         <f>C371+C374+C377+C380+C382+C385+C388+C391</f>
         <v>20</v>
       </c>
-      <c r="C399" s="21"/>
-      <c r="D399" s="19"/>
-      <c r="E399" s="20"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
-      <c r="B400" s="26">
+      <c r="B400" s="19">
         <f>SUM(B397:B399)</f>
         <v>59</v>
       </c>
-      <c r="C400" s="14"/>
-      <c r="D400" s="14"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="13"/>
       <c r="E400" s="6"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="16"/>
+      <c r="C406" s="14"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="16"/>
+      <c r="C407" s="14"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="16"/>
+      <c r="C408" s="14"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="16"/>
+      <c r="C409" s="14"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
@@ -5985,10 +6006,10 @@
       <c r="B410" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C410" s="17" t="s">
+      <c r="C410" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D410" s="17" t="s">
+      <c r="D410" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E410" s="8" t="s">
@@ -5999,46 +6020,45 @@
       <c r="A411" s="1">
         <v>44852</v>
       </c>
-      <c r="B411" s="19" t="s">
+      <c r="B411" t="s">
         <v>127</v>
       </c>
-      <c r="C411" s="21">
+      <c r="C411" s="11">
         <v>1.5</v>
       </c>
-      <c r="D411" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E411" s="20">
+      <c r="D411" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="19"/>
-      <c r="B412" s="19" t="s">
+      <c r="B412" t="s">
         <v>127</v>
       </c>
-      <c r="C412" s="21">
+      <c r="C412" s="11">
         <v>1.5</v>
       </c>
-      <c r="D412" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E412" s="20">
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
-      <c r="B413" s="19" t="s">
+      <c r="B413" t="s">
         <v>65</v>
       </c>
-      <c r="C413" s="21">
+      <c r="C413" s="11">
         <v>1.5</v>
       </c>
-      <c r="D413" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E413" s="20">
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" s="5">
         <v>21</v>
       </c>
     </row>
@@ -6046,46 +6066,44 @@
       <c r="A414" s="1">
         <v>44853</v>
       </c>
-      <c r="B414" s="19" t="s">
+      <c r="B414" t="s">
         <v>127</v>
       </c>
-      <c r="C414" s="21">
+      <c r="C414" s="11">
         <v>2.5</v>
       </c>
-      <c r="D414" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E414" s="20">
+      <c r="D414" t="s">
+        <v>5</v>
+      </c>
+      <c r="E414" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="19"/>
-      <c r="B415" s="19" t="s">
+      <c r="B415" t="s">
         <v>127</v>
       </c>
-      <c r="C415" s="21">
+      <c r="C415" s="11">
         <v>2.5</v>
       </c>
-      <c r="D415" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E415" s="20">
+      <c r="D415" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="19"/>
-      <c r="B416" s="19" t="s">
+      <c r="B416" t="s">
         <v>128</v>
       </c>
-      <c r="C416" s="21">
+      <c r="C416" s="11">
         <v>2.5</v>
       </c>
-      <c r="D416" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E416" s="20">
+      <c r="D416" t="s">
+        <v>3</v>
+      </c>
+      <c r="E416" s="5">
         <v>21</v>
       </c>
     </row>
@@ -6093,46 +6111,46 @@
       <c r="A417" s="1">
         <v>44878</v>
       </c>
-      <c r="B417" s="19" t="s">
+      <c r="B417" t="s">
         <v>132</v>
       </c>
-      <c r="C417" s="21">
-        <v>3</v>
-      </c>
-      <c r="D417" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E417" s="20">
+      <c r="C417" s="11">
+        <v>3</v>
+      </c>
+      <c r="D417" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E417" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
-      <c r="B418" s="19" t="s">
+      <c r="B418" t="s">
         <v>129</v>
       </c>
-      <c r="C418" s="21">
-        <v>3</v>
-      </c>
-      <c r="D418" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E418" s="20">
+      <c r="C418" s="11">
+        <v>3</v>
+      </c>
+      <c r="D418" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
-      <c r="B419" s="19" t="s">
+      <c r="B419" t="s">
         <v>129</v>
       </c>
-      <c r="C419" s="21">
-        <v>3</v>
-      </c>
-      <c r="D419" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E419" s="20">
+      <c r="C419" s="11">
+        <v>3</v>
+      </c>
+      <c r="D419" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="5">
         <v>17</v>
       </c>
     </row>
@@ -6140,58 +6158,57 @@
       <c r="B420" t="s">
         <v>140</v>
       </c>
-      <c r="C420" s="12">
+      <c r="C420" s="11">
         <v>1.5</v>
       </c>
-      <c r="D420" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E420" s="20"/>
+      <c r="D420" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" s="5"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44879</v>
       </c>
-      <c r="B421" s="19" t="s">
+      <c r="B421" t="s">
         <v>131</v>
       </c>
-      <c r="C421" s="21">
+      <c r="C421" s="11">
         <v>3.5</v>
       </c>
-      <c r="D421" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E421" s="20">
+      <c r="D421" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="19"/>
-      <c r="B422" s="19" t="s">
+      <c r="B422" t="s">
         <v>133</v>
       </c>
-      <c r="C422" s="21">
-        <v>3</v>
-      </c>
-      <c r="D422" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E422" s="20">
+      <c r="C422" s="11">
+        <v>3</v>
+      </c>
+      <c r="D422" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
-      <c r="B423" s="19" t="s">
+      <c r="B423" t="s">
         <v>130</v>
       </c>
-      <c r="C423" s="21">
-        <v>3</v>
-      </c>
-      <c r="D423" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E423" s="20">
+      <c r="C423" s="11">
+        <v>3</v>
+      </c>
+      <c r="D423" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E423" s="5">
         <v>20</v>
       </c>
     </row>
@@ -6202,28 +6219,27 @@
       <c r="B424" t="s">
         <v>136</v>
       </c>
-      <c r="C424" s="21">
-        <v>3</v>
-      </c>
-      <c r="D424" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E424" s="20">
+      <c r="C424" s="11">
+        <v>3</v>
+      </c>
+      <c r="D424" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="19"/>
-      <c r="B425" s="19" t="s">
+      <c r="B425" t="s">
         <v>136</v>
       </c>
-      <c r="C425" s="21">
-        <v>3</v>
-      </c>
-      <c r="D425" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E425" s="20">
+      <c r="C425" s="11">
+        <v>3</v>
+      </c>
+      <c r="D425" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="5">
         <v>26</v>
       </c>
     </row>
@@ -6231,30 +6247,30 @@
       <c r="B426" t="s">
         <v>138</v>
       </c>
-      <c r="C426" s="12">
-        <v>3</v>
-      </c>
-      <c r="D426" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E426" s="20">
+      <c r="C426" s="11">
+        <v>3</v>
+      </c>
+      <c r="D426" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E426" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44885</v>
       </c>
       <c r="B427" t="s">
         <v>134</v>
       </c>
-      <c r="C427" s="12">
+      <c r="C427" s="11">
         <v>1.5</v>
       </c>
-      <c r="D427" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E427" s="20">
+      <c r="D427" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="5">
         <v>25</v>
       </c>
     </row>
@@ -6262,13 +6278,13 @@
       <c r="B428" t="s">
         <v>142</v>
       </c>
-      <c r="C428" s="12">
-        <v>2</v>
-      </c>
-      <c r="D428" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E428" s="20">
+      <c r="C428" s="11">
+        <v>2</v>
+      </c>
+      <c r="D428" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" s="5">
         <v>23</v>
       </c>
     </row>
@@ -6276,13 +6292,13 @@
       <c r="B429" t="s">
         <v>141</v>
       </c>
-      <c r="C429" s="12">
-        <v>2</v>
-      </c>
-      <c r="D429" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E429" s="20">
+      <c r="C429" s="11">
+        <v>2</v>
+      </c>
+      <c r="D429" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E429" s="5">
         <v>28</v>
       </c>
     </row>
@@ -6293,13 +6309,13 @@
       <c r="B430" t="s">
         <v>135</v>
       </c>
-      <c r="C430" s="12">
-        <v>3</v>
-      </c>
-      <c r="D430" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E430" s="20">
+      <c r="C430" s="11">
+        <v>3</v>
+      </c>
+      <c r="D430" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="5">
         <v>9</v>
       </c>
     </row>
@@ -6307,13 +6323,13 @@
       <c r="B431" t="s">
         <v>137</v>
       </c>
-      <c r="C431" s="12">
-        <v>2</v>
-      </c>
-      <c r="D431" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E431" s="20">
+      <c r="C431" s="11">
+        <v>2</v>
+      </c>
+      <c r="D431" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E431" s="5">
         <v>27</v>
       </c>
     </row>
@@ -6321,16 +6337,16 @@
       <c r="B432" t="s">
         <v>139</v>
       </c>
-      <c r="C432" s="12">
-        <v>2</v>
-      </c>
-      <c r="D432" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E432" s="20"/>
+      <c r="C432" s="11">
+        <v>2</v>
+      </c>
+      <c r="D432" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E432" s="5"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E433" s="20"/>
+      <c r="E433" s="5"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
@@ -6339,88 +6355,73 @@
       <c r="B434" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C434" s="21"/>
-      <c r="D434" s="19"/>
-      <c r="E434" s="20"/>
+      <c r="E434" s="5"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B435" s="21">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" s="11">
         <f>C411+C414+C418+C423+C425+C431+C429</f>
         <v>17</v>
       </c>
-      <c r="C435" s="21"/>
-      <c r="D435" s="19"/>
-      <c r="E435" s="20"/>
+      <c r="E435" s="5"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B436" s="21">
+      <c r="A436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436" s="11">
         <f>C412+C415+C419+C422+C420+C424+C430+C427</f>
         <v>19</v>
       </c>
-      <c r="C436" s="21"/>
-      <c r="D436" s="19"/>
-      <c r="E436" s="20"/>
+      <c r="E436" s="5"/>
     </row>
     <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B437" s="13">
+      <c r="A437" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="12">
         <f>C413+C416+C417+C421+C426+C428+C432</f>
         <v>17.5</v>
       </c>
-      <c r="C437" s="21"/>
-      <c r="D437" s="19"/>
-      <c r="E437" s="20"/>
+      <c r="E437" s="5"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="4"/>
-      <c r="B438" s="26">
+      <c r="B438" s="19">
         <f>SUM(B435:B437)</f>
         <v>53.5</v>
       </c>
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
       <c r="E438" s="6"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A443" s="19"/>
-      <c r="B443" s="19"/>
-      <c r="C443" s="21"/>
-      <c r="D443" s="19"/>
-      <c r="E443" s="19"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="16"/>
+      <c r="C444" s="14"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="16"/>
+      <c r="C445" s="14"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="16"/>
+      <c r="C446" s="14"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="16"/>
+      <c r="C447" s="14"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
@@ -6431,10 +6432,10 @@
       <c r="B448" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C448" s="17" t="s">
+      <c r="C448" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D448" s="17" t="s">
+      <c r="D448" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E448" s="8" t="s">
@@ -6448,27 +6449,27 @@
       <c r="B449" t="s">
         <v>154</v>
       </c>
-      <c r="C449" s="12">
+      <c r="C449" s="11">
         <v>2</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
       </c>
-      <c r="E449" s="20">
+      <c r="E449" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B450" s="19" t="s">
+      <c r="B450" t="s">
         <v>154</v>
       </c>
-      <c r="C450" s="12">
+      <c r="C450" s="11">
         <v>2</v>
       </c>
       <c r="D450" t="s">
         <v>5</v>
       </c>
-      <c r="E450" s="20">
+      <c r="E450" s="5">
         <v>30</v>
       </c>
     </row>
@@ -6476,46 +6477,45 @@
       <c r="A451" s="1">
         <v>44894</v>
       </c>
-      <c r="B451" s="19" t="s">
+      <c r="B451" t="s">
         <v>143</v>
       </c>
-      <c r="C451" s="21">
-        <v>2</v>
-      </c>
-      <c r="D451" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E451" s="20">
+      <c r="C451" s="11">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>5</v>
+      </c>
+      <c r="E451" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A452" s="19"/>
-      <c r="B452" s="19" t="s">
+      <c r="B452" t="s">
         <v>143</v>
       </c>
-      <c r="C452" s="21">
-        <v>2</v>
-      </c>
-      <c r="D452" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E452" s="20">
+      <c r="C452" s="11">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>7</v>
+      </c>
+      <c r="E452" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
-      <c r="B453" s="19" t="s">
+      <c r="B453" t="s">
         <v>143</v>
       </c>
-      <c r="C453" s="21">
-        <v>2</v>
-      </c>
-      <c r="D453" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E453" s="20">
+      <c r="C453" s="11">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" s="5">
         <v>33</v>
       </c>
     </row>
@@ -6523,13 +6523,13 @@
       <c r="B454" t="s">
         <v>152</v>
       </c>
-      <c r="C454" s="12">
-        <v>2</v>
-      </c>
-      <c r="D454" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E454" s="20">
+      <c r="C454" s="11">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3</v>
+      </c>
+      <c r="E454" s="5">
         <v>29</v>
       </c>
     </row>
@@ -6537,16 +6537,16 @@
       <c r="A455" s="1">
         <v>44895</v>
       </c>
-      <c r="B455" s="19" t="s">
+      <c r="B455" t="s">
         <v>153</v>
       </c>
-      <c r="C455" s="12">
-        <v>2</v>
-      </c>
-      <c r="D455" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E455" s="20">
+      <c r="C455" s="11">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+      <c r="E455" s="5">
         <v>35</v>
       </c>
     </row>
@@ -6554,71 +6554,69 @@
       <c r="B456" t="s">
         <v>153</v>
       </c>
-      <c r="C456" s="21">
+      <c r="C456" s="11">
         <v>2</v>
       </c>
       <c r="D456" t="s">
         <v>5</v>
       </c>
-      <c r="E456" s="20">
+      <c r="E456" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B457" s="19" t="s">
+      <c r="B457" t="s">
         <v>153</v>
       </c>
-      <c r="C457" s="21">
+      <c r="C457" s="11">
         <v>2</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
       </c>
-      <c r="E457" s="20">
+      <c r="E457" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B458" s="19" t="s">
+      <c r="B458" t="s">
         <v>144</v>
       </c>
-      <c r="C458" s="21">
-        <v>3</v>
-      </c>
-      <c r="D458" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E458" s="20">
+      <c r="C458" s="11">
+        <v>3</v>
+      </c>
+      <c r="D458" t="s">
+        <v>5</v>
+      </c>
+      <c r="E458" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A459" s="19"/>
-      <c r="B459" s="19" t="s">
+      <c r="B459" t="s">
         <v>144</v>
       </c>
-      <c r="C459" s="21">
-        <v>3</v>
-      </c>
-      <c r="D459" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E459" s="20">
+      <c r="C459" s="11">
+        <v>3</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A460" s="19"/>
-      <c r="B460" s="19" t="s">
+      <c r="B460" t="s">
         <v>144</v>
       </c>
-      <c r="C460" s="21">
-        <v>3</v>
-      </c>
-      <c r="D460" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E460" s="20">
+      <c r="C460" s="11">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3</v>
+      </c>
+      <c r="E460" s="5">
         <v>35</v>
       </c>
     </row>
@@ -6629,13 +6627,13 @@
       <c r="B461" t="s">
         <v>149</v>
       </c>
-      <c r="C461" s="12">
+      <c r="C461" s="11">
         <v>1.5</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
       </c>
-      <c r="E461" s="20">
+      <c r="E461" s="5">
         <v>9</v>
       </c>
     </row>
@@ -6643,13 +6641,13 @@
       <c r="B462" t="s">
         <v>150</v>
       </c>
-      <c r="C462" s="12">
+      <c r="C462" s="11">
         <v>2</v>
       </c>
       <c r="D462" t="s">
         <v>5</v>
       </c>
-      <c r="E462" s="20">
+      <c r="E462" s="5">
         <v>34</v>
       </c>
     </row>
@@ -6657,76 +6655,75 @@
       <c r="A463" s="1">
         <v>44899</v>
       </c>
-      <c r="B463" s="19" t="s">
+      <c r="B463" t="s">
         <v>145</v>
       </c>
-      <c r="C463" s="21">
+      <c r="C463" s="11">
         <v>1</v>
       </c>
-      <c r="D463" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E463" s="20">
+      <c r="D463" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E463" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
-      <c r="B464" s="19" t="s">
+      <c r="B464" t="s">
         <v>145</v>
       </c>
-      <c r="C464" s="21">
+      <c r="C464" s="11">
         <v>1</v>
       </c>
-      <c r="D464" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E464" s="20">
+      <c r="D464" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E464" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
-      <c r="B465" s="19" t="s">
+      <c r="B465" t="s">
         <v>146</v>
       </c>
-      <c r="C465" s="21">
-        <v>2</v>
-      </c>
-      <c r="D465" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E465" s="20">
+      <c r="C465" s="11">
+        <v>2</v>
+      </c>
+      <c r="D465" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A466" s="19"/>
-      <c r="B466" s="19" t="s">
+      <c r="B466" t="s">
         <v>146</v>
       </c>
-      <c r="C466" s="21">
-        <v>2</v>
-      </c>
-      <c r="D466" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E466" s="20">
+      <c r="C466" s="11">
+        <v>2</v>
+      </c>
+      <c r="D466" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E466" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
-      <c r="B467" s="19" t="s">
+      <c r="B467" t="s">
         <v>147</v>
       </c>
-      <c r="C467" s="21">
+      <c r="C467" s="11">
         <v>3.5</v>
       </c>
-      <c r="D467" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E467" s="20">
+      <c r="D467" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E467" s="5">
         <v>35</v>
       </c>
     </row>
@@ -6734,55 +6731,50 @@
       <c r="A468" s="1">
         <v>44900</v>
       </c>
-      <c r="B468" s="19" t="s">
+      <c r="B468" t="s">
         <v>147</v>
       </c>
-      <c r="C468" s="21">
-        <v>3</v>
-      </c>
-      <c r="D468" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E468" s="20">
+      <c r="C468" s="11">
+        <v>3</v>
+      </c>
+      <c r="D468" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
-      <c r="B469" s="19" t="s">
+      <c r="B469" t="s">
         <v>148</v>
       </c>
-      <c r="C469" s="21">
+      <c r="C469" s="11">
         <v>3.5</v>
       </c>
-      <c r="D469" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E469" s="20">
+      <c r="D469" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A470" s="19"/>
-      <c r="B470" s="19" t="s">
+      <c r="B470" t="s">
         <v>151</v>
       </c>
-      <c r="C470" s="21">
-        <v>2</v>
-      </c>
-      <c r="D470" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E470" s="20">
+      <c r="C470" s="11">
+        <v>2</v>
+      </c>
+      <c r="D470" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E470" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A471" s="19"/>
-      <c r="B471" s="19"/>
-      <c r="C471" s="21"/>
-      <c r="D471" s="19"/>
-      <c r="E471" s="20"/>
+      <c r="E471" s="5"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
@@ -6791,55 +6783,421 @@
       <c r="B472" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C472" s="21"/>
-      <c r="D472" s="19"/>
-      <c r="E472" s="20"/>
+      <c r="E472" s="5"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A473" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B473" s="21">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="11">
         <f>C451+C458+C464+C466+C462+C470+C456+C450</f>
         <v>16</v>
       </c>
-      <c r="C473" s="21"/>
-      <c r="D473" s="19"/>
-      <c r="E473" s="20"/>
+      <c r="E473" s="5"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A474" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B474" s="21">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" s="11">
         <f>C452+C459+C465+C469+C461+C463+C457+C449</f>
         <v>17</v>
       </c>
-      <c r="C474" s="21"/>
-      <c r="D474" s="19"/>
-      <c r="E474" s="20"/>
+      <c r="E474" s="5"/>
     </row>
     <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B475" s="13">
+      <c r="A475" t="s">
+        <v>3</v>
+      </c>
+      <c r="B475" s="12">
         <f>C453+C460+C467+C468+C454+C455</f>
         <v>15.5</v>
       </c>
-      <c r="C475" s="21"/>
-      <c r="D475" s="19"/>
-      <c r="E475" s="20"/>
+      <c r="E475" s="5"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
-      <c r="B476" s="26">
+      <c r="B476" s="19">
         <f>SUM(B473:B475)</f>
         <v>48.5</v>
       </c>
-      <c r="C476" s="14"/>
-      <c r="D476" s="14"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="13"/>
       <c r="E476" s="6"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="3"/>
+      <c r="B481" s="3"/>
+      <c r="C481" s="14"/>
+      <c r="D481" s="3"/>
+      <c r="E481" s="3"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="3"/>
+      <c r="B482" s="3"/>
+      <c r="C482" s="14"/>
+      <c r="D482" s="3"/>
+      <c r="E482" s="3"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="3"/>
+      <c r="B483" s="3"/>
+      <c r="C483" s="14"/>
+      <c r="D483" s="3"/>
+      <c r="E483" s="3"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="3"/>
+      <c r="B484" s="3"/>
+      <c r="C484" s="14"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C485" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D485" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B486" t="s">
+        <v>159</v>
+      </c>
+      <c r="C486" s="11">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>3</v>
+      </c>
+      <c r="E486" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>159</v>
+      </c>
+      <c r="C487" s="11">
+        <v>2</v>
+      </c>
+      <c r="D487" t="s">
+        <v>5</v>
+      </c>
+      <c r="E487" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
+        <v>159</v>
+      </c>
+      <c r="C488" s="11">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+      <c r="E488" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B489" t="s">
+        <v>155</v>
+      </c>
+      <c r="C489" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D489" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
+        <v>155</v>
+      </c>
+      <c r="C490" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D490" t="s">
+        <v>5</v>
+      </c>
+      <c r="E490" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="1"/>
+      <c r="B491" t="s">
+        <v>155</v>
+      </c>
+      <c r="C491" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D491" t="s">
+        <v>3</v>
+      </c>
+      <c r="E491" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B492" t="s">
+        <v>157</v>
+      </c>
+      <c r="C492" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D492" t="s">
+        <v>5</v>
+      </c>
+      <c r="E492" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+      <c r="B493" t="s">
+        <v>157</v>
+      </c>
+      <c r="C493" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
+        <v>160</v>
+      </c>
+      <c r="C494" s="11">
+        <v>4</v>
+      </c>
+      <c r="D494" t="s">
+        <v>3</v>
+      </c>
+      <c r="E494" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B495" t="s">
+        <v>156</v>
+      </c>
+      <c r="C495" s="11">
+        <v>3</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" s="5"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
+        <v>158</v>
+      </c>
+      <c r="C496" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D496" t="s">
+        <v>5</v>
+      </c>
+      <c r="E496" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>160</v>
+      </c>
+      <c r="C497" s="11">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s">
+        <v>3</v>
+      </c>
+      <c r="E497" s="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B498" t="s">
+        <v>159</v>
+      </c>
+      <c r="C498" s="11">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>3</v>
+      </c>
+      <c r="E498" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>159</v>
+      </c>
+      <c r="C499" s="11">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+      <c r="E499" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
+        <v>159</v>
+      </c>
+      <c r="C500" s="11">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>5</v>
+      </c>
+      <c r="E500" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B501" t="s">
+        <v>156</v>
+      </c>
+      <c r="C501" s="11">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+      <c r="E501" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B502" t="s">
+        <v>156</v>
+      </c>
+      <c r="C502" s="11">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s">
+        <v>5</v>
+      </c>
+      <c r="E502" s="5"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D503" s="16"/>
+      <c r="E503" s="5"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="1"/>
+      <c r="D504" s="16"/>
+      <c r="E504" s="5"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+      <c r="D505" s="16"/>
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="1"/>
+      <c r="D506" s="16"/>
+      <c r="E506" s="5"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D507" s="16"/>
+      <c r="E507" s="5"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E508" s="5"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510" s="11">
+        <f>C492+C502+C490+C496+C500+C487</f>
+        <v>13.5</v>
+      </c>
+      <c r="E510" s="5"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" s="11">
+        <f>C489+C493+C495+C501+C499+C488</f>
+        <v>14</v>
+      </c>
+      <c r="E511" s="5"/>
+    </row>
+    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>3</v>
+      </c>
+      <c r="B512" s="12">
+        <f>C486+C491+C494+C498+C497</f>
+        <v>11.5</v>
+      </c>
+      <c r="E512" s="5"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="4"/>
+      <c r="B513" s="19">
+        <f>SUM(B510:B512)</f>
+        <v>39</v>
+      </c>
+      <c r="C513" s="13"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BD5C1-EE01-43E1-AC20-AF8E18B43422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02895A15-B64D-403F-BFA3-76A55348DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,7 +666,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2068,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7041,12 +7040,12 @@
         <v>160</v>
       </c>
       <c r="C497" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
       </c>
-      <c r="E497" s="20">
+      <c r="E497" s="5">
         <v>38</v>
       </c>
     </row>
@@ -7185,7 +7184,7 @@
       </c>
       <c r="B512" s="12">
         <f>C486+C491+C494+C498+C497</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="E512" s="5"/>
     </row>
@@ -7193,7 +7192,7 @@
       <c r="A513" s="4"/>
       <c r="B513" s="19">
         <f>SUM(B510:B512)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02895A15-B64D-403F-BFA3-76A55348DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4793D4CA-A44A-4EC1-9610-E8D1FF8CBFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:E513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+      <selection activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6877,7 +6877,7 @@
         <v>159</v>
       </c>
       <c r="C486" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -6891,7 +6891,7 @@
         <v>159</v>
       </c>
       <c r="C487" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D487" t="s">
         <v>5</v>
@@ -6905,7 +6905,7 @@
         <v>159</v>
       </c>
       <c r="C488" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
@@ -6922,7 +6922,7 @@
         <v>155</v>
       </c>
       <c r="C489" s="11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
@@ -6936,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="C490" s="11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D490" t="s">
         <v>5</v>
@@ -6951,7 +6951,7 @@
         <v>155</v>
       </c>
       <c r="C491" s="11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -6997,7 +6997,7 @@
         <v>160</v>
       </c>
       <c r="C494" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7026,7 +7026,7 @@
         <v>158</v>
       </c>
       <c r="C496" s="11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D496" t="s">
         <v>5</v>
@@ -7040,7 +7040,7 @@
         <v>160</v>
       </c>
       <c r="C497" s="11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7057,7 +7057,7 @@
         <v>159</v>
       </c>
       <c r="C498" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7071,7 +7071,7 @@
         <v>159</v>
       </c>
       <c r="C499" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
@@ -7085,7 +7085,7 @@
         <v>159</v>
       </c>
       <c r="C500" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D500" t="s">
         <v>5</v>
@@ -7116,7 +7116,7 @@
         <v>156</v>
       </c>
       <c r="C502" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D502" t="s">
         <v>5</v>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B510" s="11">
         <f>C492+C502+C490+C496+C500+C487</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="E510" s="5"/>
     </row>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B511" s="11">
         <f>C489+C493+C495+C501+C499+C488</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E511" s="5"/>
     </row>
@@ -7192,7 +7192,7 @@
       <c r="A513" s="4"/>
       <c r="B513" s="19">
         <f>SUM(B510:B512)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4793D4CA-A44A-4EC1-9610-E8D1FF8CBFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996889A8-BD71-41E7-AC93-A8D0ACD36EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -518,6 +518,21 @@
   </si>
   <si>
     <t>Editing Video</t>
+  </si>
+  <si>
+    <t>Working on teaser video</t>
+  </si>
+  <si>
+    <t>Brainstorming 3rd puzzle</t>
+  </si>
+  <si>
+    <t>Finishing 2nd puzzle</t>
+  </si>
+  <si>
+    <t>Implementing 3rd puzzle</t>
+  </si>
+  <si>
+    <t>Bugfixing 3rd puzzle</t>
   </si>
 </sst>
 </file>
@@ -1765,6 +1780,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Textfeld 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496F5C29-2C6A-4205-8AB7-CEC5DBECB698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="87172800"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2065,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E513"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498"/>
+    <sheetView tabSelected="1" topLeftCell="A515" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B536" sqref="B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7198,6 +7273,245 @@
       <c r="D513" s="13"/>
       <c r="E513" s="6"/>
     </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="3"/>
+      <c r="B518" s="3"/>
+      <c r="C518" s="14"/>
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="3"/>
+      <c r="B519" s="3"/>
+      <c r="C519" s="14"/>
+      <c r="D519" s="3"/>
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="3"/>
+      <c r="B520" s="3"/>
+      <c r="C520" s="14"/>
+      <c r="D520" s="3"/>
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="3"/>
+      <c r="B521" s="3"/>
+      <c r="C521" s="14"/>
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C522" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D522" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E522" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B523" t="s">
+        <v>161</v>
+      </c>
+      <c r="C523" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D523" t="s">
+        <v>5</v>
+      </c>
+      <c r="E523" s="5"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" s="1"/>
+      <c r="E525" s="5"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B526" t="s">
+        <v>162</v>
+      </c>
+      <c r="C526" s="11">
+        <v>3</v>
+      </c>
+      <c r="D526" t="s">
+        <v>5</v>
+      </c>
+      <c r="E526" s="5"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" s="1"/>
+      <c r="E527" s="5"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" s="1"/>
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B529" t="s">
+        <v>163</v>
+      </c>
+      <c r="C529" s="11">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>5</v>
+      </c>
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="1"/>
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="1"/>
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B532" t="s">
+        <v>164</v>
+      </c>
+      <c r="C532" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D532" t="s">
+        <v>5</v>
+      </c>
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="1"/>
+      <c r="E533" s="5"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="1"/>
+      <c r="E534" s="5"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B535" t="s">
+        <v>165</v>
+      </c>
+      <c r="C535" s="11">
+        <v>3</v>
+      </c>
+      <c r="D535" t="s">
+        <v>5</v>
+      </c>
+      <c r="E535" s="5"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" s="1"/>
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" s="1"/>
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" s="1"/>
+      <c r="E538" s="5"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" s="1"/>
+      <c r="D540" s="16"/>
+      <c r="E540" s="5"/>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" s="1"/>
+      <c r="D541" s="16"/>
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" s="1"/>
+      <c r="D542" s="16"/>
+      <c r="E542" s="5"/>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" s="1"/>
+      <c r="D543" s="16"/>
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+      <c r="D544" s="16"/>
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" s="1"/>
+      <c r="E545" s="5"/>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>5</v>
+      </c>
+      <c r="B547" s="11">
+        <f>C523+C526+C529+C532+C535</f>
+        <v>15</v>
+      </c>
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B548" s="11"/>
+      <c r="E548" s="5"/>
+    </row>
+    <row r="549" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>3</v>
+      </c>
+      <c r="B549" s="12"/>
+      <c r="E549" s="5"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" s="4"/>
+      <c r="B550" s="19">
+        <f>SUM(B547:B549)</f>
+        <v>15</v>
+      </c>
+      <c r="C550" s="13"/>
+      <c r="D550" s="13"/>
+      <c r="E550" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996889A8-BD71-41E7-AC93-A8D0ACD36EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C2AEEC-50F2-4239-8470-53DBF3CA62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Bugfixing 3rd puzzle</t>
+  </si>
+  <si>
+    <t>Working on 3rd puzzle</t>
+  </si>
+  <si>
+    <t>Working on 2nd puzzle</t>
   </si>
 </sst>
 </file>
@@ -2140,45 +2146,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A515" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B536" sqref="B536"/>
+      <selection activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="14"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2232,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2258,12 +2264,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2278,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2288,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2298,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2302,7 +2308,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>B13+B14+B15</f>
@@ -2311,43 +2317,43 @@
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2387,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2399,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2425,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2437,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2463,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2475,10 +2481,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2487,7 +2493,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2503,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2513,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2523,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2526,43 +2532,43 @@
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="14"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2602,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2614,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2640,7 +2646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2652,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2679,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2706,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2718,14 +2724,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2740,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2750,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2764,7 +2770,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="13">
         <f>B60+B61+B62</f>
@@ -2773,31 +2779,31 @@
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="14"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="14"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="14"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="14"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -2929,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -2941,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -2953,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -2965,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -2977,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -3003,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -3015,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -3065,10 +3071,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -3077,7 +3083,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3087,7 +3093,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3103,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3107,7 +3113,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="13">
         <f>B99+B98+B97</f>
@@ -3116,31 +3122,31 @@
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="14"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="14"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="14"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="14"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -3180,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -3192,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -3204,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -3216,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -3253,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -3307,7 +3313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -3319,7 +3325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -3375,10 +3381,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3403,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3413,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3416,7 +3422,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="13">
         <f>B130+B129+B128</f>
@@ -3425,31 +3431,31 @@
       <c r="C131" s="13"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="14"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="14"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="14"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="14"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3489,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3501,7 +3507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3527,7 +3533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3539,7 +3545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3579,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3591,7 +3597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3603,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3629,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3641,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3667,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3679,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3705,7 +3711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3717,11 +3723,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3730,7 +3736,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3745,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3755,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3758,7 +3764,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="13">
         <f>SUM(B165:B167)</f>
@@ -3767,31 +3773,31 @@
       <c r="C168" s="13"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="14"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="14"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="14"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="14"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3831,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3893,7 +3899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3905,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -3931,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -3943,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -3955,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -3967,35 +3973,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -4004,7 +4010,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4030,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -4034,7 +4040,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="13">
         <f>SUM(B202:B204)</f>
@@ -4043,31 +4049,31 @@
       <c r="C205" s="13"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="14"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="14"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="14"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="14"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -4107,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -4155,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -4234,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -4271,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -4308,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -4320,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -4332,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -4344,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -4356,7 +4362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -4368,7 +4374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -4380,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>82</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>83</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>84</v>
       </c>
@@ -4413,13 +4419,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -4428,7 +4434,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4444,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4454,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -4458,7 +4464,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="13">
         <f>SUM(B246:B248)</f>
@@ -4467,35 +4473,35 @@
       <c r="C249" s="13"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="14"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="14"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="14"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="14"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" t="s">
         <v>87</v>
@@ -4544,7 +4550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" t="s">
         <v>87</v>
@@ -4559,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>91</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>91</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>91</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" t="s">
         <v>92</v>
@@ -4631,7 +4637,7 @@
       </c>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" t="s">
         <v>91</v>
@@ -4646,7 +4652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4661,7 +4667,7 @@
       </c>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>89</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>89</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>89</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" t="s">
         <v>86</v>
@@ -4752,7 +4758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" t="s">
         <v>86</v>
@@ -4767,7 +4773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" t="s">
         <v>86</v>
@@ -4782,7 +4788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>90</v>
       </c>
@@ -4813,11 +4819,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +4832,7 @@
       </c>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -4836,7 +4842,7 @@
       </c>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +4852,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -4856,7 +4862,7 @@
       </c>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="4"/>
       <c r="B285" s="13">
         <f>SUM(B282:B284)</f>
@@ -4866,38 +4872,38 @@
       <c r="D285" s="13"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C286"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="14"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="14"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="14"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="14"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -4944,7 +4950,7 @@
       </c>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -4959,7 +4965,7 @@
       </c>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" t="s">
         <v>97</v>
@@ -4972,7 +4978,7 @@
       </c>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" t="s">
         <v>97</v>
@@ -4985,7 +4991,7 @@
       </c>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -5000,7 +5006,7 @@
       </c>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" t="s">
         <v>105</v>
@@ -5015,7 +5021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" t="s">
         <v>105</v>
@@ -5030,7 +5036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" t="s">
         <v>99</v>
@@ -5043,7 +5049,7 @@
       </c>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -5058,7 +5064,7 @@
       </c>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -5073,7 +5079,7 @@
       </c>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" t="s">
         <v>102</v>
@@ -5101,7 +5107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" t="s">
         <v>102</v>
@@ -5116,7 +5122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" t="s">
         <v>102</v>
@@ -5131,7 +5137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" t="s">
         <v>104</v>
@@ -5146,7 +5152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" t="s">
         <v>104</v>
@@ -5161,7 +5167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" t="s">
         <v>94</v>
@@ -5193,7 +5199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" t="s">
         <v>104</v>
@@ -5208,7 +5214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" t="s">
         <v>104</v>
@@ -5223,7 +5229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -5240,31 +5246,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="D317" s="16"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="D318" s="16"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="D319" s="16"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="D320" s="16"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -5273,7 +5279,7 @@
       </c>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -5283,7 +5289,7 @@
       </c>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -5293,7 +5299,7 @@
       </c>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4"/>
       <c r="B326" s="13">
         <f>SUM(B323:B325)</f>
@@ -5313,38 +5319,38 @@
       <c r="D326" s="13"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C327"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="14"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="14"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="14"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="14"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44711</v>
       </c>
@@ -5376,7 +5382,7 @@
       </c>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>111</v>
       </c>
@@ -5388,7 +5394,7 @@
       </c>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" t="s">
         <v>107</v>
@@ -5437,7 +5443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" t="s">
         <v>116</v>
@@ -5467,7 +5473,7 @@
       </c>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" t="s">
         <v>109</v>
@@ -5499,7 +5505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" t="s">
         <v>113</v>
@@ -5512,7 +5518,7 @@
       </c>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" t="s">
         <v>114</v>
@@ -5527,7 +5533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>108</v>
       </c>
@@ -5541,7 +5547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>115</v>
       </c>
@@ -5555,11 +5561,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C349"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
@@ -5568,7 +5574,7 @@
       </c>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -5578,7 +5584,7 @@
       </c>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5594,7 @@
       </c>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -5597,7 +5603,7 @@
       </c>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="4"/>
       <c r="B354" s="13">
         <f>SUM(B351:B353)</f>
@@ -5607,10 +5613,10 @@
       <c r="D354" s="13"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="17" t="s">
         <v>117</v>
       </c>
@@ -5620,44 +5626,44 @@
       </c>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C357"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C358"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C359"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="14"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="14"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="14"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="14"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44832</v>
       </c>
@@ -5689,7 +5695,7 @@
       </c>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>120</v>
       </c>
@@ -5701,7 +5707,7 @@
       </c>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" t="s">
         <v>120</v>
@@ -5714,7 +5720,7 @@
       </c>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
@@ -5729,7 +5735,7 @@
       </c>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>122</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>122</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44839</v>
       </c>
@@ -5772,7 +5778,7 @@
       </c>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" t="s">
         <v>123</v>
@@ -5787,7 +5793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" t="s">
         <v>123</v>
@@ -5802,7 +5808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
@@ -5817,7 +5823,7 @@
       </c>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>118</v>
       </c>
@@ -5829,7 +5835,7 @@
       </c>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
@@ -5844,7 +5850,7 @@
       </c>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>123</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>123</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44845</v>
       </c>
@@ -5887,7 +5893,7 @@
       </c>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>124</v>
       </c>
@@ -5899,7 +5905,7 @@
       </c>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>124</v>
       </c>
@@ -5911,7 +5917,7 @@
       </c>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44850</v>
       </c>
@@ -5926,7 +5932,7 @@
       </c>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>125</v>
       </c>
@@ -5938,7 +5944,7 @@
       </c>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>125</v>
       </c>
@@ -5950,7 +5956,7 @@
       </c>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44851</v>
       </c>
@@ -5965,7 +5971,7 @@
       </c>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>126</v>
       </c>
@@ -5977,7 +5983,7 @@
       </c>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>126</v>
       </c>
@@ -5989,14 +5995,14 @@
       </c>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C395"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
@@ -6005,7 +6011,7 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -6015,7 +6021,7 @@
       </c>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6031,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -6035,7 +6041,7 @@
       </c>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="4"/>
       <c r="B400" s="19">
         <f>SUM(B397:B399)</f>
@@ -6045,35 +6051,35 @@
       <c r="D400" s="13"/>
       <c r="E400" s="6"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="14"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="14"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="14"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="14"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>0</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>44852</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>127</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" t="s">
         <v>65</v>
@@ -6136,7 +6142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>44853</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>127</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>128</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>44878</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" t="s">
         <v>129</v>
@@ -6213,7 +6219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" t="s">
         <v>129</v>
@@ -6228,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>140</v>
       </c>
@@ -6240,7 +6246,7 @@
       </c>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>44879</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>133</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" t="s">
         <v>130</v>
@@ -6286,7 +6292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>44880</v>
       </c>
@@ -6303,7 +6309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>136</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>138</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>44885</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>142</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>141</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>44886</v>
       </c>
@@ -6393,7 +6399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>137</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>139</v>
       </c>
@@ -6419,10 +6425,10 @@
       </c>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="s">
         <v>1</v>
       </c>
@@ -6431,7 +6437,7 @@
       </c>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -6441,7 +6447,7 @@
       </c>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -6451,7 +6457,7 @@
       </c>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>3</v>
       </c>
@@ -6461,7 +6467,7 @@
       </c>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="4"/>
       <c r="B438" s="19">
         <f>SUM(B435:B437)</f>
@@ -6471,35 +6477,35 @@
       <c r="D438" s="13"/>
       <c r="E438" s="6"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="14"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="14"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="14"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="14"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>0</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>44888</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B450" t="s">
         <v>154</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>44894</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B452" t="s">
         <v>143</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" t="s">
         <v>143</v>
@@ -6593,7 +6599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>152</v>
       </c>
@@ -6607,7 +6613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>44895</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
         <v>153</v>
       </c>
@@ -6638,7 +6644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B457" t="s">
         <v>153</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>144</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
         <v>144</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>144</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>44898</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
         <v>150</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>44899</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" t="s">
         <v>145</v>
@@ -6757,7 +6763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" t="s">
         <v>146</v>
@@ -6772,7 +6778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>146</v>
       </c>
@@ -6786,7 +6792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" t="s">
         <v>147</v>
@@ -6801,7 +6807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>44900</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" t="s">
         <v>148</v>
@@ -6833,7 +6839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>151</v>
       </c>
@@ -6847,10 +6853,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="9" t="s">
         <v>1</v>
       </c>
@@ -6859,7 +6865,7 @@
       </c>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -6869,7 +6875,7 @@
       </c>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -6879,7 +6885,7 @@
       </c>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>3</v>
       </c>
@@ -6889,7 +6895,7 @@
       </c>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="4"/>
       <c r="B476" s="19">
         <f>SUM(B473:B475)</f>
@@ -6899,35 +6905,35 @@
       <c r="D476" s="13"/>
       <c r="E476" s="6"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="14"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="14"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="14"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="14"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="7" t="s">
         <v>0</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>44902</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B487" t="s">
         <v>159</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B488" t="s">
         <v>159</v>
       </c>
@@ -6989,7 +6995,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>44908</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B490" t="s">
         <v>155</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" t="s">
         <v>155</v>
@@ -7035,7 +7041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44909</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" t="s">
         <v>157</v>
@@ -7067,7 +7073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B494" t="s">
         <v>160</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>44912</v>
       </c>
@@ -7096,7 +7102,7 @@
       </c>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B496" t="s">
         <v>158</v>
       </c>
@@ -7110,7 +7116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B497" t="s">
         <v>160</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>44913</v>
       </c>
@@ -7141,7 +7147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B499" t="s">
         <v>159</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B500" t="s">
         <v>159</v>
       </c>
@@ -7169,7 +7175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>44914</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B502" t="s">
         <v>156</v>
       </c>
@@ -7198,33 +7204,33 @@
       </c>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D503" s="16"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="D504" s="16"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="D505" s="16"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="D506" s="16"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D507" s="16"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="9" t="s">
         <v>1</v>
       </c>
@@ -7233,7 +7239,7 @@
       </c>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -7243,7 +7249,7 @@
       </c>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -7253,7 +7259,7 @@
       </c>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>3</v>
       </c>
@@ -7263,7 +7269,7 @@
       </c>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="4"/>
       <c r="B513" s="19">
         <f>SUM(B510:B512)</f>
@@ -7273,35 +7279,35 @@
       <c r="D513" s="13"/>
       <c r="E513" s="6"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="14"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="14"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="14"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="14"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="7" t="s">
         <v>0</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>44933</v>
       </c>
@@ -7333,14 +7339,32 @@
       </c>
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B524" t="s">
+        <v>161</v>
+      </c>
+      <c r="C524" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D524" t="s">
+        <v>7</v>
+      </c>
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
+      <c r="B525" t="s">
+        <v>161</v>
+      </c>
+      <c r="C525" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D525" t="s">
+        <v>3</v>
+      </c>
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>44936</v>
       </c>
@@ -7355,38 +7379,73 @@
       </c>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
+      <c r="B527" t="s">
+        <v>162</v>
+      </c>
+      <c r="C527" s="11">
+        <v>3</v>
+      </c>
+      <c r="D527" t="s">
+        <v>3</v>
+      </c>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
+      <c r="B528" t="s">
+        <v>162</v>
+      </c>
+      <c r="C528" s="11">
+        <v>3</v>
+      </c>
+      <c r="D528" t="s">
+        <v>7</v>
+      </c>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A529" s="1">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B529" t="s">
+        <v>167</v>
+      </c>
+      <c r="C529" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D529" t="s">
+        <v>7</v>
+      </c>
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A530" s="1">
         <v>44937</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B530" t="s">
         <v>163</v>
       </c>
-      <c r="C529" s="11">
-        <v>2</v>
-      </c>
-      <c r="D529" t="s">
-        <v>5</v>
-      </c>
-      <c r="E529" s="5"/>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A530" s="1"/>
+      <c r="C530" s="11">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>5</v>
+      </c>
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
+      <c r="B531" t="s">
+        <v>163</v>
+      </c>
+      <c r="C531" s="11">
+        <v>1</v>
+      </c>
+      <c r="D531" t="s">
+        <v>3</v>
+      </c>
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>44941</v>
       </c>
@@ -7401,15 +7460,33 @@
       </c>
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
+      <c r="B533" t="s">
+        <v>164</v>
+      </c>
+      <c r="C533" s="11">
+        <v>3</v>
+      </c>
+      <c r="D533" t="s">
+        <v>7</v>
+      </c>
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
+      <c r="B534" t="s">
+        <v>164</v>
+      </c>
+      <c r="C534" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D534" t="s">
+        <v>3</v>
+      </c>
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>44942</v>
       </c>
@@ -7424,93 +7501,84 @@
       </c>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
+      <c r="B536" t="s">
+        <v>165</v>
+      </c>
+      <c r="C536" s="11">
+        <v>3</v>
+      </c>
+      <c r="D536" t="s">
+        <v>3</v>
+      </c>
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
+      <c r="B537" t="s">
+        <v>166</v>
+      </c>
+      <c r="C537" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D537" t="s">
+        <v>7</v>
+      </c>
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A539" s="1"/>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A539" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A540" s="1"/>
-      <c r="D540" s="16"/>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540" s="11">
+        <f>C523+C526+C530+C532+C535</f>
+        <v>15</v>
+      </c>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A541" s="1"/>
-      <c r="D541" s="16"/>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" s="11">
+        <f>C537+C533+C529+C528+C524</f>
+        <v>13.5</v>
+      </c>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A542" s="1"/>
-      <c r="D542" s="16"/>
+    <row r="542" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A542" t="s">
+        <v>3</v>
+      </c>
+      <c r="B542" s="12">
+        <f>C536+C534+C531+C527+C525</f>
+        <v>14</v>
+      </c>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A543" s="1"/>
-      <c r="D543" s="16"/>
-      <c r="E543" s="5"/>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A544" s="1"/>
-      <c r="D544" s="16"/>
-      <c r="E544" s="5"/>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A545" s="1"/>
-      <c r="E545" s="5"/>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A546" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B546" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E546" s="5"/>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
-        <v>5</v>
-      </c>
-      <c r="B547" s="11">
-        <f>C523+C526+C529+C532+C535</f>
-        <v>15</v>
-      </c>
-      <c r="E547" s="5"/>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
-        <v>7</v>
-      </c>
-      <c r="B548" s="11"/>
-      <c r="E548" s="5"/>
-    </row>
-    <row r="549" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A549" t="s">
-        <v>3</v>
-      </c>
-      <c r="B549" s="12"/>
-      <c r="E549" s="5"/>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A550" s="4"/>
-      <c r="B550" s="19">
-        <f>SUM(B547:B549)</f>
-        <v>15</v>
-      </c>
-      <c r="C550" s="13"/>
-      <c r="D550" s="13"/>
-      <c r="E550" s="6"/>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A543" s="4"/>
+      <c r="B543" s="19">
+        <f>SUM(B540:B542)</f>
+        <v>42.5</v>
+      </c>
+      <c r="C543" s="13"/>
+      <c r="D543" s="13"/>
+      <c r="E543" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C2AEEC-50F2-4239-8470-53DBF3CA62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234012E7-7B82-452E-B164-C76FCB043C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A515" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+      <selection activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7337,7 +7337,9 @@
       <c r="D523" t="s">
         <v>5</v>
       </c>
-      <c r="E523" s="5"/>
+      <c r="E523" s="5">
+        <v>38</v>
+      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B524" t="s">
@@ -7349,7 +7351,9 @@
       <c r="D524" t="s">
         <v>7</v>
       </c>
-      <c r="E524" s="5"/>
+      <c r="E524" s="5">
+        <v>38</v>
+      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
@@ -7362,7 +7366,9 @@
       <c r="D525" t="s">
         <v>3</v>
       </c>
-      <c r="E525" s="5"/>
+      <c r="E525" s="5">
+        <v>38</v>
+      </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
@@ -7377,7 +7383,9 @@
       <c r="D526" t="s">
         <v>5</v>
       </c>
-      <c r="E526" s="5"/>
+      <c r="E526" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
@@ -7390,7 +7398,9 @@
       <c r="D527" t="s">
         <v>3</v>
       </c>
-      <c r="E527" s="5"/>
+      <c r="E527" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
@@ -7403,7 +7413,9 @@
       <c r="D528" t="s">
         <v>7</v>
       </c>
-      <c r="E528" s="5"/>
+      <c r="E528" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B529" t="s">
@@ -7415,7 +7427,9 @@
       <c r="D529" t="s">
         <v>7</v>
       </c>
-      <c r="E529" s="5"/>
+      <c r="E529" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
@@ -7430,7 +7444,9 @@
       <c r="D530" t="s">
         <v>5</v>
       </c>
-      <c r="E530" s="5"/>
+      <c r="E530" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
@@ -7443,7 +7459,9 @@
       <c r="D531" t="s">
         <v>3</v>
       </c>
-      <c r="E531" s="5"/>
+      <c r="E531" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
@@ -7458,7 +7476,9 @@
       <c r="D532" t="s">
         <v>5</v>
       </c>
-      <c r="E532" s="5"/>
+      <c r="E532" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
@@ -7471,7 +7491,9 @@
       <c r="D533" t="s">
         <v>7</v>
       </c>
-      <c r="E533" s="5"/>
+      <c r="E533" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
@@ -7484,7 +7506,9 @@
       <c r="D534" t="s">
         <v>3</v>
       </c>
-      <c r="E534" s="5"/>
+      <c r="E534" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
@@ -7499,7 +7523,9 @@
       <c r="D535" t="s">
         <v>5</v>
       </c>
-      <c r="E535" s="5"/>
+      <c r="E535" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
@@ -7512,7 +7538,9 @@
       <c r="D536" t="s">
         <v>3</v>
       </c>
-      <c r="E536" s="5"/>
+      <c r="E536" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
@@ -7525,7 +7553,9 @@
       <c r="D537" t="s">
         <v>7</v>
       </c>
-      <c r="E537" s="5"/>
+      <c r="E537" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234012E7-7B82-452E-B164-C76FCB043C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8912D3-62F7-4DF7-9B93-147803FB5BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -535,10 +535,10 @@
     <t>Bugfixing 3rd puzzle</t>
   </si>
   <si>
-    <t>Working on 3rd puzzle</t>
-  </si>
-  <si>
     <t>Working on 2nd puzzle</t>
+  </si>
+  <si>
+    <t>Editing video</t>
   </si>
 </sst>
 </file>
@@ -2146,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E523" sqref="E523"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
-        <v>44933</v>
+        <v>44916</v>
       </c>
       <c r="B523" t="s">
         <v>161</v>
@@ -7418,8 +7418,9 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A529" s="1"/>
       <c r="B529" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C529" s="11">
         <v>2.5</v>
@@ -7465,31 +7466,33 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B532" t="s">
+        <v>167</v>
+      </c>
+      <c r="C532" s="11">
+        <v>2</v>
+      </c>
+      <c r="D532" t="s">
+        <v>3</v>
+      </c>
+      <c r="E532" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A533" s="1">
         <v>44941</v>
       </c>
-      <c r="B532" t="s">
-        <v>164</v>
-      </c>
-      <c r="C532" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="D532" t="s">
-        <v>5</v>
-      </c>
-      <c r="E532" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A533" s="1"/>
       <c r="B533" t="s">
         <v>164</v>
       </c>
       <c r="C533" s="11">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D533" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E533" s="5">
         <v>39</v>
@@ -7501,34 +7504,34 @@
         <v>164</v>
       </c>
       <c r="C534" s="11">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D534" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E534" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A535" s="1">
-        <v>44942</v>
-      </c>
+      <c r="A535" s="1"/>
       <c r="B535" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C535" s="11">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D535" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E535" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A536" s="1"/>
+      <c r="A536" s="1">
+        <v>44942</v>
+      </c>
       <c r="B536" t="s">
         <v>165</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>3</v>
       </c>
       <c r="D536" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E536" s="5">
         <v>39</v>
@@ -7545,13 +7548,13 @@
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C537" s="11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D537" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E537" s="5">
         <v>39</v>
@@ -7559,56 +7562,71 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
-      <c r="E538" s="5"/>
+      <c r="B538" t="s">
+        <v>164</v>
+      </c>
+      <c r="C538" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D538" t="s">
+        <v>7</v>
+      </c>
+      <c r="E538" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A539" s="9" t="s">
+      <c r="A539" s="1"/>
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A540" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B540" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E539" s="5"/>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A540" t="s">
-        <v>5</v>
-      </c>
-      <c r="B540" s="11">
-        <f>C523+C526+C530+C532+C535</f>
-        <v>15</v>
       </c>
       <c r="E540" s="5"/>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B541" s="11">
-        <f>C537+C533+C529+C528+C524</f>
+        <f>C523+C526+C530+C533+C536</f>
+        <v>15</v>
+      </c>
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B542" s="11">
+        <f>C538+C534+C529+C528+C524</f>
         <v>13.5</v>
       </c>
-      <c r="E541" s="5"/>
-    </row>
-    <row r="542" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A542" t="s">
-        <v>3</v>
-      </c>
-      <c r="B542" s="12">
-        <f>C536+C534+C531+C527+C525</f>
-        <v>14</v>
-      </c>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A543" s="4"/>
-      <c r="B543" s="19">
-        <f>SUM(B540:B542)</f>
-        <v>42.5</v>
-      </c>
-      <c r="C543" s="13"/>
-      <c r="D543" s="13"/>
-      <c r="E543" s="6"/>
+    <row r="543" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A543" t="s">
+        <v>3</v>
+      </c>
+      <c r="B543" s="12">
+        <f>C537+C535+C531+C527+C525+C532</f>
+        <v>16</v>
+      </c>
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A544" s="4"/>
+      <c r="B544" s="19">
+        <f>SUM(B541:B543)</f>
+        <v>44.5</v>
+      </c>
+      <c r="C544" s="13"/>
+      <c r="D544" s="13"/>
+      <c r="E544" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8912D3-62F7-4DF7-9B93-147803FB5BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B58B6A-F9F6-4985-B348-5D58C7F498DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>Editing video</t>
+  </si>
+  <si>
+    <t>Discussing the future of the project</t>
+  </si>
+  <si>
+    <t>Brainstorming 4th puzzle</t>
+  </si>
+  <si>
+    <t>Implementing 4th puzzle</t>
+  </si>
+  <si>
+    <t>Reworking 4th puzzle</t>
   </si>
 </sst>
 </file>
@@ -1846,6 +1858,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3223260" cy="512769"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Textfeld 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D845D8D-27F2-4D64-9E97-061C6BB0AF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="95605600"/>
+          <a:ext cx="3223260" cy="512769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800" b="1">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Sprint 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2146,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E544"/>
+  <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B544" sqref="B544"/>
+    <sheetView tabSelected="1" topLeftCell="A543" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7628,6 +7700,226 @@
       <c r="D544" s="13"/>
       <c r="E544" s="6"/>
     </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A549" s="3"/>
+      <c r="B549" s="3"/>
+      <c r="C549" s="14"/>
+      <c r="D549" s="3"/>
+      <c r="E549" s="3"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A550" s="3"/>
+      <c r="B550" s="3"/>
+      <c r="C550" s="14"/>
+      <c r="D550" s="3"/>
+      <c r="E550" s="3"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A551" s="3"/>
+      <c r="B551" s="3"/>
+      <c r="C551" s="14"/>
+      <c r="D551" s="3"/>
+      <c r="E551" s="3"/>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A552" s="3"/>
+      <c r="B552" s="3"/>
+      <c r="C552" s="14"/>
+      <c r="D552" s="3"/>
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A553" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C553" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D553" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E553" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A554" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B554" t="s">
+        <v>168</v>
+      </c>
+      <c r="C554" s="11">
+        <v>3</v>
+      </c>
+      <c r="D554" t="s">
+        <v>7</v>
+      </c>
+      <c r="E554" s="5"/>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E555" s="5"/>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A556" s="1"/>
+      <c r="E556" s="5"/>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A557" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B557" t="s">
+        <v>169</v>
+      </c>
+      <c r="C557" s="11">
+        <v>4</v>
+      </c>
+      <c r="D557" t="s">
+        <v>7</v>
+      </c>
+      <c r="E557" s="5"/>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A558" s="1"/>
+      <c r="E558" s="5"/>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A559" s="1"/>
+      <c r="E559" s="5"/>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A560" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B560" t="s">
+        <v>170</v>
+      </c>
+      <c r="C560" s="11">
+        <v>4</v>
+      </c>
+      <c r="D560" t="s">
+        <v>7</v>
+      </c>
+      <c r="E560" s="5"/>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A561" s="1"/>
+      <c r="E561" s="5"/>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A562" s="1"/>
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E563" s="5"/>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A564" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B564" t="s">
+        <v>156</v>
+      </c>
+      <c r="C564" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D564" t="s">
+        <v>7</v>
+      </c>
+      <c r="E564" s="5"/>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A565" s="1"/>
+      <c r="E565" s="5"/>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A566" s="1"/>
+      <c r="E566" s="5"/>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A567" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B567" t="s">
+        <v>171</v>
+      </c>
+      <c r="C567" s="11">
+        <v>3</v>
+      </c>
+      <c r="D567" t="s">
+        <v>7</v>
+      </c>
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A568" s="1"/>
+      <c r="E568" s="5"/>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A569" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B569" t="s">
+        <v>171</v>
+      </c>
+      <c r="C569" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D569" t="s">
+        <v>7</v>
+      </c>
+      <c r="E569" s="5"/>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A570" s="1"/>
+      <c r="E570" s="5"/>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A571" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>5</v>
+      </c>
+      <c r="B572" s="11"/>
+      <c r="E572" s="5"/>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" s="11">
+        <f>C554+C557+C560+C564+C567+C569</f>
+        <v>20</v>
+      </c>
+      <c r="E573" s="5"/>
+    </row>
+    <row r="574" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A574" t="s">
+        <v>3</v>
+      </c>
+      <c r="B574" s="12"/>
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A575" s="4"/>
+      <c r="B575" s="19">
+        <f>SUM(B572:B574)</f>
+        <v>20</v>
+      </c>
+      <c r="C575" s="13"/>
+      <c r="D575" s="13"/>
+      <c r="E575" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B58B6A-F9F6-4985-B348-5D58C7F498DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB21B3-CFDB-44AE-9413-28A639844772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -551,6 +551,15 @@
   </si>
   <si>
     <t>Reworking 4th puzzle</t>
+  </si>
+  <si>
+    <t>Creating animations</t>
+  </si>
+  <si>
+    <t>Trying to bind animation to character</t>
+  </si>
+  <si>
+    <t>Trying to fix animation bugs</t>
   </si>
 </sst>
 </file>
@@ -2220,43 +2229,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561"/>
+    <sheetView tabSelected="1" topLeftCell="A551" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B575" sqref="B575"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="14"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2310,7 +2319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2336,12 +2345,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -2350,7 +2359,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2369,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2379,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2380,7 +2389,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>B13+B14+B15</f>
@@ -2389,43 +2398,43 @@
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2465,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2477,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2503,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2515,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2541,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2553,10 +2562,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2584,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2594,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2604,43 +2613,43 @@
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="14"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2680,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2692,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2718,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2730,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2757,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2784,7 +2793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2796,14 +2805,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2821,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2831,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2832,7 +2841,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2842,7 +2851,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="13">
         <f>B60+B61+B62</f>
@@ -2851,31 +2860,31 @@
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="14"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="14"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="14"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="14"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -3007,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -3019,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -3031,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -3043,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -3055,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -3081,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -3093,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -3104,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -3143,10 +3152,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3174,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3184,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3194,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="13">
         <f>B99+B98+B97</f>
@@ -3194,31 +3203,31 @@
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="14"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="14"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="14"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="14"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -3258,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -3270,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -3282,7 +3291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -3294,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -3331,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -3385,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -3397,7 +3406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -3453,10 +3462,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +3484,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3503,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="13">
         <f>B130+B129+B128</f>
@@ -3503,31 +3512,31 @@
       <c r="C131" s="13"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="14"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="14"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="14"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="14"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3567,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3579,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3605,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3617,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3657,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3669,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3681,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3707,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3719,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3745,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3757,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3783,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3795,11 +3804,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3808,7 +3817,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3817,7 +3826,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3836,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3845,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="13">
         <f>SUM(B165:B167)</f>
@@ -3845,31 +3854,31 @@
       <c r="C168" s="13"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="14"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="14"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="14"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="14"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3909,7 +3918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3959,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3971,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3983,7 +3992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -3997,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -4009,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -4021,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -4033,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -4045,35 +4054,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -4082,7 +4091,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4111,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4121,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="13">
         <f>SUM(B202:B204)</f>
@@ -4121,31 +4130,31 @@
       <c r="C205" s="13"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="14"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="14"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="14"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="14"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -4173,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -4185,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -4210,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -4233,7 +4242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -4247,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -4312,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -4323,7 +4332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -4349,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -4386,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -4398,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -4410,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -4422,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -4434,7 +4443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -4446,7 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -4458,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>82</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>83</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>84</v>
       </c>
@@ -4491,13 +4500,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -4506,7 +4515,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4525,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -4526,7 +4535,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4545,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="13">
         <f>SUM(B246:B248)</f>
@@ -4545,35 +4554,35 @@
       <c r="C249" s="13"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="14"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="14"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="14"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="14"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4607,7 +4616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" t="s">
         <v>87</v>
@@ -4622,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" t="s">
         <v>87</v>
@@ -4637,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>91</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>91</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>91</v>
       </c>
@@ -4679,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4696,7 +4705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" t="s">
         <v>92</v>
@@ -4709,7 +4718,7 @@
       </c>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" t="s">
         <v>91</v>
@@ -4724,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4739,7 +4748,7 @@
       </c>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>89</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>89</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>89</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4815,7 +4824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" t="s">
         <v>86</v>
@@ -4830,7 +4839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" t="s">
         <v>86</v>
@@ -4845,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" t="s">
         <v>86</v>
@@ -4860,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4877,7 +4886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>90</v>
       </c>
@@ -4891,11 +4900,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4904,7 +4913,7 @@
       </c>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -4914,7 +4923,7 @@
       </c>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -4924,7 +4933,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -4934,7 +4943,7 @@
       </c>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="13">
         <f>SUM(B282:B284)</f>
@@ -4944,38 +4953,38 @@
       <c r="D285" s="13"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C286"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="14"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="14"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="14"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="14"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +5001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -5007,7 +5016,7 @@
       </c>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -5022,7 +5031,7 @@
       </c>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -5037,7 +5046,7 @@
       </c>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" t="s">
         <v>97</v>
@@ -5050,7 +5059,7 @@
       </c>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" t="s">
         <v>97</v>
@@ -5063,7 +5072,7 @@
       </c>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -5078,7 +5087,7 @@
       </c>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" t="s">
         <v>105</v>
@@ -5093,7 +5102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" t="s">
         <v>105</v>
@@ -5108,7 +5117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" t="s">
         <v>99</v>
@@ -5121,7 +5130,7 @@
       </c>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -5136,7 +5145,7 @@
       </c>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -5151,7 +5160,7 @@
       </c>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -5164,7 +5173,7 @@
       </c>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" t="s">
         <v>102</v>
@@ -5179,7 +5188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" t="s">
         <v>102</v>
@@ -5194,7 +5203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" t="s">
         <v>102</v>
@@ -5209,7 +5218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" t="s">
         <v>104</v>
@@ -5224,7 +5233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" t="s">
         <v>104</v>
@@ -5239,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -5256,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" t="s">
         <v>94</v>
@@ -5271,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" t="s">
         <v>104</v>
@@ -5286,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" t="s">
         <v>104</v>
@@ -5301,7 +5310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -5318,31 +5327,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="D317" s="16"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="D318" s="16"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="D319" s="16"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="D320" s="16"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +5360,7 @@
       </c>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -5361,7 +5370,7 @@
       </c>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -5371,7 +5380,7 @@
       </c>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5381,7 +5390,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="13">
         <f>SUM(B323:B325)</f>
@@ -5391,38 +5400,38 @@
       <c r="D326" s="13"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C327"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="14"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="14"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="14"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="14"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -5439,7 +5448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44711</v>
       </c>
@@ -5454,7 +5463,7 @@
       </c>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>111</v>
       </c>
@@ -5466,7 +5475,7 @@
       </c>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" t="s">
         <v>107</v>
@@ -5515,7 +5524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" t="s">
         <v>116</v>
@@ -5545,7 +5554,7 @@
       </c>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" t="s">
         <v>109</v>
@@ -5577,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" t="s">
         <v>113</v>
@@ -5590,7 +5599,7 @@
       </c>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" t="s">
         <v>114</v>
@@ -5605,7 +5614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>108</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>115</v>
       </c>
@@ -5633,11 +5642,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C349"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
@@ -5646,7 +5655,7 @@
       </c>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -5656,7 +5665,7 @@
       </c>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -5666,7 +5675,7 @@
       </c>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -5675,7 +5684,7 @@
       </c>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="13">
         <f>SUM(B351:B353)</f>
@@ -5685,10 +5694,10 @@
       <c r="D354" s="13"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="17" t="s">
         <v>117</v>
       </c>
@@ -5698,44 +5707,44 @@
       </c>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C357"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C358"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C359"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="14"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="14"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="14"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="14"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44832</v>
       </c>
@@ -5767,7 +5776,7 @@
       </c>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>120</v>
       </c>
@@ -5779,7 +5788,7 @@
       </c>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" t="s">
         <v>120</v>
@@ -5792,7 +5801,7 @@
       </c>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
@@ -5807,7 +5816,7 @@
       </c>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>122</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>122</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44839</v>
       </c>
@@ -5850,7 +5859,7 @@
       </c>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" t="s">
         <v>123</v>
@@ -5865,7 +5874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" t="s">
         <v>123</v>
@@ -5880,7 +5889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
@@ -5895,7 +5904,7 @@
       </c>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>118</v>
       </c>
@@ -5907,7 +5916,7 @@
       </c>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
@@ -5922,7 +5931,7 @@
       </c>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>123</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>123</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44845</v>
       </c>
@@ -5965,7 +5974,7 @@
       </c>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>124</v>
       </c>
@@ -5977,7 +5986,7 @@
       </c>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>124</v>
       </c>
@@ -5989,7 +5998,7 @@
       </c>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44850</v>
       </c>
@@ -6004,7 +6013,7 @@
       </c>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>125</v>
       </c>
@@ -6016,7 +6025,7 @@
       </c>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>125</v>
       </c>
@@ -6028,7 +6037,7 @@
       </c>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44851</v>
       </c>
@@ -6043,7 +6052,7 @@
       </c>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>126</v>
       </c>
@@ -6055,7 +6064,7 @@
       </c>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>126</v>
       </c>
@@ -6067,14 +6076,14 @@
       </c>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C395"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
@@ -6083,7 +6092,7 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -6093,7 +6102,7 @@
       </c>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -6103,7 +6112,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -6113,7 +6122,7 @@
       </c>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
       <c r="B400" s="19">
         <f>SUM(B397:B399)</f>
@@ -6123,35 +6132,35 @@
       <c r="D400" s="13"/>
       <c r="E400" s="6"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="14"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="14"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="14"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="14"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44852</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>127</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" t="s">
         <v>65</v>
@@ -6214,7 +6223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44853</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>127</v>
       </c>
@@ -6245,7 +6254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>128</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44878</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" t="s">
         <v>129</v>
@@ -6291,7 +6300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" t="s">
         <v>129</v>
@@ -6306,7 +6315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>140</v>
       </c>
@@ -6318,7 +6327,7 @@
       </c>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44879</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>133</v>
       </c>
@@ -6349,7 +6358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" t="s">
         <v>130</v>
@@ -6364,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44880</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>136</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>138</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44885</v>
       </c>
@@ -6426,7 +6435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>142</v>
       </c>
@@ -6440,7 +6449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>141</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44886</v>
       </c>
@@ -6471,7 +6480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>137</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>139</v>
       </c>
@@ -6497,10 +6506,10 @@
       </c>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
         <v>1</v>
       </c>
@@ -6509,7 +6518,7 @@
       </c>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -6519,7 +6528,7 @@
       </c>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6538,7 @@
       </c>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>3</v>
       </c>
@@ -6539,7 +6548,7 @@
       </c>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="4"/>
       <c r="B438" s="19">
         <f>SUM(B435:B437)</f>
@@ -6549,35 +6558,35 @@
       <c r="D438" s="13"/>
       <c r="E438" s="6"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="14"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="14"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="14"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="14"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +6603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44888</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>154</v>
       </c>
@@ -6625,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44894</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>143</v>
       </c>
@@ -6656,7 +6665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" t="s">
         <v>143</v>
@@ -6671,7 +6680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>152</v>
       </c>
@@ -6685,7 +6694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44895</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>153</v>
       </c>
@@ -6716,7 +6725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>153</v>
       </c>
@@ -6730,7 +6739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>144</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>144</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>144</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44898</v>
       </c>
@@ -6789,7 +6798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>150</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44899</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" t="s">
         <v>145</v>
@@ -6835,7 +6844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" t="s">
         <v>146</v>
@@ -6850,7 +6859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>146</v>
       </c>
@@ -6864,7 +6873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" t="s">
         <v>147</v>
@@ -6879,7 +6888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44900</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" t="s">
         <v>148</v>
@@ -6911,7 +6920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>151</v>
       </c>
@@ -6925,10 +6934,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
         <v>1</v>
       </c>
@@ -6937,7 +6946,7 @@
       </c>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -6947,7 +6956,7 @@
       </c>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -6957,7 +6966,7 @@
       </c>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>3</v>
       </c>
@@ -6967,7 +6976,7 @@
       </c>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
       <c r="B476" s="19">
         <f>SUM(B473:B475)</f>
@@ -6977,35 +6986,35 @@
       <c r="D476" s="13"/>
       <c r="E476" s="6"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="14"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="14"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="14"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="14"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="7" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44902</v>
       </c>
@@ -7039,7 +7048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>159</v>
       </c>
@@ -7053,7 +7062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>159</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44908</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>155</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" t="s">
         <v>155</v>
@@ -7113,7 +7122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44909</v>
       </c>
@@ -7130,7 +7139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" t="s">
         <v>157</v>
@@ -7145,7 +7154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>160</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44912</v>
       </c>
@@ -7174,7 +7183,7 @@
       </c>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>158</v>
       </c>
@@ -7188,7 +7197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>160</v>
       </c>
@@ -7202,7 +7211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44913</v>
       </c>
@@ -7219,7 +7228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>159</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>159</v>
       </c>
@@ -7247,7 +7256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44914</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
         <v>156</v>
       </c>
@@ -7276,33 +7285,33 @@
       </c>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D503" s="16"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="D504" s="16"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="D505" s="16"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="D506" s="16"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D507" s="16"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="9" t="s">
         <v>1</v>
       </c>
@@ -7311,7 +7320,7 @@
       </c>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -7321,7 +7330,7 @@
       </c>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -7331,7 +7340,7 @@
       </c>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +7350,7 @@
       </c>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="B513" s="19">
         <f>SUM(B510:B512)</f>
@@ -7351,35 +7360,35 @@
       <c r="D513" s="13"/>
       <c r="E513" s="6"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="14"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="14"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="14"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="14"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="7" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44916</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>161</v>
       </c>
@@ -7427,7 +7436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" t="s">
         <v>161</v>
@@ -7442,7 +7451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44936</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" t="s">
         <v>162</v>
@@ -7474,7 +7483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" t="s">
         <v>162</v>
@@ -7489,7 +7498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" t="s">
         <v>166</v>
@@ -7504,7 +7513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44937</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" t="s">
         <v>163</v>
@@ -7536,7 +7545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44938</v>
       </c>
@@ -7553,7 +7562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44941</v>
       </c>
@@ -7570,7 +7579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" t="s">
         <v>164</v>
@@ -7585,7 +7594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" t="s">
         <v>164</v>
@@ -7600,7 +7609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44942</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" t="s">
         <v>165</v>
@@ -7632,7 +7641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" t="s">
         <v>164</v>
@@ -7647,11 +7656,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="9" t="s">
         <v>1</v>
       </c>
@@ -7660,7 +7669,7 @@
       </c>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -7670,7 +7679,7 @@
       </c>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7689,7 @@
       </c>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>3</v>
       </c>
@@ -7690,7 +7699,7 @@
       </c>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="4"/>
       <c r="B544" s="19">
         <f>SUM(B541:B543)</f>
@@ -7700,35 +7709,35 @@
       <c r="D544" s="13"/>
       <c r="E544" s="6"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="14"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="14"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="14"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="14"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="7" t="s">
         <v>0</v>
       </c>
@@ -7745,7 +7754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44950</v>
       </c>
@@ -7760,14 +7769,23 @@
       </c>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B555" t="s">
+        <v>168</v>
+      </c>
+      <c r="C555" s="11">
+        <v>3</v>
+      </c>
+      <c r="D555" t="s">
+        <v>3</v>
+      </c>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44951</v>
       </c>
@@ -7782,15 +7800,24 @@
       </c>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
+      <c r="B558" t="s">
+        <v>169</v>
+      </c>
+      <c r="C558" s="11">
+        <v>4</v>
+      </c>
+      <c r="D558" t="s">
+        <v>3</v>
+      </c>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44956</v>
       </c>
@@ -7805,18 +7832,27 @@
       </c>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
+      <c r="B561" t="s">
+        <v>172</v>
+      </c>
+      <c r="C561" s="11">
+        <v>5</v>
+      </c>
+      <c r="D561" t="s">
+        <v>3</v>
+      </c>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44958</v>
       </c>
@@ -7831,15 +7867,24 @@
       </c>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
+      <c r="B565" t="s">
+        <v>173</v>
+      </c>
+      <c r="C565" s="11">
+        <v>3</v>
+      </c>
+      <c r="D565" t="s">
+        <v>3</v>
+      </c>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44962</v>
       </c>
@@ -7854,11 +7899,20 @@
       </c>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
+      <c r="B568" t="s">
+        <v>174</v>
+      </c>
+      <c r="C568" s="11">
+        <v>2</v>
+      </c>
+      <c r="D568" t="s">
+        <v>3</v>
+      </c>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44963</v>
       </c>
@@ -7873,11 +7927,20 @@
       </c>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
+      <c r="B570" t="s">
+        <v>174</v>
+      </c>
+      <c r="C570" s="11">
+        <v>4</v>
+      </c>
+      <c r="D570" t="s">
+        <v>3</v>
+      </c>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="9" t="s">
         <v>1</v>
       </c>
@@ -7886,14 +7949,14 @@
       </c>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>5</v>
       </c>
       <c r="B572" s="11"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -7903,18 +7966,21 @@
       </c>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>3</v>
       </c>
-      <c r="B574" s="12"/>
+      <c r="B574" s="12">
+        <f>C555+C558+C561+C565+C570+C568</f>
+        <v>21</v>
+      </c>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="4"/>
       <c r="B575" s="19">
         <f>SUM(B572:B574)</f>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amels\OneDrive\Desktop\HTL\SYP\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB21B3-CFDB-44AE-9413-28A639844772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB8311-CA6B-46E0-AC2B-418884CE2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -2230,42 +2230,42 @@
   <dimension ref="A1:E575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A551" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B575" sqref="B575"/>
+      <selection activeCell="C556" sqref="C556"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="14"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2345,12 +2345,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>B13+B14+B15</f>
@@ -2398,43 +2398,43 @@
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2486,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2550,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2562,10 +2562,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2613,43 +2613,43 @@
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="14"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2701,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2739,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2766,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2793,7 +2793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2805,14 +2805,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="13">
         <f>B60+B61+B62</f>
@@ -2860,31 +2860,31 @@
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="14"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="14"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="14"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="14"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -3016,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -3040,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -3052,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -3064,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -3090,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -3102,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -3152,10 +3152,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="13">
         <f>B99+B98+B97</f>
@@ -3203,31 +3203,31 @@
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="14"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="14"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="14"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="14"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -3267,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -3279,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v>
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>40</v>
@@ -3303,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>44</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44601</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -3340,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44603</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44604</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44605</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>43</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>44</v>
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44613</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44617</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44618</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44619</v>
       </c>
@@ -3462,10 +3462,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="13">
         <f>B130+B129+B128</f>
@@ -3512,31 +3512,31 @@
       <c r="C131" s="13"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="14"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="14"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="14"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="14"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44620</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>51</v>
@@ -3576,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>51</v>
@@ -3588,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44622</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>52</v>
@@ -3614,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>52</v>
@@ -3626,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44626</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44627</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>53</v>
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>53</v>
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>53</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44629</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>52</v>
@@ -3716,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>52</v>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44604</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>55</v>
@@ -3754,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>55</v>
@@ -3766,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44633</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>56</v>
@@ -3792,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>56</v>
@@ -3804,11 +3804,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="13">
         <f>SUM(B165:B167)</f>
@@ -3854,31 +3854,31 @@
       <c r="C168" s="13"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="14"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="14"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="14"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="14"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44634</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>60</v>
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>60</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44636</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>63</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44641</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>60</v>
@@ -3980,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>60</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44647</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>59</v>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>61</v>
@@ -4030,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>61</v>
@@ -4042,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>61</v>
@@ -4054,35 +4054,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>1</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="13">
         <f>SUM(B202:B204)</f>
@@ -4130,31 +4130,31 @@
       <c r="C205" s="13"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="14"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="14"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="14"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="14"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44648</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>68</v>
@@ -4194,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>64</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44655</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>69</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>80</v>
@@ -4242,7 +4242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44663</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44667</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44669</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>66</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44671</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>71</v>
@@ -4321,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>80</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44674</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>76</v>
@@ -4358,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>81</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44675</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>78</v>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>73</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>74</v>
@@ -4419,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>74</v>
@@ -4431,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>74</v>
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>75</v>
@@ -4455,7 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>79</v>
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>82</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>83</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>84</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="13">
         <f>SUM(B246:B248)</f>
@@ -4554,35 +4554,35 @@
       <c r="C249" s="13"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="14"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="14"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="14"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="14"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>0</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44676</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" t="s">
         <v>87</v>
@@ -4631,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" t="s">
         <v>87</v>
@@ -4646,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>91</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>91</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>91</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44678</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" t="s">
         <v>92</v>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" t="s">
         <v>91</v>
@@ -4733,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44681</v>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44683</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>89</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>89</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>89</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44688</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" t="s">
         <v>86</v>
@@ -4839,7 +4839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" t="s">
         <v>86</v>
@@ -4854,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" t="s">
         <v>86</v>
@@ -4869,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44689</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>90</v>
       </c>
@@ -4900,11 +4900,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>1</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="4"/>
       <c r="B285" s="13">
         <f>SUM(B282:B284)</f>
@@ -4953,38 +4953,38 @@
       <c r="D285" s="13"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C286"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="14"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="14"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="14"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="14"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44695</v>
       </c>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44696</v>
       </c>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44697</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" t="s">
         <v>97</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" t="s">
         <v>97</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44700</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" t="s">
         <v>105</v>
@@ -5102,7 +5102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" t="s">
         <v>105</v>
@@ -5117,7 +5117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" t="s">
         <v>99</v>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44701</v>
       </c>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44702</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" t="s">
         <v>103</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" t="s">
         <v>102</v>
@@ -5188,7 +5188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" t="s">
         <v>102</v>
@@ -5203,7 +5203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" t="s">
         <v>102</v>
@@ -5218,7 +5218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" t="s">
         <v>104</v>
@@ -5233,7 +5233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" t="s">
         <v>104</v>
@@ -5248,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44703</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" t="s">
         <v>94</v>
@@ -5280,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" t="s">
         <v>104</v>
@@ -5295,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" t="s">
         <v>104</v>
@@ -5310,7 +5310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44705</v>
       </c>
@@ -5327,31 +5327,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="D317" s="16"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="D318" s="16"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="D319" s="16"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="D320" s="16"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>1</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4"/>
       <c r="B326" s="13">
         <f>SUM(B323:B325)</f>
@@ -5400,38 +5400,38 @@
       <c r="D326" s="13"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C327"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="14"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="14"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="14"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="14"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>0</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44711</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>111</v>
       </c>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44716</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44718</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" t="s">
         <v>107</v>
@@ -5524,7 +5524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44723</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" t="s">
         <v>116</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44724</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" t="s">
         <v>109</v>
@@ -5586,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" t="s">
         <v>113</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" t="s">
         <v>114</v>
@@ -5614,7 +5614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>108</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>115</v>
       </c>
@@ -5642,11 +5642,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C349"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>1</v>
       </c>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="4"/>
       <c r="B354" s="13">
         <f>SUM(B351:B353)</f>
@@ -5694,10 +5694,10 @@
       <c r="D354" s="13"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="17" t="s">
         <v>117</v>
       </c>
@@ -5707,44 +5707,44 @@
       </c>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C357"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C358"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C359"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="14"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="14"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="14"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="14"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44832</v>
       </c>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>120</v>
       </c>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" t="s">
         <v>120</v>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44838</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>122</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>122</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44839</v>
       </c>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" t="s">
         <v>123</v>
@@ -5874,7 +5874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" t="s">
         <v>123</v>
@@ -5889,7 +5889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44843</v>
       </c>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>118</v>
       </c>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44844</v>
       </c>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>123</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>123</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44845</v>
       </c>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>124</v>
       </c>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>124</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44850</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>125</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>125</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44851</v>
       </c>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>126</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>126</v>
       </c>
@@ -6076,14 +6076,14 @@
       </c>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C395"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>1</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="4"/>
       <c r="B400" s="19">
         <f>SUM(B397:B399)</f>
@@ -6132,35 +6132,35 @@
       <c r="D400" s="13"/>
       <c r="E400" s="6"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="14"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="14"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="14"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="14"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>44852</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>127</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" t="s">
         <v>65</v>
@@ -6223,7 +6223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>44853</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>127</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>128</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>44878</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" t="s">
         <v>129</v>
@@ -6300,7 +6300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" t="s">
         <v>129</v>
@@ -6315,7 +6315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>140</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>44879</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>133</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" t="s">
         <v>130</v>
@@ -6373,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>44880</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>136</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>138</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>44885</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>142</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>141</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>44886</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>137</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>139</v>
       </c>
@@ -6506,10 +6506,10 @@
       </c>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="s">
         <v>1</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>3</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="4"/>
       <c r="B438" s="19">
         <f>SUM(B435:B437)</f>
@@ -6558,35 +6558,35 @@
       <c r="D438" s="13"/>
       <c r="E438" s="6"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="14"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="14"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="14"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="14"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>0</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>44888</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B450" t="s">
         <v>154</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>44894</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B452" t="s">
         <v>143</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" t="s">
         <v>143</v>
@@ -6680,7 +6680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>152</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>44895</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
         <v>153</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B457" t="s">
         <v>153</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>144</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
         <v>144</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>144</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>44898</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
         <v>150</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>44899</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" t="s">
         <v>145</v>
@@ -6844,7 +6844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" t="s">
         <v>146</v>
@@ -6859,7 +6859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>146</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" t="s">
         <v>147</v>
@@ -6888,7 +6888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>44900</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" t="s">
         <v>148</v>
@@ -6920,7 +6920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>151</v>
       </c>
@@ -6934,10 +6934,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="9" t="s">
         <v>1</v>
       </c>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>3</v>
       </c>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="4"/>
       <c r="B476" s="19">
         <f>SUM(B473:B475)</f>
@@ -6986,35 +6986,35 @@
       <c r="D476" s="13"/>
       <c r="E476" s="6"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="14"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="14"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="14"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="14"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="7" t="s">
         <v>0</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>44902</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B487" t="s">
         <v>159</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B488" t="s">
         <v>159</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>44908</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B490" t="s">
         <v>155</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" t="s">
         <v>155</v>
@@ -7122,7 +7122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44909</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" t="s">
         <v>157</v>
@@ -7154,7 +7154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B494" t="s">
         <v>160</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>44912</v>
       </c>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B496" t="s">
         <v>158</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B497" t="s">
         <v>160</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>44913</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B499" t="s">
         <v>159</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B500" t="s">
         <v>159</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>44914</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B502" t="s">
         <v>156</v>
       </c>
@@ -7285,33 +7285,33 @@
       </c>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D503" s="16"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="D504" s="16"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="D505" s="16"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="D506" s="16"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D507" s="16"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="9" t="s">
         <v>1</v>
       </c>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>3</v>
       </c>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="4"/>
       <c r="B513" s="19">
         <f>SUM(B510:B512)</f>
@@ -7360,35 +7360,35 @@
       <c r="D513" s="13"/>
       <c r="E513" s="6"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="14"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="14"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="14"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="14"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="7" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>44916</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B524" t="s">
         <v>161</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" t="s">
         <v>161</v>
@@ -7451,7 +7451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>44936</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" t="s">
         <v>162</v>
@@ -7483,7 +7483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" t="s">
         <v>162</v>
@@ -7498,7 +7498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" t="s">
         <v>166</v>
@@ -7513,7 +7513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>44937</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" t="s">
         <v>163</v>
@@ -7545,7 +7545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>44938</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>44941</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" t="s">
         <v>164</v>
@@ -7594,7 +7594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" t="s">
         <v>164</v>
@@ -7609,7 +7609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>44942</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" t="s">
         <v>165</v>
@@ -7641,7 +7641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" t="s">
         <v>164</v>
@@ -7656,11 +7656,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="9" t="s">
         <v>1</v>
       </c>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>3</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="4"/>
       <c r="B544" s="19">
         <f>SUM(B541:B543)</f>
@@ -7709,35 +7709,35 @@
       <c r="D544" s="13"/>
       <c r="E544" s="6"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="14"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="14"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="14"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="14"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="7" t="s">
         <v>0</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>44950</v>
       </c>
@@ -7762,30 +7762,30 @@
         <v>168</v>
       </c>
       <c r="C554" s="11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D554" t="s">
         <v>7</v>
       </c>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B555" t="s">
         <v>168</v>
       </c>
       <c r="C555" s="11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
       </c>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>44951</v>
       </c>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" t="s">
         <v>169</v>
@@ -7813,11 +7813,11 @@
       </c>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>44956</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" t="s">
         <v>172</v>
@@ -7845,14 +7845,23 @@
       </c>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
+      <c r="B562" t="s">
+        <v>172</v>
+      </c>
+      <c r="C562" s="11">
+        <v>2</v>
+      </c>
+      <c r="D562" t="s">
+        <v>7</v>
+      </c>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>44958</v>
       </c>
@@ -7867,7 +7876,7 @@
       </c>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" t="s">
         <v>173</v>
@@ -7880,11 +7889,11 @@
       </c>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>44962</v>
       </c>
@@ -7899,7 +7908,7 @@
       </c>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" t="s">
         <v>174</v>
@@ -7912,7 +7921,7 @@
       </c>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>44963</v>
       </c>
@@ -7927,7 +7936,7 @@
       </c>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" t="s">
         <v>174</v>
@@ -7940,7 +7949,7 @@
       </c>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="9" t="s">
         <v>1</v>
       </c>
@@ -7949,38 +7958,38 @@
       </c>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>5</v>
       </c>
       <c r="B572" s="11"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>7</v>
       </c>
       <c r="B573" s="11">
-        <f>C554+C557+C560+C564+C567+C569</f>
-        <v>20</v>
+        <f>C554+C557+C560+C564+C567+C569+C562</f>
+        <v>22.5</v>
       </c>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>3</v>
       </c>
       <c r="B574" s="12">
         <f>C555+C558+C561+C565+C570+C568</f>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="4"/>
       <c r="B575" s="19">
         <f>SUM(B572:B574)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>

--- a/documents/TimeRecord.xlsx
+++ b/documents/TimeRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\youre-not-alone\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ2122\Syp\youre-not-alone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB8311-CA6B-46E0-AC2B-418884CE2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B995E1-3F85-49FD-A770-B39BDE220373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>Trying to fix animation bugs</t>
+  </si>
+  <si>
+    <t>Generate image for 3rd puzzle randomly</t>
+  </si>
+  <si>
+    <t>Trying to fix 3rd puzzle bug</t>
   </si>
 </sst>
 </file>
@@ -2227,45 +2233,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C556" sqref="C556"/>
+    <sheetView tabSelected="1" topLeftCell="A552" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I572" sqref="I572"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="14"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44534</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44535</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2319,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44536</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2345,12 +2351,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2365,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2375,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2385,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2395,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>B13+B14+B15</f>
@@ -2398,43 +2404,43 @@
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44543</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2474,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2486,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44545</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -2512,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -2524,7 +2530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44549</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2550,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2562,10 +2568,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2590,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2600,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>B35+B36+B37</f>
@@ -2613,43 +2619,43 @@
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="14"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44550</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>24</v>
@@ -2689,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -2701,7 +2707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44206</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>22</v>
@@ -2727,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>27</v>
@@ -2739,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44573</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>27</v>
@@ -2766,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44577</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>28</v>
@@ -2793,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2805,14 +2811,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2837,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2847,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2857,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="13">
         <f>B60+B61+B62</f>
@@ -2860,31 +2866,31 @@
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="14"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="14"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="14"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="14"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44583</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44584</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44585</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44587</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44589</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44590</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>22</v>
@@ -3016,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>33</v>
@@ -3028,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>36</v>
@@ -3040,7 +3046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>37</v>
@@ -3052,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>37</v>
@@ -3064,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44591</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>22</v>
@@ -3090,7 +3096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>37</v>
@@ -3102,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>37</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44592</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44593</v>
       </c>
@@ -3152,10 +3158,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
@@ -3164,7 +3170,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3174,7 +3180,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3190,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="13">
         <f>B99+B98+B97</f>
@@ -3203,31 +3209,31 @@
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="14"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="14"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="14"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="14"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44599</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>42</v>
@@ -3267,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>40</v>
@@ -3279,7 +3285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>40</v